--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DD1BBE-2398-4F05-8539-3DCB7517042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5AED2-3663-496D-8286-08D3BB2079E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="65">
   <si>
     <t>Gameweek</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Bentley</t>
+  </si>
+  <si>
+    <t>Havertz</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
   </si>
 </sst>
 </file>
@@ -597,13 +603,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomRight" activeCell="F106" sqref="F92:F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2431,6 +2437,606 @@
         <v>0</v>
       </c>
     </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>27</v>
+      </c>
+      <c r="D98" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>25</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>30</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104" t="s">
+        <v>20</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>33</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>62</v>
+      </c>
+      <c r="D108" t="s">
+        <v>44</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>41</v>
+      </c>
+      <c r="D110" t="s">
+        <v>20</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>42</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>45</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>46</v>
+      </c>
+      <c r="D113" t="s">
+        <v>49</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>60</v>
+      </c>
+      <c r="D114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>55</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>47</v>
+      </c>
+      <c r="D118" t="s">
+        <v>48</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" t="s">
+        <v>48</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>57</v>
+      </c>
+      <c r="D120" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>16</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2438,10 +3044,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,10 +3162,34 @@
         <v>176</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <f>SUM('Weekly Points'!F92:F106)+C8</f>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <f>SUM('Weekly Points'!F107:F121)+C9</f>
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C5 C6" formulaRange="1"/>
+    <ignoredError sqref="C4:C5 C6 C7:C11" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B5AED2-3663-496D-8286-08D3BB2079E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF7822-7834-454B-A731-D482697C6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -605,11 +605,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F106" sqref="F92:F106"/>
+      <selection pane="bottomRight" activeCell="F107" sqref="F107:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2794,7 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3046,7 +3046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="C11">
         <f>SUM('Weekly Points'!F107:F121)+C9</f>
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EF7822-7834-454B-A731-D482697C6BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C144A601-E6E9-4114-8B27-FB2BD3101270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="75">
   <si>
     <t>Gameweek</t>
   </si>
@@ -232,6 +232,36 @@
   </si>
   <si>
     <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Arrizaballago</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Cucurello</t>
+  </si>
+  <si>
+    <t>Murillo</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>De Ligt</t>
+  </si>
+  <si>
+    <t>Amad</t>
+  </si>
+  <si>
+    <t>Smith-Rowe</t>
+  </si>
+  <si>
+    <t>Madueke</t>
+  </si>
+  <si>
+    <t>Luis Diaz</t>
   </si>
 </sst>
 </file>
@@ -603,13 +633,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F107" sqref="F107:F121"/>
+      <selection pane="bottomRight" activeCell="F151" sqref="F137:F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3037,6 +3067,606 @@
         <v>2</v>
       </c>
     </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>27</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>74</v>
+      </c>
+      <c r="D129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>16</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131" t="s">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>32</v>
+      </c>
+      <c r="D134" t="s">
+        <v>20</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" t="s">
+        <v>16</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+      <c r="D140" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>70</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>51</v>
+      </c>
+      <c r="D145" t="s">
+        <v>52</v>
+      </c>
+      <c r="E145" t="s">
+        <v>11</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>71</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>72</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>11</v>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>73</v>
+      </c>
+      <c r="D148" t="s">
+        <v>52</v>
+      </c>
+      <c r="E148" t="s">
+        <v>11</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>33</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>32</v>
+      </c>
+      <c r="D150" t="s">
+        <v>20</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>16</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3044,10 +3674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3186,6 +3816,30 @@
         <v>211</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f>SUM('Weekly Points'!F122:F136)+C10</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>SUM('Weekly Points'!F137:F151)+C11</f>
+        <v>267</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C144A601-E6E9-4114-8B27-FB2BD3101270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540DBD2D-157F-4DEF-8783-8CCCECF1AF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
   <si>
     <t>Gameweek</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Luis Diaz</t>
+  </si>
+  <si>
+    <t>Wellbeck</t>
   </si>
 </sst>
 </file>
@@ -633,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F151" sqref="F137:F151"/>
+      <selection pane="bottomRight" activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3667,6 +3670,606 @@
         <v>2</v>
       </c>
     </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
+      </c>
+      <c r="C153" t="s">
+        <v>21</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>23</v>
+      </c>
+      <c r="D155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>36</v>
+      </c>
+      <c r="D157" t="s">
+        <v>14</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158" t="s">
+        <v>18</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>74</v>
+      </c>
+      <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" t="s">
+        <v>16</v>
+      </c>
+      <c r="E160" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>29</v>
+      </c>
+      <c r="D161" t="s">
+        <v>19</v>
+      </c>
+      <c r="E161" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" t="s">
+        <v>52</v>
+      </c>
+      <c r="E162" t="s">
+        <v>11</v>
+      </c>
+      <c r="F162">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" t="s">
+        <v>11</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" t="s">
+        <v>20</v>
+      </c>
+      <c r="E164" t="s">
+        <v>12</v>
+      </c>
+      <c r="F164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>33</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>15</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" t="s">
+        <v>66</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" t="s">
+        <v>9</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>16</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>67</v>
+      </c>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>36</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>70</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" t="s">
+        <v>29</v>
+      </c>
+      <c r="D174" t="s">
+        <v>19</v>
+      </c>
+      <c r="E174" t="s">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" t="s">
+        <v>11</v>
+      </c>
+      <c r="F175">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" t="s">
+        <v>71</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" t="s">
+        <v>72</v>
+      </c>
+      <c r="D177" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" t="s">
+        <v>11</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>73</v>
+      </c>
+      <c r="D178" t="s">
+        <v>52</v>
+      </c>
+      <c r="E178" t="s">
+        <v>11</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>75</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" t="s">
+        <v>12</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>16</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3674,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,6 +4443,30 @@
         <v>267</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>SUM('Weekly Points'!F152:F166)+C12</f>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>SUM('Weekly Points'!F167:F181)+C13</f>
+        <v>319</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540DBD2D-157F-4DEF-8783-8CCCECF1AF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F570D8-15A3-4FBF-8CBA-5DB7DCBBD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="77">
   <si>
     <t>Gameweek</t>
   </si>
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Wellbeck</t>
+  </si>
+  <si>
+    <t>N . Jackson</t>
   </si>
 </sst>
 </file>
@@ -636,13 +639,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B143" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H153" sqref="H153"/>
+      <selection pane="bottomRight" activeCell="K199" sqref="K199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4270,6 +4273,606 @@
         <v>6</v>
       </c>
     </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
+      <c r="E182" t="s">
+        <v>9</v>
+      </c>
+      <c r="F182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183" t="s">
+        <v>19</v>
+      </c>
+      <c r="E183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" t="s">
+        <v>22</v>
+      </c>
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" t="s">
+        <v>23</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>16</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
+      </c>
+      <c r="C187" t="s">
+        <v>36</v>
+      </c>
+      <c r="D187" t="s">
+        <v>14</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
+      </c>
+      <c r="C188" t="s">
+        <v>27</v>
+      </c>
+      <c r="D188" t="s">
+        <v>18</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
+      </c>
+      <c r="C189" t="s">
+        <v>74</v>
+      </c>
+      <c r="D189" t="s">
+        <v>54</v>
+      </c>
+      <c r="E189" t="s">
+        <v>11</v>
+      </c>
+      <c r="F189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" t="s">
+        <v>16</v>
+      </c>
+      <c r="E190" t="s">
+        <v>11</v>
+      </c>
+      <c r="F190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
+      </c>
+      <c r="C191" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" t="s">
+        <v>19</v>
+      </c>
+      <c r="E191" t="s">
+        <v>11</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192" t="s">
+        <v>51</v>
+      </c>
+      <c r="D192" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192" t="s">
+        <v>11</v>
+      </c>
+      <c r="F192">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>7</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194" t="s">
+        <v>32</v>
+      </c>
+      <c r="D194" t="s">
+        <v>20</v>
+      </c>
+      <c r="E194" t="s">
+        <v>12</v>
+      </c>
+      <c r="F194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>7</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
+      </c>
+      <c r="C195" t="s">
+        <v>33</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" t="s">
+        <v>12</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+      <c r="D196" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196" t="s">
+        <v>12</v>
+      </c>
+      <c r="F196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>7</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" t="s">
+        <v>66</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>7</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" t="s">
+        <v>21</v>
+      </c>
+      <c r="D198" t="s">
+        <v>19</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>40</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>7</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>67</v>
+      </c>
+      <c r="D200" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>36</v>
+      </c>
+      <c r="D201" t="s">
+        <v>14</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>7</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>7</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" t="s">
+        <v>70</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>7</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" t="s">
+        <v>19</v>
+      </c>
+      <c r="E204" t="s">
+        <v>11</v>
+      </c>
+      <c r="F204">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>7</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" t="s">
+        <v>51</v>
+      </c>
+      <c r="D205" t="s">
+        <v>52</v>
+      </c>
+      <c r="E205" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>7</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" t="s">
+        <v>71</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>7</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" t="s">
+        <v>72</v>
+      </c>
+      <c r="D207" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" t="s">
+        <v>11</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>7</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" t="s">
+        <v>73</v>
+      </c>
+      <c r="D208" t="s">
+        <v>52</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>7</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>75</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" t="s">
+        <v>12</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>7</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" t="s">
+        <v>32</v>
+      </c>
+      <c r="D210" t="s">
+        <v>20</v>
+      </c>
+      <c r="E210" t="s">
+        <v>12</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>16</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4277,10 +4880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,10 +5070,34 @@
         <v>319</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f>SUM('Weekly Points'!F182:F196)+C14</f>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f>SUM('Weekly Points'!F197:F211)+C15</f>
+        <v>367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C5 C6 C7:C11" formulaRange="1"/>
+    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F570D8-15A3-4FBF-8CBA-5DB7DCBBD554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A7238-9A48-4E26-B75A-B71A9E6F9431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="80">
   <si>
     <t>Gameweek</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>N . Jackson</t>
+  </si>
+  <si>
+    <t>Konate</t>
+  </si>
+  <si>
+    <t>McNeil</t>
+  </si>
+  <si>
+    <t>Everton</t>
   </si>
 </sst>
 </file>
@@ -639,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K199" sqref="K199"/>
+      <selection pane="bottomRight" activeCell="M234" sqref="M234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4873,6 +4882,606 @@
         <v>8</v>
       </c>
     </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>8</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>9</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
+      </c>
+      <c r="C213" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" t="s">
+        <v>19</v>
+      </c>
+      <c r="E213" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>8</v>
+      </c>
+      <c r="B214" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>8</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
+      </c>
+      <c r="C215" t="s">
+        <v>23</v>
+      </c>
+      <c r="D215" t="s">
+        <v>35</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s">
+        <v>16</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>8</v>
+      </c>
+      <c r="B217" t="s">
+        <v>6</v>
+      </c>
+      <c r="C217" t="s">
+        <v>36</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>8</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>27</v>
+      </c>
+      <c r="D218" t="s">
+        <v>18</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
+      </c>
+      <c r="C219" t="s">
+        <v>74</v>
+      </c>
+      <c r="D219" t="s">
+        <v>54</v>
+      </c>
+      <c r="E219" t="s">
+        <v>11</v>
+      </c>
+      <c r="F219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>8</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C220" t="s">
+        <v>78</v>
+      </c>
+      <c r="D220" t="s">
+        <v>79</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>8</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
+      </c>
+      <c r="C221" t="s">
+        <v>29</v>
+      </c>
+      <c r="D221" t="s">
+        <v>19</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>8</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" t="s">
+        <v>51</v>
+      </c>
+      <c r="D222" t="s">
+        <v>52</v>
+      </c>
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>8</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>64</v>
+      </c>
+      <c r="E223" t="s">
+        <v>11</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>8</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
+      </c>
+      <c r="C224" t="s">
+        <v>32</v>
+      </c>
+      <c r="D224" t="s">
+        <v>20</v>
+      </c>
+      <c r="E224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>8</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
+      </c>
+      <c r="C226" t="s">
+        <v>76</v>
+      </c>
+      <c r="D226" t="s">
+        <v>52</v>
+      </c>
+      <c r="E226" t="s">
+        <v>12</v>
+      </c>
+      <c r="F226">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>8</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
+        <v>21</v>
+      </c>
+      <c r="D228" t="s">
+        <v>19</v>
+      </c>
+      <c r="E228" t="s">
+        <v>9</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>8</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>40</v>
+      </c>
+      <c r="D229" t="s">
+        <v>16</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>8</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>77</v>
+      </c>
+      <c r="D230" t="s">
+        <v>54</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>8</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>36</v>
+      </c>
+      <c r="D231" t="s">
+        <v>14</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>8</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>8</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>70</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>8</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>29</v>
+      </c>
+      <c r="D234" t="s">
+        <v>19</v>
+      </c>
+      <c r="E234" t="s">
+        <v>11</v>
+      </c>
+      <c r="F234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>8</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>52</v>
+      </c>
+      <c r="E235" t="s">
+        <v>11</v>
+      </c>
+      <c r="F235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>8</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>8</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>72</v>
+      </c>
+      <c r="D237" t="s">
+        <v>35</v>
+      </c>
+      <c r="E237" t="s">
+        <v>11</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>73</v>
+      </c>
+      <c r="D238" t="s">
+        <v>52</v>
+      </c>
+      <c r="E238" t="s">
+        <v>11</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>8</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>75</v>
+      </c>
+      <c r="D239" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" t="s">
+        <v>12</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>8</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>32</v>
+      </c>
+      <c r="D240" t="s">
+        <v>20</v>
+      </c>
+      <c r="E240" t="s">
+        <v>12</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>63</v>
+      </c>
+      <c r="D241" t="s">
+        <v>16</v>
+      </c>
+      <c r="E241" t="s">
+        <v>12</v>
+      </c>
+      <c r="F241">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4880,10 +5489,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5094,10 +5703,34 @@
         <v>367</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <f>SUM('Weekly Points'!F212:F226)+C16</f>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>SUM('Weekly Points'!F227:F241)+C17</f>
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17" formulaRange="1"/>
+    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17 C18:C19" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96A7238-9A48-4E26-B75A-B71A9E6F9431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAFE5C-A4D6-45D9-9C40-A1F1F4F477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -650,11 +650,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B206" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M234" sqref="M234"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +684,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -699,12 +699,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -739,12 +739,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -753,7 +753,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -779,32 +779,32 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -824,47 +824,47 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -884,16 +884,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -904,27 +904,27 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -939,12 +939,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -959,61 +959,61 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1039,61 +1039,61 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
@@ -1104,47 +1104,47 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1164,127 +1164,127 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
       </c>
       <c r="F26">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1299,12 +1299,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1339,12 +1339,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1353,18 +1353,18 @@
         <v>23</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1379,32 +1379,32 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1419,52 +1419,52 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1479,52 +1479,52 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
       </c>
       <c r="F42">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1539,12 +1539,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1564,16 +1564,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
@@ -1584,36 +1584,36 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1639,41 +1639,41 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
@@ -1684,67 +1684,67 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1759,132 +1759,132 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D56" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D59" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1899,12 +1899,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1939,12 +1939,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1959,12 +1959,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1979,12 +1979,12 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1999,12 +1999,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2024,16 +2024,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D69" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2059,12 +2059,12 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2079,52 +2079,52 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2139,12 +2139,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2159,12 +2159,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2184,36 +2184,36 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
         <v>9</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -2239,61 +2239,61 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
         <v>10</v>
@@ -2304,36 +2304,36 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
       </c>
       <c r="C83" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D83" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E83" t="s">
         <v>10</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2359,61 +2359,61 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
       </c>
       <c r="F86">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87">
         <v>3</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -2424,67 +2424,67 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D90" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
       </c>
       <c r="F90">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2499,12 +2499,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2524,7 +2524,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2579,12 +2579,12 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2604,7 +2604,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2624,27 +2624,27 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D99" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2659,12 +2659,12 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2679,12 +2679,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2699,12 +2699,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2719,12 +2719,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2739,12 +2739,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2759,12 +2759,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2779,41 +2779,41 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D108" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -2824,13 +2824,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -2839,81 +2839,81 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D110" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D112" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E112" t="s">
         <v>10</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D113" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E113" t="s">
         <v>10</v>
@@ -2924,27 +2924,27 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2959,81 +2959,81 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D116" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D118" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
@@ -3044,27 +3044,27 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D120" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
       </c>
       <c r="F120">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3099,12 +3099,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3124,7 +3124,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3179,12 +3179,12 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3224,27 +3224,27 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
+        <v>4</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
         <v>5</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>74</v>
-      </c>
-      <c r="D129" t="s">
-        <v>54</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129">
-        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3259,12 +3259,12 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3279,12 +3279,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3299,12 +3299,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3319,12 +3319,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3339,12 +3339,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3359,12 +3359,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3379,41 +3379,41 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D137" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
         <v>16</v>
@@ -3439,81 +3439,81 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D142" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3524,27 +3524,27 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3559,81 +3559,81 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D148" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="D149" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -3644,27 +3644,27 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
       </c>
       <c r="F150">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3699,12 +3699,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3739,12 +3739,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3759,12 +3759,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3779,12 +3779,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3799,12 +3799,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3824,16 +3824,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3859,12 +3859,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3879,52 +3879,52 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D162" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="F162">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D163" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3939,12 +3939,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3959,12 +3959,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3984,36 +3984,36 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D167" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -4024,13 +4024,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -4039,61 +4039,61 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D172" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
@@ -4104,36 +4104,36 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D173" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4159,61 +4159,61 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D178" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -4224,67 +4224,67 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D179" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
       </c>
       <c r="F181">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4299,12 +4299,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4339,12 +4339,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4353,18 +4353,18 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4379,32 +4379,32 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4419,52 +4419,52 @@
         <v>10</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D189" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4479,52 +4479,52 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D192" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
       </c>
       <c r="F192">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D193" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4539,12 +4539,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4564,16 +4564,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -4584,36 +4584,36 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D197" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4639,41 +4639,41 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D201" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
@@ -4684,67 +4684,67 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D204" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
       </c>
       <c r="F204">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4759,132 +4759,132 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E206" t="s">
         <v>11</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D207" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D209" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
       </c>
       <c r="F210">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4899,12 +4899,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4939,12 +4939,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4953,7 +4953,7 @@
         <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4979,32 +4979,32 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5024,47 +5024,47 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="D219" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D220" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
       </c>
       <c r="F220">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5084,16 +5084,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D222" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
@@ -5104,27 +5104,27 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D223" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E223" t="s">
         <v>11</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5139,12 +5139,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5159,61 +5159,61 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D226" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
       </c>
       <c r="F226">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D227" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="E227" t="s">
         <v>9</v>
       </c>
       <c r="F227">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="D228" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
@@ -5224,7 +5224,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5239,61 +5239,61 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D230" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D231" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="D232" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
@@ -5304,47 +5304,47 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="D233" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D234" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5364,125 +5364,128 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D236" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E236" t="s">
         <v>11</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D237" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E237" t="s">
         <v>11</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D238" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E238" t="s">
         <v>11</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="D239" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D240" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
+    <sortCondition descending="1" ref="A2:A241"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5491,7 +5494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -5544,7 +5547,7 @@
       </c>
       <c r="C4">
         <f>SUM('Weekly Points'!F2:F16)</f>
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5556,7 +5559,7 @@
       </c>
       <c r="C5">
         <f>SUM('Weekly Points'!F17:F31)</f>
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5568,7 +5571,7 @@
       </c>
       <c r="C6">
         <f>SUM('Weekly Points'!F32:F46)+C4</f>
-        <v>126</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5580,7 +5583,7 @@
       </c>
       <c r="C7">
         <f>SUM('Weekly Points'!F47:F61)+C5</f>
-        <v>132</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5592,7 +5595,7 @@
       </c>
       <c r="C8">
         <f>SUM('Weekly Points'!F62:F76)+C6</f>
-        <v>185</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5604,7 +5607,7 @@
       </c>
       <c r="C9">
         <f>SUM('Weekly Points'!F77:F91)+C7</f>
-        <v>176</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5616,7 +5619,7 @@
       </c>
       <c r="C10">
         <f>SUM('Weekly Points'!F92:F106)+C8</f>
-        <v>262</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5628,7 +5631,7 @@
       </c>
       <c r="C11">
         <f>SUM('Weekly Points'!F107:F121)+C9</f>
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,7 +5643,7 @@
       </c>
       <c r="C12">
         <f>SUM('Weekly Points'!F122:F136)+C10</f>
-        <v>325</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5652,7 +5655,7 @@
       </c>
       <c r="C13">
         <f>SUM('Weekly Points'!F137:F151)+C11</f>
-        <v>267</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5664,7 +5667,7 @@
       </c>
       <c r="C14">
         <f>SUM('Weekly Points'!F152:F166)+C12</f>
-        <v>392</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5676,7 +5679,7 @@
       </c>
       <c r="C15">
         <f>SUM('Weekly Points'!F167:F181)+C13</f>
-        <v>319</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5688,7 +5691,7 @@
       </c>
       <c r="C16">
         <f>SUM('Weekly Points'!F182:F196)+C14</f>
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5700,7 +5703,7 @@
       </c>
       <c r="C17">
         <f>SUM('Weekly Points'!F197:F211)+C15</f>
-        <v>367</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CAFE5C-A4D6-45D9-9C40-A1F1F4F477CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718E07A-2103-4BC0-A1F3-CDA54E6976AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -267,9 +267,6 @@
     <t>Wellbeck</t>
   </si>
   <si>
-    <t>N . Jackson</t>
-  </si>
-  <si>
     <t>Konate</t>
   </si>
   <si>
@@ -277,6 +274,9 @@
   </si>
   <si>
     <t>Everton</t>
+  </si>
+  <si>
+    <t>N. Jackson</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,10 +850,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" t="s">
         <v>78</v>
-      </c>
-      <c r="D10" t="s">
-        <v>79</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -970,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>52</v>
@@ -1050,7 +1050,7 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
         <v>54</v>
@@ -1570,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>52</v>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8718E07A-2103-4BC0-A1F3-CDA54E6976AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516EB50-E08C-462F-812E-359AAE684B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="81">
   <si>
     <t>Gameweek</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>N. Jackson</t>
+  </si>
+  <si>
+    <t>Georginio</t>
   </si>
 </sst>
 </file>
@@ -648,13 +651,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F241"/>
+  <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +687,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -699,12 +702,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -724,7 +727,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -744,7 +747,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -764,27 +767,27 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -824,7 +827,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -839,12 +842,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -859,12 +862,12 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -879,12 +882,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -899,12 +902,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -919,12 +922,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -939,12 +942,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -964,7 +967,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -979,12 +982,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -999,12 +1002,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1024,7 +1027,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1044,7 +1047,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1064,7 +1067,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1084,7 +1087,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1104,7 +1107,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1119,12 +1122,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1139,12 +1142,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1159,12 +1162,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1184,27 +1187,27 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1219,12 +1222,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1239,12 +1242,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1259,12 +1262,12 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1284,7 +1287,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1299,12 +1302,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1324,7 +1327,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1344,7 +1347,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1359,12 +1362,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1384,7 +1387,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1399,12 +1402,12 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1444,27 +1447,27 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1479,12 +1482,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1499,12 +1502,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1519,12 +1522,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1544,7 +1547,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1579,12 +1582,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1599,12 +1602,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1624,7 +1627,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1639,21 +1642,21 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D50" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
@@ -1664,7 +1667,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1679,12 +1682,12 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1704,7 +1707,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1719,12 +1722,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1739,12 +1742,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1759,12 +1762,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1784,7 +1787,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1804,7 +1807,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1819,12 +1822,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1844,7 +1847,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1879,12 +1882,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1899,12 +1902,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1924,7 +1927,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1939,12 +1942,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1959,12 +1962,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1984,7 +1987,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -1999,12 +2002,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2024,7 +2027,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2039,12 +2042,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2079,12 +2082,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2099,12 +2102,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2119,12 +2122,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2144,7 +2147,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2164,16 +2167,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
@@ -2184,7 +2187,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2224,13 +2227,13 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
       </c>
       <c r="C79" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
@@ -2239,12 +2242,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2259,12 +2262,12 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2279,12 +2282,12 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2324,7 +2327,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2339,12 +2342,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2359,12 +2362,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2379,12 +2382,12 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2399,12 +2402,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2419,12 +2422,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2439,12 +2442,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2479,12 +2482,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2499,12 +2502,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2539,12 +2542,12 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2559,12 +2562,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2579,12 +2582,12 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2599,12 +2602,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2639,12 +2642,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2659,12 +2662,12 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2684,27 +2687,27 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2739,12 +2742,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2759,12 +2762,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2779,12 +2782,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2799,12 +2802,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2824,7 +2827,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2839,12 +2842,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2859,12 +2862,12 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2879,12 +2882,12 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2919,12 +2922,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2944,7 +2947,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2959,12 +2962,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2979,12 +2982,12 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -2999,12 +3002,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3019,18 +3022,18 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -3039,12 +3042,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3059,12 +3062,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3079,12 +3082,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3099,12 +3102,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3124,7 +3127,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3144,7 +3147,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3164,7 +3167,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3179,12 +3182,12 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3224,27 +3227,27 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D129" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3259,12 +3262,12 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3279,12 +3282,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3299,12 +3302,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3319,12 +3322,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3339,12 +3342,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3359,12 +3362,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3379,41 +3382,41 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" t="s">
+        <v>66</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
         <v>4</v>
-      </c>
-      <c r="B137" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" t="s">
-        <v>38</v>
-      </c>
-      <c r="D137" t="s">
-        <v>39</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137">
-        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D138" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -3424,13 +3427,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D139" t="s">
         <v>16</v>
@@ -3439,81 +3442,81 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D140" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D141" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D142" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E142" t="s">
         <v>10</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D143" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E143" t="s">
         <v>10</v>
@@ -3524,27 +3527,27 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3559,81 +3562,81 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D146" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
       </c>
       <c r="F146">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D147" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D148" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D149" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E149" t="s">
         <v>12</v>
@@ -3644,27 +3647,27 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D150" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3684,7 +3687,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3699,12 +3702,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3739,12 +3742,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3764,7 +3767,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3779,12 +3782,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3799,12 +3802,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3824,7 +3827,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3839,12 +3842,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3859,12 +3862,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3884,7 +3887,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3899,32 +3902,32 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3939,12 +3942,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3959,12 +3962,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3979,12 +3982,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -3999,12 +4002,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4024,7 +4027,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4039,12 +4042,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4059,12 +4062,12 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4079,12 +4082,12 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4099,12 +4102,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4124,7 +4127,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4139,12 +4142,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4159,12 +4162,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4179,12 +4182,12 @@
         <v>11</v>
       </c>
       <c r="F176">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4204,7 +4207,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4224,7 +4227,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4239,12 +4242,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4259,32 +4262,32 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D181" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4304,7 +4307,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4324,7 +4327,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4339,12 +4342,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4353,7 +4356,7 @@
         <v>23</v>
       </c>
       <c r="D185" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E185" t="s">
         <v>10</v>
@@ -4364,7 +4367,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4379,32 +4382,32 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D187" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4419,12 +4422,12 @@
         <v>10</v>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4444,16 +4447,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4479,12 +4482,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4499,12 +4502,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4519,12 +4522,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4544,7 +4547,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4559,12 +4562,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4584,7 +4587,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4604,7 +4607,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4624,7 +4627,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4639,12 +4642,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4664,7 +4667,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4679,12 +4682,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4699,12 +4702,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4724,13 +4727,13 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D204" t="s">
         <v>20</v>
@@ -4739,12 +4742,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4759,12 +4762,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4779,12 +4782,12 @@
         <v>11</v>
       </c>
       <c r="F206">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4799,12 +4802,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4824,7 +4827,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4839,12 +4842,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4859,12 +4862,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4879,12 +4882,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4899,12 +4902,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4924,7 +4927,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4939,12 +4942,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4964,7 +4967,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4984,7 +4987,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5004,7 +5007,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5019,12 +5022,12 @@
         <v>10</v>
       </c>
       <c r="F218">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5039,12 +5042,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5059,12 +5062,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5079,12 +5082,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5099,12 +5102,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5119,12 +5122,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5139,12 +5142,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5159,12 +5162,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5179,12 +5182,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5199,12 +5202,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5224,7 +5227,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5244,7 +5247,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5259,12 +5262,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5279,12 +5282,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5299,12 +5302,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5324,7 +5327,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5339,12 +5342,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5359,12 +5362,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5379,12 +5382,12 @@
         <v>11</v>
       </c>
       <c r="F236">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5399,12 +5402,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5424,16 +5427,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D239" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -5444,7 +5447,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5459,12 +5462,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5482,9 +5485,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+      <c r="C242" t="s">
+        <v>8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>9</v>
+      </c>
+      <c r="F242">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
+      </c>
+      <c r="C243" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" t="s">
+        <v>19</v>
+      </c>
+      <c r="E243" t="s">
+        <v>9</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
+      </c>
+      <c r="C244" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
+      </c>
+      <c r="C245" t="s">
+        <v>23</v>
+      </c>
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>1</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>24</v>
+      </c>
+      <c r="D246" t="s">
+        <v>16</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>1</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
+      </c>
+      <c r="C247" t="s">
+        <v>26</v>
+      </c>
+      <c r="D247" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>1</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
+      </c>
+      <c r="C248" t="s">
+        <v>27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>18</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+      <c r="C249" t="s">
+        <v>25</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>11</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
+      </c>
+      <c r="C250" t="s">
+        <v>28</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" t="s">
+        <v>11</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
+      </c>
+      <c r="C251" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251" t="s">
+        <v>19</v>
+      </c>
+      <c r="E251" t="s">
+        <v>11</v>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" t="s">
+        <v>14</v>
+      </c>
+      <c r="E252" t="s">
+        <v>11</v>
+      </c>
+      <c r="F252">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>31</v>
+      </c>
+      <c r="D253" t="s">
+        <v>16</v>
+      </c>
+      <c r="E253" t="s">
+        <v>11</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
+      </c>
+      <c r="C254" t="s">
+        <v>32</v>
+      </c>
+      <c r="D254" t="s">
+        <v>20</v>
+      </c>
+      <c r="E254" t="s">
+        <v>12</v>
+      </c>
+      <c r="F254">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>33</v>
+      </c>
+      <c r="D255" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" t="s">
+        <v>12</v>
+      </c>
+      <c r="F255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+      <c r="C256" t="s">
+        <v>34</v>
+      </c>
+      <c r="D256" t="s">
+        <v>15</v>
+      </c>
+      <c r="E256" t="s">
+        <v>12</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>38</v>
+      </c>
+      <c r="D257" t="s">
+        <v>39</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" t="s">
+        <v>62</v>
+      </c>
+      <c r="D258" t="s">
+        <v>44</v>
+      </c>
+      <c r="E258" t="s">
+        <v>9</v>
+      </c>
+      <c r="F258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>1</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>40</v>
+      </c>
+      <c r="D259" t="s">
+        <v>16</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>1</v>
+      </c>
+      <c r="B260" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" t="s">
+        <v>20</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>1</v>
+      </c>
+      <c r="B261" t="s">
+        <v>7</v>
+      </c>
+      <c r="C261" t="s">
+        <v>42</v>
+      </c>
+      <c r="D261" t="s">
+        <v>43</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>1</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>45</v>
+      </c>
+      <c r="D262" t="s">
+        <v>19</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" t="s">
+        <v>46</v>
+      </c>
+      <c r="D263" t="s">
+        <v>49</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>50</v>
+      </c>
+      <c r="D264" t="s">
+        <v>20</v>
+      </c>
+      <c r="E264" t="s">
+        <v>11</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265" t="s">
+        <v>7</v>
+      </c>
+      <c r="C265" t="s">
+        <v>51</v>
+      </c>
+      <c r="D265" t="s">
+        <v>52</v>
+      </c>
+      <c r="E265" t="s">
+        <v>11</v>
+      </c>
+      <c r="F265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266" t="s">
+        <v>7</v>
+      </c>
+      <c r="C266" t="s">
+        <v>53</v>
+      </c>
+      <c r="D266" t="s">
+        <v>54</v>
+      </c>
+      <c r="E266" t="s">
+        <v>11</v>
+      </c>
+      <c r="F266">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267" t="s">
+        <v>7</v>
+      </c>
+      <c r="C267" t="s">
+        <v>55</v>
+      </c>
+      <c r="D267" t="s">
+        <v>19</v>
+      </c>
+      <c r="E267" t="s">
+        <v>11</v>
+      </c>
+      <c r="F267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268" t="s">
+        <v>7</v>
+      </c>
+      <c r="C268" t="s">
+        <v>47</v>
+      </c>
+      <c r="D268" t="s">
+        <v>48</v>
+      </c>
+      <c r="E268" t="s">
+        <v>11</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>56</v>
+      </c>
+      <c r="D269" t="s">
+        <v>14</v>
+      </c>
+      <c r="E269" t="s">
+        <v>12</v>
+      </c>
+      <c r="F269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" t="s">
+        <v>57</v>
+      </c>
+      <c r="D270" t="s">
+        <v>43</v>
+      </c>
+      <c r="E270" t="s">
+        <v>12</v>
+      </c>
+      <c r="F270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>58</v>
+      </c>
+      <c r="D271" t="s">
+        <v>19</v>
+      </c>
+      <c r="E271" t="s">
+        <v>12</v>
+      </c>
+      <c r="F271">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F241">
-    <sortCondition descending="1" ref="A2:A241"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F271">
+    <sortCondition descending="1" ref="A2:A271"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5495,7 +6098,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5547,7 +6150,7 @@
       </c>
       <c r="C4">
         <f>SUM('Weekly Points'!F2:F16)</f>
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5559,7 +6162,7 @@
       </c>
       <c r="C5">
         <f>SUM('Weekly Points'!F17:F31)</f>
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5571,7 +6174,7 @@
       </c>
       <c r="C6">
         <f>SUM('Weekly Points'!F32:F46)+C4</f>
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5583,7 +6186,7 @@
       </c>
       <c r="C7">
         <f>SUM('Weekly Points'!F47:F61)+C5</f>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5595,7 +6198,7 @@
       </c>
       <c r="C8">
         <f>SUM('Weekly Points'!F62:F76)+C6</f>
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,7 +6210,7 @@
       </c>
       <c r="C9">
         <f>SUM('Weekly Points'!F77:F91)+C7</f>
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5619,7 +6222,7 @@
       </c>
       <c r="C10">
         <f>SUM('Weekly Points'!F92:F106)+C8</f>
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5631,7 +6234,7 @@
       </c>
       <c r="C11">
         <f>SUM('Weekly Points'!F107:F121)+C9</f>
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5643,7 +6246,7 @@
       </c>
       <c r="C12">
         <f>SUM('Weekly Points'!F122:F136)+C10</f>
-        <v>271</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5655,7 +6258,7 @@
       </c>
       <c r="C13">
         <f>SUM('Weekly Points'!F137:F151)+C11</f>
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5667,7 +6270,7 @@
       </c>
       <c r="C14">
         <f>SUM('Weekly Points'!F152:F166)+C12</f>
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5679,7 +6282,7 @@
       </c>
       <c r="C15">
         <f>SUM('Weekly Points'!F167:F181)+C13</f>
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,7 +6294,7 @@
       </c>
       <c r="C16">
         <f>SUM('Weekly Points'!F182:F196)+C14</f>
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5703,7 +6306,7 @@
       </c>
       <c r="C17">
         <f>SUM('Weekly Points'!F197:F211)+C15</f>
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5715,7 +6318,7 @@
       </c>
       <c r="C18">
         <f>SUM('Weekly Points'!F212:F226)+C16</f>
-        <v>456</v>
+        <v>464</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5727,7 +6330,7 @@
       </c>
       <c r="C19">
         <f>SUM('Weekly Points'!F227:F241)+C17</f>
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1516EB50-E08C-462F-812E-359AAE684B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5B809-2AAE-4574-AA0A-77764A4077EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="81">
   <si>
     <t>Gameweek</t>
   </si>
@@ -653,11 +653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
   <dimension ref="A1:F271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6095,10 +6095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6333,10 +6333,34 @@
         <v>376</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <f>SUM('Weekly Points'!F242:F256)+C18</f>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f>SUM('Weekly Points'!F257:F271)+C19</f>
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17 C18:C19" formulaRange="1"/>
+    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17 C18:C19 C20:C21" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A5B809-2AAE-4574-AA0A-77764A4077EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7CAF7-B2C3-4B9C-B3D4-BD0CD0E6ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -654,10 +654,10 @@
   <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B244" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F271" sqref="F1:F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,7 +6098,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,8 +6149,8 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUM('Weekly Points'!F2:F16)</f>
-        <v>50</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B4)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6161,8 +6161,8 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUM('Weekly Points'!F17:F31)</f>
-        <v>47</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B5)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6173,8 +6173,8 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUM('Weekly Points'!F32:F46)+C4</f>
-        <v>78</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B6)+C4</f>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6185,8 +6185,8 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUM('Weekly Points'!F47:F61)+C5</f>
-        <v>72</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B7)+C5</f>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6197,8 +6197,8 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUM('Weekly Points'!F62:F76)+C6</f>
-        <v>114</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B8)+C6</f>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6209,8 +6209,8 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUM('Weekly Points'!F77:F91)+C7</f>
-        <v>120</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B9)+C7</f>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6221,8 +6221,8 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUM('Weekly Points'!F92:F106)+C8</f>
-        <v>181</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B10)+C8</f>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6233,8 +6233,8 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUM('Weekly Points'!F107:F121)+C9</f>
-        <v>172</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B11)+C9</f>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6245,8 +6245,8 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUM('Weekly Points'!F122:F136)+C10</f>
-        <v>244</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B12)+C10</f>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6257,8 +6257,8 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUM('Weekly Points'!F137:F151)+C11</f>
-        <v>228</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B13)+C11</f>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6269,8 +6269,8 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUM('Weekly Points'!F152:F166)+C12</f>
-        <v>321</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B14)+C12</f>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6281,8 +6281,8 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUM('Weekly Points'!F167:F181)+C13</f>
-        <v>263</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B15)+C13</f>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6293,8 +6293,8 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUM('Weekly Points'!F182:F196)+C14</f>
-        <v>380</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B16)+C14</f>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6305,8 +6305,8 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUM('Weekly Points'!F197:F211)+C15</f>
-        <v>307</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B17)+C15</f>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6317,8 +6317,8 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUM('Weekly Points'!F212:F226)+C16</f>
-        <v>464</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B18)+C16</f>
+        <v>456</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6329,8 +6329,8 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUM('Weekly Points'!F227:F241)+C17</f>
-        <v>376</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B19)+C17</f>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6341,7 +6341,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUM('Weekly Points'!F242:F256)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -6353,14 +6353,11 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUM('Weekly Points'!F257:F271)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="C4:C5 C6 C7:C11 C12:C17 C18:C19 C20:C21" formulaRange="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7CAF7-B2C3-4B9C-B3D4-BD0CD0E6ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0EC8BC-2D5F-4337-BA4E-3361878BD8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="83">
   <si>
     <t>Gameweek</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>Georginio</t>
+  </si>
+  <si>
+    <t>Mbeumo</t>
+  </si>
+  <si>
+    <t>Wood</t>
   </si>
 </sst>
 </file>
@@ -651,13 +657,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F271"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B244" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F271" sqref="F1:F271"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,7 +693,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -702,12 +708,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -727,7 +733,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -742,12 +748,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -762,12 +768,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -787,7 +793,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -802,12 +808,12 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -827,27 +833,27 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -867,7 +873,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -882,12 +888,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -902,12 +908,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -927,7 +933,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -942,32 +948,32 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -982,12 +988,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1007,27 +1013,27 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1042,12 +1048,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1067,7 +1073,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1082,12 +1088,12 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1107,7 +1113,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1122,12 +1128,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1142,12 +1148,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1162,12 +1168,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1202,12 +1208,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1242,12 +1248,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1262,12 +1268,12 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1282,12 +1288,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1302,12 +1308,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1367,27 +1373,27 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1427,7 +1433,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1442,12 +1448,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1462,12 +1468,12 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1482,12 +1488,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1502,12 +1508,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1522,12 +1528,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1542,12 +1548,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1567,7 +1573,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1582,12 +1588,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1602,12 +1608,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1627,7 +1633,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1667,7 +1673,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1687,7 +1693,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1707,7 +1713,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1722,12 +1728,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1742,12 +1748,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1762,12 +1768,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1787,27 +1793,27 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D57" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1822,12 +1828,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1842,12 +1848,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1862,12 +1868,12 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1887,7 +1893,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1902,12 +1908,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1927,7 +1933,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1947,7 +1953,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1962,12 +1968,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1987,7 +1993,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2002,12 +2008,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2027,7 +2033,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2047,27 +2053,27 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2082,12 +2088,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2102,12 +2108,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2122,12 +2128,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2147,7 +2153,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2167,7 +2173,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2182,12 +2188,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2202,12 +2208,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2227,7 +2233,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2242,21 +2248,21 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
@@ -2267,7 +2273,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2282,12 +2288,12 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2307,7 +2313,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2322,12 +2328,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2342,12 +2348,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2362,12 +2368,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2387,7 +2393,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2407,7 +2413,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2422,12 +2428,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2447,7 +2453,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2467,7 +2473,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2482,12 +2488,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2502,12 +2508,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2527,7 +2533,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2542,12 +2548,12 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2562,12 +2568,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2587,7 +2593,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2602,12 +2608,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2627,7 +2633,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2642,12 +2648,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2667,7 +2673,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2682,12 +2688,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2702,12 +2708,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2722,12 +2728,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2747,7 +2753,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2767,16 +2773,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D106" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
@@ -2787,7 +2793,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2807,7 +2813,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2827,13 +2833,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
@@ -2842,12 +2848,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2862,12 +2868,12 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2882,12 +2888,12 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2907,7 +2913,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2927,7 +2933,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2942,12 +2948,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2962,12 +2968,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2982,12 +2988,12 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3002,12 +3008,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3022,12 +3028,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3042,12 +3048,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3067,7 +3073,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3082,12 +3088,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3102,12 +3108,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3127,7 +3133,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3142,12 +3148,12 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3162,12 +3168,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3182,12 +3188,12 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3202,12 +3208,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3227,7 +3233,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3242,12 +3248,12 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3262,12 +3268,12 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3287,27 +3293,27 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
       </c>
       <c r="C132" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D132" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3327,7 +3333,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3342,12 +3348,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3362,12 +3368,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3382,12 +3388,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3402,12 +3408,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3427,7 +3433,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3442,12 +3448,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3462,12 +3468,12 @@
         <v>10</v>
       </c>
       <c r="F140">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3482,12 +3488,12 @@
         <v>10</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3507,7 +3513,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3522,12 +3528,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3547,7 +3553,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3562,12 +3568,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3582,12 +3588,12 @@
         <v>11</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3602,12 +3608,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3622,18 +3628,18 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D149" t="s">
         <v>17</v>
@@ -3642,12 +3648,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3662,12 +3668,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3682,12 +3688,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3702,12 +3708,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3727,7 +3733,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3747,7 +3753,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3767,7 +3773,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3782,12 +3788,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3807,7 +3813,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3827,27 +3833,27 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D159" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3862,12 +3868,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3882,12 +3888,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3902,12 +3908,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3922,12 +3928,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3942,12 +3948,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3962,12 +3968,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3982,41 +3988,41 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" t="s">
+        <v>66</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167">
         <v>4</v>
-      </c>
-      <c r="B167" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" t="s">
-        <v>38</v>
-      </c>
-      <c r="D167" t="s">
-        <v>39</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167">
-        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D168" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -4027,13 +4033,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -4042,81 +4048,81 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D170" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D171" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D172" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E172" t="s">
         <v>10</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D173" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E173" t="s">
         <v>10</v>
@@ -4127,27 +4133,27 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D174" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
       </c>
       <c r="F174">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4162,81 +4168,81 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D176" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
       </c>
       <c r="F176">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D178" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D179" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
@@ -4247,27 +4253,27 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D180" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4287,7 +4293,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4302,12 +4308,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4327,7 +4333,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4342,12 +4348,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4367,7 +4373,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4382,12 +4388,12 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4402,12 +4408,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4427,7 +4433,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4442,12 +4448,12 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4462,12 +4468,12 @@
         <v>11</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4487,7 +4493,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4502,32 +4508,32 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D193" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4542,12 +4548,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4562,12 +4568,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4582,12 +4588,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4602,12 +4608,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4627,7 +4633,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4642,12 +4648,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4662,12 +4668,12 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4682,12 +4688,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4702,12 +4708,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4727,7 +4733,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4742,12 +4748,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4762,12 +4768,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4782,12 +4788,12 @@
         <v>11</v>
       </c>
       <c r="F206">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4807,7 +4813,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4827,7 +4833,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4842,12 +4848,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4862,32 +4868,32 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D211" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4907,7 +4913,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4927,7 +4933,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4942,12 +4948,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4956,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="D215" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E215" t="s">
         <v>10</v>
@@ -4967,7 +4973,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4982,32 +4988,32 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5022,12 +5028,12 @@
         <v>10</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5047,16 +5053,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D220" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
@@ -5067,7 +5073,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5082,12 +5088,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5102,12 +5108,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5122,12 +5128,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5162,12 +5168,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5187,7 +5193,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5207,7 +5213,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5227,7 +5233,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5242,12 +5248,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5267,7 +5273,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5282,12 +5288,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5302,12 +5308,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5327,13 +5333,13 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D234" t="s">
         <v>20</v>
@@ -5342,12 +5348,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5362,12 +5368,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5382,12 +5388,12 @@
         <v>11</v>
       </c>
       <c r="F236">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5402,12 +5408,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5427,7 +5433,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5442,12 +5448,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5462,12 +5468,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5482,12 +5488,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5502,12 +5508,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5527,7 +5533,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5542,12 +5548,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5567,7 +5573,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5587,7 +5593,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5607,7 +5613,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5622,12 +5628,12 @@
         <v>10</v>
       </c>
       <c r="F248">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5642,12 +5648,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5662,12 +5668,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5682,12 +5688,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5702,12 +5708,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5722,12 +5728,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5742,12 +5748,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5762,12 +5768,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5782,12 +5788,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5802,12 +5808,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5827,7 +5833,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5847,7 +5853,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5862,12 +5868,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5882,12 +5888,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5902,12 +5908,12 @@
         <v>10</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5927,7 +5933,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5942,12 +5948,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -5962,12 +5968,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -5982,12 +5988,12 @@
         <v>11</v>
       </c>
       <c r="F266">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6002,12 +6008,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6027,16 +6033,16 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D269" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -6047,7 +6053,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6062,12 +6068,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6085,9 +6091,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>1</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="E272" t="s">
+        <v>9</v>
+      </c>
+      <c r="F272">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>1</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" t="s">
+        <v>21</v>
+      </c>
+      <c r="D273" t="s">
+        <v>19</v>
+      </c>
+      <c r="E273" t="s">
+        <v>9</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" t="s">
+        <v>14</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>1</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" t="s">
+        <v>23</v>
+      </c>
+      <c r="D275" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" t="s">
+        <v>16</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+      <c r="C277" t="s">
+        <v>26</v>
+      </c>
+      <c r="D277" t="s">
+        <v>17</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
+      </c>
+      <c r="C278" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>25</v>
+      </c>
+      <c r="D279" t="s">
+        <v>13</v>
+      </c>
+      <c r="E279" t="s">
+        <v>11</v>
+      </c>
+      <c r="F279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>28</v>
+      </c>
+      <c r="D280" t="s">
+        <v>13</v>
+      </c>
+      <c r="E280" t="s">
+        <v>11</v>
+      </c>
+      <c r="F280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>1</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281" t="s">
+        <v>19</v>
+      </c>
+      <c r="E281" t="s">
+        <v>11</v>
+      </c>
+      <c r="F281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>1</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>30</v>
+      </c>
+      <c r="D282" t="s">
+        <v>14</v>
+      </c>
+      <c r="E282" t="s">
+        <v>11</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>1</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
+      </c>
+      <c r="C283" t="s">
+        <v>31</v>
+      </c>
+      <c r="D283" t="s">
+        <v>16</v>
+      </c>
+      <c r="E283" t="s">
+        <v>11</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="s">
+        <v>12</v>
+      </c>
+      <c r="F284">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>1</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" t="s">
+        <v>12</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>1</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>34</v>
+      </c>
+      <c r="D286" t="s">
+        <v>15</v>
+      </c>
+      <c r="E286" t="s">
+        <v>12</v>
+      </c>
+      <c r="F286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>1</v>
+      </c>
+      <c r="B287" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" t="s">
+        <v>38</v>
+      </c>
+      <c r="D287" t="s">
+        <v>39</v>
+      </c>
+      <c r="E287" t="s">
+        <v>9</v>
+      </c>
+      <c r="F287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>1</v>
+      </c>
+      <c r="B288" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" t="s">
+        <v>62</v>
+      </c>
+      <c r="D288" t="s">
+        <v>44</v>
+      </c>
+      <c r="E288" t="s">
+        <v>9</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>1</v>
+      </c>
+      <c r="B289" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" t="s">
+        <v>40</v>
+      </c>
+      <c r="D289" t="s">
+        <v>16</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>1</v>
+      </c>
+      <c r="B290" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" t="s">
+        <v>41</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" t="s">
+        <v>42</v>
+      </c>
+      <c r="D291" t="s">
+        <v>43</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>1</v>
+      </c>
+      <c r="B292" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" t="s">
+        <v>45</v>
+      </c>
+      <c r="D292" t="s">
+        <v>19</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>1</v>
+      </c>
+      <c r="B293" t="s">
+        <v>7</v>
+      </c>
+      <c r="C293" t="s">
+        <v>46</v>
+      </c>
+      <c r="D293" t="s">
+        <v>49</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>1</v>
+      </c>
+      <c r="B294" t="s">
+        <v>7</v>
+      </c>
+      <c r="C294" t="s">
+        <v>50</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="s">
+        <v>11</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>1</v>
+      </c>
+      <c r="B295" t="s">
+        <v>7</v>
+      </c>
+      <c r="C295" t="s">
+        <v>51</v>
+      </c>
+      <c r="D295" t="s">
+        <v>52</v>
+      </c>
+      <c r="E295" t="s">
+        <v>11</v>
+      </c>
+      <c r="F295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
+        <v>7</v>
+      </c>
+      <c r="C296" t="s">
+        <v>53</v>
+      </c>
+      <c r="D296" t="s">
+        <v>54</v>
+      </c>
+      <c r="E296" t="s">
+        <v>11</v>
+      </c>
+      <c r="F296">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>1</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>55</v>
+      </c>
+      <c r="D297" t="s">
+        <v>19</v>
+      </c>
+      <c r="E297" t="s">
+        <v>11</v>
+      </c>
+      <c r="F297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>7</v>
+      </c>
+      <c r="C298" t="s">
+        <v>47</v>
+      </c>
+      <c r="D298" t="s">
+        <v>48</v>
+      </c>
+      <c r="E298" t="s">
+        <v>11</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299" t="s">
+        <v>56</v>
+      </c>
+      <c r="D299" t="s">
+        <v>14</v>
+      </c>
+      <c r="E299" t="s">
+        <v>12</v>
+      </c>
+      <c r="F299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" t="s">
+        <v>57</v>
+      </c>
+      <c r="D300" t="s">
+        <v>43</v>
+      </c>
+      <c r="E300" t="s">
+        <v>12</v>
+      </c>
+      <c r="F300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>1</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>58</v>
+      </c>
+      <c r="D301" t="s">
+        <v>19</v>
+      </c>
+      <c r="E301" t="s">
+        <v>12</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F271">
-    <sortCondition descending="1" ref="A2:A271"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:F301">
+    <sortCondition descending="1" ref="A32:A301"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6095,10 +6701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6149,7 +6755,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -6161,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -6173,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -6185,7 +6791,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -6197,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -6209,7 +6815,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -6221,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -6233,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -6245,7 +6851,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -6257,7 +6863,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -6269,7 +6875,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -6281,7 +6887,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -6293,7 +6899,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -6305,7 +6911,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -6317,7 +6923,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -6329,7 +6935,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -6341,7 +6947,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"Bazzers Ballers",'Weekly Points'!$A$2:$A$271,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -6353,8 +6959,32 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$271,'Weekly Points'!$B$2:$B$271,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$271,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B21)+C19</f>
         <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$301,'Weekly Points'!$B$2:$B$301,"Bazzers Ballers",'Weekly Points'!$A$2:$A$301,B22)+C20</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$301,'Weekly Points'!$B$2:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$301,B23)+C21</f>
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0EC8BC-2D5F-4337-BA4E-3361878BD8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECADE78-4374-4C85-B1FF-165F58EAA8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="83">
   <si>
     <t>Gameweek</t>
   </si>
@@ -657,13 +657,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -708,12 +708,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -768,12 +768,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -788,12 +788,12 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -848,12 +848,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -868,12 +868,12 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -888,12 +888,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -908,12 +908,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -928,12 +928,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -948,12 +948,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -968,12 +968,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -988,12 +988,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1028,12 +1028,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1068,12 +1068,12 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1108,12 +1108,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1128,12 +1128,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1148,12 +1148,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1168,12 +1168,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1248,12 +1248,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1268,32 +1268,32 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1308,12 +1308,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1348,12 +1348,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1368,12 +1368,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1408,12 +1408,12 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1433,27 +1433,27 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1473,7 +1473,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1488,12 +1488,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1508,12 +1508,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1548,32 +1548,32 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1588,12 +1588,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1613,27 +1613,27 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D48" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1648,12 +1648,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1688,12 +1688,12 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1728,12 +1728,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1748,12 +1748,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1768,12 +1768,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1808,12 +1808,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1848,12 +1848,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1868,12 +1868,12 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1888,12 +1888,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1908,12 +1908,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1973,27 +1973,27 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2048,12 +2048,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2068,12 +2068,12 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2088,12 +2088,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2108,12 +2108,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2128,12 +2128,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2148,12 +2148,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2188,12 +2188,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2208,12 +2208,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2328,12 +2328,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2348,12 +2348,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2368,12 +2368,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2393,27 +2393,27 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2428,12 +2428,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2448,12 +2448,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2468,12 +2468,12 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2493,7 +2493,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2508,12 +2508,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2568,12 +2568,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2608,12 +2608,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2653,27 +2653,27 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2688,12 +2688,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2708,12 +2708,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2728,12 +2728,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2788,12 +2788,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2808,12 +2808,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2848,21 +2848,21 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2888,12 +2888,12 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2913,7 +2913,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2928,12 +2928,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2948,12 +2948,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2968,12 +2968,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3028,12 +3028,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3088,12 +3088,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3108,12 +3108,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3133,7 +3133,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3148,12 +3148,12 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3168,12 +3168,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3208,12 +3208,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3248,12 +3248,12 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3288,12 +3288,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3308,12 +3308,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3328,12 +3328,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3353,7 +3353,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3373,16 +3373,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D136" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3433,13 +3433,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D139" t="s">
         <v>16</v>
@@ -3448,12 +3448,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3468,12 +3468,12 @@
         <v>10</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3488,12 +3488,12 @@
         <v>10</v>
       </c>
       <c r="F141">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3513,7 +3513,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3548,12 +3548,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3568,12 +3568,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3588,12 +3588,12 @@
         <v>11</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3608,12 +3608,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3628,12 +3628,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3648,12 +3648,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3673,7 +3673,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3688,12 +3688,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3708,12 +3708,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3748,12 +3748,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3768,12 +3768,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3788,12 +3788,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3808,12 +3808,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3848,12 +3848,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3868,12 +3868,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3893,27 +3893,27 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3933,7 +3933,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3948,12 +3948,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3968,12 +3968,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3988,12 +3988,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4008,12 +4008,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4048,12 +4048,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4068,12 +4068,12 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4088,12 +4088,12 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4128,12 +4128,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4168,12 +4168,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4188,12 +4188,12 @@
         <v>11</v>
       </c>
       <c r="F176">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4208,12 +4208,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4228,18 +4228,18 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D179" t="s">
         <v>17</v>
@@ -4248,12 +4248,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4268,12 +4268,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4288,12 +4288,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4308,12 +4308,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4333,7 +4333,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4373,7 +4373,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4388,12 +4388,12 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4413,7 +4413,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4433,27 +4433,27 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D189" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
       <c r="F189">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4468,12 +4468,12 @@
         <v>11</v>
       </c>
       <c r="F190">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4488,12 +4488,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4508,12 +4508,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4528,12 +4528,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4548,12 +4548,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4568,12 +4568,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4588,41 +4588,41 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" t="s">
+        <v>66</v>
+      </c>
+      <c r="E197" t="s">
+        <v>9</v>
+      </c>
+      <c r="F197">
         <v>4</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" t="s">
-        <v>38</v>
-      </c>
-      <c r="D197" t="s">
-        <v>39</v>
-      </c>
-      <c r="E197" t="s">
-        <v>9</v>
-      </c>
-      <c r="F197">
-        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D198" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -4633,13 +4633,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D199" t="s">
         <v>16</v>
@@ -4648,81 +4648,81 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D200" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D201" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E201" t="s">
         <v>10</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D202" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E202" t="s">
         <v>10</v>
       </c>
       <c r="F202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
       </c>
       <c r="C203" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D203" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E203" t="s">
         <v>10</v>
@@ -4733,27 +4733,27 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D204" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E204" t="s">
         <v>11</v>
       </c>
       <c r="F204">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4768,81 +4768,81 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D206" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E206" t="s">
         <v>11</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D207" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D208" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E208" t="s">
         <v>11</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D209" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
@@ -4853,27 +4853,27 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D210" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4908,12 +4908,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4933,7 +4933,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4948,12 +4948,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4988,12 +4988,12 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5008,12 +5008,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5048,12 +5048,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5068,12 +5068,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5108,32 +5108,32 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D223" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E223" t="s">
         <v>11</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5148,12 +5148,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5168,12 +5168,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5188,12 +5188,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5208,12 +5208,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5248,12 +5248,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5268,12 +5268,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5288,12 +5288,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5308,12 +5308,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5348,12 +5348,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5368,12 +5368,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5388,12 +5388,12 @@
         <v>11</v>
       </c>
       <c r="F236">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5448,12 +5448,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5468,32 +5468,32 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D241" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
       </c>
       <c r="F241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5513,7 +5513,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5533,7 +5533,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5548,12 +5548,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5562,7 +5562,7 @@
         <v>23</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5588,32 +5588,32 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
       </c>
       <c r="C247" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D247" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E247" t="s">
         <v>10</v>
       </c>
       <c r="F247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5628,12 +5628,12 @@
         <v>10</v>
       </c>
       <c r="F248">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D250" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5688,12 +5688,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5708,12 +5708,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5728,12 +5728,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5753,7 +5753,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5768,12 +5768,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5793,7 +5793,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5848,12 +5848,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5888,12 +5888,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5908,12 +5908,12 @@
         <v>10</v>
       </c>
       <c r="F262">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5933,13 +5933,13 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D264" t="s">
         <v>20</v>
@@ -5948,12 +5948,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -5968,12 +5968,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -5988,12 +5988,12 @@
         <v>11</v>
       </c>
       <c r="F266">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6008,12 +6008,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6048,12 +6048,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6068,12 +6068,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6088,12 +6088,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6108,12 +6108,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6148,12 +6148,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6228,12 +6228,12 @@
         <v>10</v>
       </c>
       <c r="F278">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6248,12 +6248,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6268,12 +6268,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6288,12 +6288,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6308,12 +6308,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6328,12 +6328,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6348,12 +6348,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6368,12 +6368,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6388,12 +6388,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6408,12 +6408,12 @@
         <v>9</v>
       </c>
       <c r="F287">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6433,7 +6433,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6468,12 +6468,12 @@
         <v>10</v>
       </c>
       <c r="F290">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6488,12 +6488,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6508,12 +6508,12 @@
         <v>10</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6533,7 +6533,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6548,12 +6548,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6568,12 +6568,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6588,12 +6588,12 @@
         <v>11</v>
       </c>
       <c r="F296">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6608,12 +6608,12 @@
         <v>11</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6633,16 +6633,16 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D299" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E299" t="s">
         <v>12</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6668,12 +6668,12 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6691,9 +6691,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>1</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" t="s">
+        <v>13</v>
+      </c>
+      <c r="E302" t="s">
+        <v>9</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" t="s">
+        <v>9</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>1</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="s">
+        <v>14</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="s">
+        <v>15</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>1</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="s">
+        <v>16</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>1</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
+      </c>
+      <c r="C307" t="s">
+        <v>26</v>
+      </c>
+      <c r="D307" t="s">
+        <v>17</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>27</v>
+      </c>
+      <c r="D308" t="s">
+        <v>18</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="E309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>1</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>28</v>
+      </c>
+      <c r="D310" t="s">
+        <v>13</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>1</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311" t="s">
+        <v>19</v>
+      </c>
+      <c r="E311" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>1</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>30</v>
+      </c>
+      <c r="D312" t="s">
+        <v>14</v>
+      </c>
+      <c r="E312" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>1</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>31</v>
+      </c>
+      <c r="D313" t="s">
+        <v>16</v>
+      </c>
+      <c r="E313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>1</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
+      </c>
+      <c r="C314" t="s">
+        <v>32</v>
+      </c>
+      <c r="D314" t="s">
+        <v>20</v>
+      </c>
+      <c r="E314" t="s">
+        <v>12</v>
+      </c>
+      <c r="F314">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>1</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
+      </c>
+      <c r="C315" t="s">
+        <v>33</v>
+      </c>
+      <c r="D315" t="s">
+        <v>17</v>
+      </c>
+      <c r="E315" t="s">
+        <v>12</v>
+      </c>
+      <c r="F315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>1</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>34</v>
+      </c>
+      <c r="D316" t="s">
+        <v>15</v>
+      </c>
+      <c r="E316" t="s">
+        <v>12</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>1</v>
+      </c>
+      <c r="B317" t="s">
+        <v>7</v>
+      </c>
+      <c r="C317" t="s">
+        <v>38</v>
+      </c>
+      <c r="D317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>1</v>
+      </c>
+      <c r="B318" t="s">
+        <v>7</v>
+      </c>
+      <c r="C318" t="s">
+        <v>62</v>
+      </c>
+      <c r="D318" t="s">
+        <v>44</v>
+      </c>
+      <c r="E318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>40</v>
+      </c>
+      <c r="D319" t="s">
+        <v>16</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>1</v>
+      </c>
+      <c r="B320" t="s">
+        <v>7</v>
+      </c>
+      <c r="C320" t="s">
+        <v>41</v>
+      </c>
+      <c r="D320" t="s">
+        <v>20</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>1</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>42</v>
+      </c>
+      <c r="D321" t="s">
+        <v>43</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>1</v>
+      </c>
+      <c r="B322" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" t="s">
+        <v>45</v>
+      </c>
+      <c r="D322" t="s">
+        <v>19</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323" t="s">
+        <v>7</v>
+      </c>
+      <c r="C323" t="s">
+        <v>46</v>
+      </c>
+      <c r="D323" t="s">
+        <v>49</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>50</v>
+      </c>
+      <c r="D324" t="s">
+        <v>20</v>
+      </c>
+      <c r="E324" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>1</v>
+      </c>
+      <c r="B325" t="s">
+        <v>7</v>
+      </c>
+      <c r="C325" t="s">
+        <v>51</v>
+      </c>
+      <c r="D325" t="s">
+        <v>52</v>
+      </c>
+      <c r="E325" t="s">
+        <v>11</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326" t="s">
+        <v>7</v>
+      </c>
+      <c r="C326" t="s">
+        <v>53</v>
+      </c>
+      <c r="D326" t="s">
+        <v>54</v>
+      </c>
+      <c r="E326" t="s">
+        <v>11</v>
+      </c>
+      <c r="F326">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327" t="s">
+        <v>7</v>
+      </c>
+      <c r="C327" t="s">
+        <v>55</v>
+      </c>
+      <c r="D327" t="s">
+        <v>19</v>
+      </c>
+      <c r="E327" t="s">
+        <v>11</v>
+      </c>
+      <c r="F327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>1</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>47</v>
+      </c>
+      <c r="D328" t="s">
+        <v>48</v>
+      </c>
+      <c r="E328" t="s">
+        <v>11</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>1</v>
+      </c>
+      <c r="B329" t="s">
+        <v>7</v>
+      </c>
+      <c r="C329" t="s">
+        <v>56</v>
+      </c>
+      <c r="D329" t="s">
+        <v>14</v>
+      </c>
+      <c r="E329" t="s">
+        <v>12</v>
+      </c>
+      <c r="F329">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>1</v>
+      </c>
+      <c r="B330" t="s">
+        <v>7</v>
+      </c>
+      <c r="C330" t="s">
+        <v>57</v>
+      </c>
+      <c r="D330" t="s">
+        <v>43</v>
+      </c>
+      <c r="E330" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>1</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>58</v>
+      </c>
+      <c r="D331" t="s">
+        <v>19</v>
+      </c>
+      <c r="E331" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A32:F301">
-    <sortCondition descending="1" ref="A32:A301"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:F331">
+    <sortCondition descending="1" ref="A62:A331"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6701,10 +7301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6755,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -6767,7 +7367,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -6779,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -6791,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -6803,7 +7403,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -6815,7 +7415,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -6827,7 +7427,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -6839,7 +7439,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -6851,7 +7451,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -6863,7 +7463,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -6875,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -6887,7 +7487,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -6899,7 +7499,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -6911,7 +7511,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -6923,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -6935,7 +7535,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -6947,7 +7547,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"Bazzers Ballers",'Weekly Points'!$A$32:$A$301,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -6959,7 +7559,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$301,'Weekly Points'!$B$32:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$301,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -6971,7 +7571,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$301,'Weekly Points'!$B$2:$B$301,"Bazzers Ballers",'Weekly Points'!$A$2:$A$301,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$331,'Weekly Points'!$B$32:$B$331,"Bazzers Ballers",'Weekly Points'!$A$32:$A$331,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -6983,7 +7583,31 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$301,'Weekly Points'!$B$2:$B$301,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$301,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$331,'Weekly Points'!$B$32:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$331,B23)+C21</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <f>SUMIFS('Weekly Points'!$F$32:$F$361,'Weekly Points'!$B$32:$B$361,"Bazzers Ballers",'Weekly Points'!$A$32:$A$361,B24)+C22</f>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <f>SUMIFS('Weekly Points'!$F$32:$F$361,'Weekly Points'!$B$32:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$361,B25)+C23</f>
         <v>465</v>
       </c>
     </row>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28305"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECADE78-4374-4C85-B1FF-165F58EAA8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24246618-0B64-4D58-A0B6-EB051EB0E550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -659,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -7303,7 +7303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -7595,8 +7595,8 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$361,'Weekly Points'!$B$32:$B$361,"Bazzers Ballers",'Weekly Points'!$A$32:$A$361,B24)+C22</f>
-        <v>530</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B24)+C22</f>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7607,8 +7607,8 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$361,'Weekly Points'!$B$32:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$361,B25)+C23</f>
-        <v>465</v>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B25)+C23</f>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28305"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28314"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24246618-0B64-4D58-A0B6-EB051EB0E550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE417F-1341-4716-B7C8-D258B1EAC6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="85">
   <si>
     <t>Gameweek</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Wood</t>
+  </si>
+  <si>
+    <t>Damsgaard</t>
+  </si>
+  <si>
+    <t>B. Fernandes</t>
   </si>
 </sst>
 </file>
@@ -657,13 +663,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F331"/>
+  <dimension ref="A1:F361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +699,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -708,12 +714,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -733,7 +739,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -753,7 +759,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -768,12 +774,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -788,12 +794,12 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -808,12 +814,12 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -833,7 +839,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -848,41 +854,41 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -893,7 +899,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -913,7 +919,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -928,12 +934,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -948,12 +954,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -968,12 +974,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -988,12 +994,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1008,12 +1014,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1028,12 +1034,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1048,12 +1054,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1068,12 +1074,12 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1108,12 +1114,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1128,12 +1134,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1148,12 +1154,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1173,7 +1179,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1193,7 +1199,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1208,12 +1214,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1233,7 +1239,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1253,7 +1259,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1268,12 +1274,12 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1288,12 +1294,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1308,12 +1314,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1333,7 +1339,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1353,7 +1359,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1368,12 +1374,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1388,12 +1394,12 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1413,7 +1419,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1433,7 +1439,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1448,12 +1454,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1468,12 +1474,12 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1488,12 +1494,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1508,12 +1514,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1528,12 +1534,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1548,12 +1554,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1568,12 +1574,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1588,12 +1594,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1613,7 +1619,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1628,12 +1634,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1653,7 +1659,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1668,12 +1674,12 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1693,7 +1699,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1708,12 +1714,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1728,12 +1734,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1748,12 +1754,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1768,12 +1774,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1793,7 +1799,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1813,7 +1819,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1833,7 +1839,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1848,12 +1854,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1868,32 +1874,32 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E61" t="s">
         <v>12</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1908,12 +1914,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1933,7 +1939,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1948,12 +1954,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1968,12 +1974,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1993,7 +1999,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2008,12 +2014,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2033,27 +2039,27 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D69" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2073,7 +2079,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2088,12 +2094,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2108,12 +2114,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2133,7 +2139,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2148,32 +2154,32 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2188,12 +2194,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2213,27 +2219,27 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E78" t="s">
         <v>9</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2248,12 +2254,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2273,7 +2279,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2288,12 +2294,12 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2328,12 +2334,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2348,12 +2354,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2368,12 +2374,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2393,7 +2399,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2408,12 +2414,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2433,7 +2439,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2448,12 +2454,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2468,12 +2474,12 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2488,12 +2494,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2508,12 +2514,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2533,7 +2539,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2553,7 +2559,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2573,27 +2579,27 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2613,7 +2619,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2633,7 +2639,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2648,12 +2654,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2668,12 +2674,12 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2688,12 +2694,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2708,12 +2714,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2728,12 +2734,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2748,12 +2754,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2788,12 +2794,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2808,12 +2814,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2833,7 +2839,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2853,7 +2859,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2873,7 +2879,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2893,7 +2899,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2913,7 +2919,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2928,12 +2934,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2948,12 +2954,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2968,12 +2974,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2993,27 +2999,27 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D117" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3028,12 +3034,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3048,12 +3054,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3068,12 +3074,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3093,7 +3099,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3108,12 +3114,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3133,7 +3139,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3153,7 +3159,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3168,12 +3174,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3193,7 +3199,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3208,12 +3214,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3233,7 +3239,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3253,27 +3259,27 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D130" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3288,12 +3294,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3308,12 +3314,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3328,12 +3334,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3353,7 +3359,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3373,7 +3379,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3388,12 +3394,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3408,12 +3414,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3433,7 +3439,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3448,21 +3454,21 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D140" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
@@ -3473,7 +3479,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3488,12 +3494,12 @@
         <v>10</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3513,7 +3519,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3528,12 +3534,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3548,12 +3554,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3568,12 +3574,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3593,7 +3599,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3613,7 +3619,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3628,12 +3634,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3653,7 +3659,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3673,7 +3679,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3688,12 +3694,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3708,12 +3714,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3733,7 +3739,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3748,12 +3754,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3768,12 +3774,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3793,7 +3799,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3808,12 +3814,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3833,7 +3839,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3848,12 +3854,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3873,7 +3879,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3888,12 +3894,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3908,12 +3914,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3928,12 +3934,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3953,7 +3959,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3973,16 +3979,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D166" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4013,7 +4019,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4033,13 +4039,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D169" t="s">
         <v>16</v>
@@ -4048,12 +4054,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4068,12 +4074,12 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4088,12 +4094,12 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4113,7 +4119,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4133,7 +4139,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4148,12 +4154,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4168,12 +4174,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4188,12 +4194,12 @@
         <v>11</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4208,12 +4214,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4228,12 +4234,12 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4248,12 +4254,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4273,7 +4279,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4288,12 +4294,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4308,12 +4314,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4333,7 +4339,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4348,12 +4354,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4368,12 +4374,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4388,12 +4394,12 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4408,12 +4414,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4433,7 +4439,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4448,12 +4454,12 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4468,12 +4474,12 @@
         <v>11</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4493,27 +4499,27 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
       </c>
       <c r="C192" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D192" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E192" t="s">
         <v>11</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4533,7 +4539,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4548,12 +4554,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4568,12 +4574,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4588,12 +4594,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4608,12 +4614,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4633,7 +4639,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4648,12 +4654,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4668,12 +4674,12 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4688,12 +4694,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4713,7 +4719,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4728,12 +4734,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4753,7 +4759,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4768,12 +4774,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4788,12 +4794,12 @@
         <v>11</v>
       </c>
       <c r="F206">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4808,12 +4814,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4828,18 +4834,18 @@
         <v>11</v>
       </c>
       <c r="F208">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D209" t="s">
         <v>17</v>
@@ -4848,12 +4854,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4868,12 +4874,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4888,12 +4894,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4908,12 +4914,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4933,7 +4939,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4953,7 +4959,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4973,7 +4979,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4988,12 +4994,12 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5013,7 +5019,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5033,27 +5039,27 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="F219">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5068,12 +5074,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5088,12 +5094,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5108,12 +5114,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5128,12 +5134,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5148,12 +5154,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5168,12 +5174,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5188,41 +5194,41 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>65</v>
+      </c>
+      <c r="D227" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" t="s">
+        <v>9</v>
+      </c>
+      <c r="F227">
         <v>4</v>
-      </c>
-      <c r="B227" t="s">
-        <v>7</v>
-      </c>
-      <c r="C227" t="s">
-        <v>38</v>
-      </c>
-      <c r="D227" t="s">
-        <v>39</v>
-      </c>
-      <c r="E227" t="s">
-        <v>9</v>
-      </c>
-      <c r="F227">
-        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D228" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
@@ -5233,13 +5239,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D229" t="s">
         <v>16</v>
@@ -5248,81 +5254,81 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D230" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
       </c>
       <c r="C231" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D231" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E231" t="s">
         <v>10</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
       </c>
       <c r="C232" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D232" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E232" t="s">
         <v>10</v>
       </c>
       <c r="F232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
       </c>
       <c r="C233" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D233" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E233" t="s">
         <v>10</v>
@@ -5333,27 +5339,27 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
       </c>
       <c r="C234" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D234" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E234" t="s">
         <v>11</v>
       </c>
       <c r="F234">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5368,81 +5374,81 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D236" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E236" t="s">
         <v>11</v>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D237" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E237" t="s">
         <v>11</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D238" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E238" t="s">
         <v>11</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D239" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E239" t="s">
         <v>12</v>
@@ -5453,27 +5459,27 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D240" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5493,7 +5499,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5508,12 +5514,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5548,12 +5554,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5573,7 +5579,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5588,12 +5594,12 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5608,12 +5614,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5633,7 +5639,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5648,12 +5654,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5668,12 +5674,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5693,7 +5699,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5708,32 +5714,32 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
       </c>
       <c r="C253" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D253" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5748,12 +5754,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5768,12 +5774,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5788,12 +5794,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5808,12 +5814,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5833,7 +5839,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5848,12 +5854,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5868,12 +5874,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5888,12 +5894,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5908,12 +5914,12 @@
         <v>10</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5933,7 +5939,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5948,12 +5954,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -5968,12 +5974,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -5988,12 +5994,12 @@
         <v>11</v>
       </c>
       <c r="F266">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6013,7 +6019,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6033,7 +6039,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6048,12 +6054,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6068,32 +6074,32 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D271" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6113,7 +6119,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6133,7 +6139,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6148,12 +6154,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6162,7 +6168,7 @@
         <v>23</v>
       </c>
       <c r="D275" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E275" t="s">
         <v>10</v>
@@ -6173,7 +6179,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6188,32 +6194,32 @@
         <v>10</v>
       </c>
       <c r="F276">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
       </c>
       <c r="C277" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D277" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E277" t="s">
         <v>10</v>
       </c>
       <c r="F277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6228,12 +6234,12 @@
         <v>10</v>
       </c>
       <c r="F278">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6253,16 +6259,16 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D280" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E280" t="s">
         <v>11</v>
@@ -6273,7 +6279,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6288,12 +6294,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6308,12 +6314,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6328,12 +6334,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6353,7 +6359,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6368,12 +6374,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6413,7 +6419,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6433,7 +6439,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6448,12 +6454,12 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6473,7 +6479,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6488,12 +6494,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6508,12 +6514,12 @@
         <v>10</v>
       </c>
       <c r="F292">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6533,13 +6539,13 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D294" t="s">
         <v>20</v>
@@ -6548,12 +6554,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6568,12 +6574,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6588,12 +6594,12 @@
         <v>11</v>
       </c>
       <c r="F296">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6608,12 +6614,12 @@
         <v>11</v>
       </c>
       <c r="F297">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6633,7 +6639,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6648,12 +6654,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6668,12 +6674,12 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6688,12 +6694,12 @@
         <v>12</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6708,12 +6714,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6748,12 +6754,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6773,7 +6779,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6793,7 +6799,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6813,7 +6819,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6828,12 +6834,12 @@
         <v>10</v>
       </c>
       <c r="F308">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6848,12 +6854,12 @@
         <v>11</v>
       </c>
       <c r="F309">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6868,12 +6874,12 @@
         <v>11</v>
       </c>
       <c r="F310">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6888,12 +6894,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6908,12 +6914,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6928,12 +6934,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6948,12 +6954,12 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -6968,12 +6974,12 @@
         <v>12</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -6988,12 +6994,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7008,12 +7014,12 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7033,7 +7039,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7053,7 +7059,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7068,12 +7074,12 @@
         <v>10</v>
       </c>
       <c r="F320">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7088,12 +7094,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7108,12 +7114,12 @@
         <v>10</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7133,7 +7139,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7148,12 +7154,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7168,12 +7174,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7188,12 +7194,12 @@
         <v>11</v>
       </c>
       <c r="F326">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7208,12 +7214,12 @@
         <v>11</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7233,16 +7239,16 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D329" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E329" t="s">
         <v>12</v>
@@ -7253,7 +7259,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7268,12 +7274,12 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7291,9 +7297,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>1</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" t="s">
+        <v>13</v>
+      </c>
+      <c r="E332" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>21</v>
+      </c>
+      <c r="D333" t="s">
+        <v>19</v>
+      </c>
+      <c r="E333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>1</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>22</v>
+      </c>
+      <c r="D334" t="s">
+        <v>14</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>23</v>
+      </c>
+      <c r="D335" t="s">
+        <v>15</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>1</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" t="s">
+        <v>24</v>
+      </c>
+      <c r="D336" t="s">
+        <v>16</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>1</v>
+      </c>
+      <c r="B337" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" t="s">
+        <v>17</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>1</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
+      </c>
+      <c r="C338" t="s">
+        <v>27</v>
+      </c>
+      <c r="D338" t="s">
+        <v>18</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>1</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
+      </c>
+      <c r="C339" t="s">
+        <v>25</v>
+      </c>
+      <c r="D339" t="s">
+        <v>13</v>
+      </c>
+      <c r="E339" t="s">
+        <v>11</v>
+      </c>
+      <c r="F339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+      <c r="C340" t="s">
+        <v>28</v>
+      </c>
+      <c r="D340" t="s">
+        <v>13</v>
+      </c>
+      <c r="E340" t="s">
+        <v>11</v>
+      </c>
+      <c r="F340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>1</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
+      </c>
+      <c r="C341" t="s">
+        <v>29</v>
+      </c>
+      <c r="D341" t="s">
+        <v>19</v>
+      </c>
+      <c r="E341" t="s">
+        <v>11</v>
+      </c>
+      <c r="F341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>1</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
+      </c>
+      <c r="C342" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" t="s">
+        <v>14</v>
+      </c>
+      <c r="E342" t="s">
+        <v>11</v>
+      </c>
+      <c r="F342">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>1</v>
+      </c>
+      <c r="B343" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" t="s">
+        <v>31</v>
+      </c>
+      <c r="D343" t="s">
+        <v>16</v>
+      </c>
+      <c r="E343" t="s">
+        <v>11</v>
+      </c>
+      <c r="F343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>1</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>32</v>
+      </c>
+      <c r="D344" t="s">
+        <v>20</v>
+      </c>
+      <c r="E344" t="s">
+        <v>12</v>
+      </c>
+      <c r="F344">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>1</v>
+      </c>
+      <c r="B345" t="s">
+        <v>6</v>
+      </c>
+      <c r="C345" t="s">
+        <v>33</v>
+      </c>
+      <c r="D345" t="s">
+        <v>17</v>
+      </c>
+      <c r="E345" t="s">
+        <v>12</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>1</v>
+      </c>
+      <c r="B346" t="s">
+        <v>6</v>
+      </c>
+      <c r="C346" t="s">
+        <v>34</v>
+      </c>
+      <c r="D346" t="s">
+        <v>15</v>
+      </c>
+      <c r="E346" t="s">
+        <v>12</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>38</v>
+      </c>
+      <c r="D347" t="s">
+        <v>39</v>
+      </c>
+      <c r="E347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>1</v>
+      </c>
+      <c r="B348" t="s">
+        <v>7</v>
+      </c>
+      <c r="C348" t="s">
+        <v>62</v>
+      </c>
+      <c r="D348" t="s">
+        <v>44</v>
+      </c>
+      <c r="E348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>1</v>
+      </c>
+      <c r="B349" t="s">
+        <v>7</v>
+      </c>
+      <c r="C349" t="s">
+        <v>40</v>
+      </c>
+      <c r="D349" t="s">
+        <v>16</v>
+      </c>
+      <c r="E349" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>1</v>
+      </c>
+      <c r="B350" t="s">
+        <v>7</v>
+      </c>
+      <c r="C350" t="s">
+        <v>41</v>
+      </c>
+      <c r="D350" t="s">
+        <v>20</v>
+      </c>
+      <c r="E350" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>1</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>42</v>
+      </c>
+      <c r="D351" t="s">
+        <v>43</v>
+      </c>
+      <c r="E351" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>1</v>
+      </c>
+      <c r="B352" t="s">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>45</v>
+      </c>
+      <c r="D352" t="s">
+        <v>19</v>
+      </c>
+      <c r="E352" t="s">
+        <v>10</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>1</v>
+      </c>
+      <c r="B353" t="s">
+        <v>7</v>
+      </c>
+      <c r="C353" t="s">
+        <v>46</v>
+      </c>
+      <c r="D353" t="s">
+        <v>49</v>
+      </c>
+      <c r="E353" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" t="s">
+        <v>50</v>
+      </c>
+      <c r="D354" t="s">
+        <v>20</v>
+      </c>
+      <c r="E354" t="s">
+        <v>11</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>1</v>
+      </c>
+      <c r="B355" t="s">
+        <v>7</v>
+      </c>
+      <c r="C355" t="s">
+        <v>51</v>
+      </c>
+      <c r="D355" t="s">
+        <v>52</v>
+      </c>
+      <c r="E355" t="s">
+        <v>11</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>1</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>53</v>
+      </c>
+      <c r="D356" t="s">
+        <v>54</v>
+      </c>
+      <c r="E356" t="s">
+        <v>11</v>
+      </c>
+      <c r="F356">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>1</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>55</v>
+      </c>
+      <c r="D357" t="s">
+        <v>19</v>
+      </c>
+      <c r="E357" t="s">
+        <v>11</v>
+      </c>
+      <c r="F357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>1</v>
+      </c>
+      <c r="B358" t="s">
+        <v>7</v>
+      </c>
+      <c r="C358" t="s">
+        <v>47</v>
+      </c>
+      <c r="D358" t="s">
+        <v>48</v>
+      </c>
+      <c r="E358" t="s">
+        <v>11</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>1</v>
+      </c>
+      <c r="B359" t="s">
+        <v>7</v>
+      </c>
+      <c r="C359" t="s">
+        <v>56</v>
+      </c>
+      <c r="D359" t="s">
+        <v>14</v>
+      </c>
+      <c r="E359" t="s">
+        <v>12</v>
+      </c>
+      <c r="F359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>1</v>
+      </c>
+      <c r="B360" t="s">
+        <v>7</v>
+      </c>
+      <c r="C360" t="s">
+        <v>57</v>
+      </c>
+      <c r="D360" t="s">
+        <v>43</v>
+      </c>
+      <c r="E360" t="s">
+        <v>12</v>
+      </c>
+      <c r="F360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>1</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>58</v>
+      </c>
+      <c r="D361" t="s">
+        <v>19</v>
+      </c>
+      <c r="E361" t="s">
+        <v>12</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A62:F331">
-    <sortCondition descending="1" ref="A62:A331"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:F361">
+    <sortCondition descending="1" ref="A92:A361"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7301,10 +7907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7355,7 +7961,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -7367,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -7379,7 +7985,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -7391,7 +7997,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -7403,7 +8009,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -7415,7 +8021,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -7427,7 +8033,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -7439,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -7451,7 +8057,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -7463,7 +8069,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -7475,7 +8081,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -7487,7 +8093,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -7499,7 +8105,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -7511,7 +8117,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -7523,7 +8129,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -7535,7 +8141,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -7547,7 +8153,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"Bazzers Ballers",'Weekly Points'!$A$62:$A$331,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -7559,7 +8165,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$331,'Weekly Points'!$B$62:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$331,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -7571,7 +8177,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$331,'Weekly Points'!$B$32:$B$331,"Bazzers Ballers",'Weekly Points'!$A$32:$A$331,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -7583,7 +8189,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$331,'Weekly Points'!$B$32:$B$331,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$331,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -7611,7 +8217,34 @@
         <v>505</v>
       </c>
     </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B26)+C24</f>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B27)+C25</f>
+        <v>544</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="C7:C28" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CE417F-1341-4716-B7C8-D258B1EAC6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5881B-4412-4C61-9CC9-CBAA06199875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="94">
   <si>
     <t>Gameweek</t>
   </si>
@@ -292,6 +292,33 @@
   </si>
   <si>
     <t>B. Fernandes</t>
+  </si>
+  <si>
+    <t>Jaoa Pedro</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Veltman</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Saka</t>
+  </si>
+  <si>
+    <t>Cunha</t>
+  </si>
+  <si>
+    <t>Wissa</t>
+  </si>
+  <si>
+    <t>J. Gomes</t>
   </si>
 </sst>
 </file>
@@ -663,13 +690,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F361"/>
+  <dimension ref="A1:F391"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +726,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -714,12 +741,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -739,33 +766,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -774,12 +801,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -799,33 +826,33 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -839,7 +866,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -854,21 +881,21 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -879,27 +906,27 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -914,92 +941,92 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1014,12 +1041,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1034,12 +1061,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1054,12 +1081,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1079,7 +1106,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1099,7 +1126,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1114,12 +1141,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1134,12 +1161,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1154,12 +1181,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1174,32 +1201,32 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
         <v>13</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1214,12 +1241,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1239,7 +1266,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1259,16 +1286,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
@@ -1279,7 +1306,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1294,12 +1321,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1314,12 +1341,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1339,7 +1366,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1359,7 +1386,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1374,12 +1401,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1394,12 +1421,12 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1414,12 +1441,12 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1439,7 +1466,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1454,41 +1481,41 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1499,7 +1526,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1519,7 +1546,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1534,12 +1561,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1554,12 +1581,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1574,12 +1601,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1594,12 +1621,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1614,12 +1641,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1634,12 +1661,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1654,12 +1681,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1674,12 +1701,12 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1699,7 +1726,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1714,12 +1741,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1734,12 +1761,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1754,12 +1781,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1779,7 +1806,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1799,7 +1826,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1814,12 +1841,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1839,7 +1866,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1859,7 +1886,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1874,12 +1901,12 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1894,12 +1921,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1914,12 +1941,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1939,7 +1966,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1959,7 +1986,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -1974,12 +2001,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -1994,12 +2021,12 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2019,7 +2046,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2039,7 +2066,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2054,12 +2081,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2074,12 +2101,12 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2094,12 +2121,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2114,12 +2141,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2134,12 +2161,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2154,12 +2181,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2174,12 +2201,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2194,12 +2221,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2219,7 +2246,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2234,12 +2261,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2259,7 +2286,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2274,12 +2301,12 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2299,7 +2326,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2314,12 +2341,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2334,12 +2361,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2354,12 +2381,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2374,12 +2401,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2399,7 +2426,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2419,7 +2446,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2439,7 +2466,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2454,12 +2481,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2474,32 +2501,32 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2514,12 +2541,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2539,7 +2566,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2554,12 +2581,12 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2574,12 +2601,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2599,7 +2626,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2614,12 +2641,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2639,27 +2666,27 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2679,7 +2706,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2694,12 +2721,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2714,12 +2741,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2739,7 +2766,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2754,32 +2781,32 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D105" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2794,12 +2821,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2819,27 +2846,27 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2854,12 +2881,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2879,7 +2906,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2894,12 +2921,12 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2919,7 +2946,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2934,12 +2961,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2954,12 +2981,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -2974,12 +3001,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -2999,7 +3026,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3014,12 +3041,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3039,7 +3066,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3054,12 +3081,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3074,12 +3101,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3094,12 +3121,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3114,12 +3141,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3139,7 +3166,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3159,7 +3186,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3179,27 +3206,27 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
       </c>
       <c r="C126" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D126" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3219,7 +3246,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3239,7 +3266,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3254,12 +3281,12 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3274,12 +3301,12 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3294,12 +3321,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3314,12 +3341,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3334,12 +3361,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3354,12 +3381,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3379,7 +3406,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3394,12 +3421,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3414,12 +3441,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3439,7 +3466,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3459,7 +3486,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3479,7 +3506,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3499,7 +3526,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3519,7 +3546,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3534,12 +3561,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3554,12 +3581,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3574,12 +3601,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3599,27 +3626,27 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D147" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3634,12 +3661,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3654,12 +3681,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3674,12 +3701,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3699,7 +3726,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3714,12 +3741,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3739,7 +3766,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3759,7 +3786,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3774,12 +3801,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3799,7 +3826,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3814,12 +3841,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3839,7 +3866,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3859,27 +3886,27 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D160" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3894,12 +3921,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3914,12 +3941,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3934,12 +3961,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3959,7 +3986,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -3979,7 +4006,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -3994,12 +4021,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4014,12 +4041,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4039,7 +4066,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4054,21 +4081,21 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D170" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E170" t="s">
         <v>10</v>
@@ -4079,7 +4106,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4094,12 +4121,12 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4119,7 +4146,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4134,12 +4161,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4154,12 +4181,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4174,12 +4201,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4199,7 +4226,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4219,7 +4246,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4234,12 +4261,12 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4259,7 +4286,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4279,7 +4306,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4294,12 +4321,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4314,12 +4341,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4339,7 +4366,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4354,12 +4381,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4374,12 +4401,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4399,7 +4426,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4414,12 +4441,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4439,7 +4466,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4454,12 +4481,12 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4479,7 +4506,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4494,12 +4521,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4514,12 +4541,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4534,12 +4561,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4559,7 +4586,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4579,16 +4606,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D196" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
@@ -4599,7 +4626,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4619,7 +4646,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4639,13 +4666,13 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D199" t="s">
         <v>16</v>
@@ -4654,12 +4681,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4674,12 +4701,12 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4694,12 +4721,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4719,7 +4746,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4739,7 +4766,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4754,12 +4781,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4774,12 +4801,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4794,12 +4821,12 @@
         <v>11</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4814,12 +4841,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4834,12 +4861,12 @@
         <v>11</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4854,12 +4881,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4879,7 +4906,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4894,12 +4921,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4914,12 +4941,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4939,7 +4966,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4954,12 +4981,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -4974,12 +5001,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -4994,12 +5021,12 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5014,12 +5041,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5039,7 +5066,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5054,12 +5081,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5074,12 +5101,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5099,27 +5126,27 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E222" t="s">
         <v>11</v>
       </c>
       <c r="F222">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5139,7 +5166,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5154,12 +5181,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5174,12 +5201,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5194,12 +5221,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5214,12 +5241,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5239,7 +5266,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5254,12 +5281,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5274,12 +5301,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5294,12 +5321,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5319,7 +5346,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5334,12 +5361,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5359,7 +5386,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5374,12 +5401,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5394,12 +5421,12 @@
         <v>11</v>
       </c>
       <c r="F236">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5414,12 +5441,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5434,18 +5461,18 @@
         <v>11</v>
       </c>
       <c r="F238">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D239" t="s">
         <v>17</v>
@@ -5454,12 +5481,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5474,12 +5501,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5494,12 +5521,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5514,12 +5541,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5539,7 +5566,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5559,7 +5586,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5579,7 +5606,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5594,12 +5621,12 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5619,7 +5646,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5639,27 +5666,27 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D249" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
       </c>
       <c r="F249">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5674,12 +5701,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5694,12 +5721,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5714,12 +5741,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5734,12 +5761,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5754,12 +5781,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5774,12 +5801,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5794,41 +5821,41 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257" t="s">
+        <v>65</v>
+      </c>
+      <c r="D257" t="s">
+        <v>66</v>
+      </c>
+      <c r="E257" t="s">
+        <v>9</v>
+      </c>
+      <c r="F257">
         <v>4</v>
-      </c>
-      <c r="B257" t="s">
-        <v>7</v>
-      </c>
-      <c r="C257" t="s">
-        <v>38</v>
-      </c>
-      <c r="D257" t="s">
-        <v>39</v>
-      </c>
-      <c r="E257" t="s">
-        <v>9</v>
-      </c>
-      <c r="F257">
-        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D258" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
@@ -5839,13 +5866,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D259" t="s">
         <v>16</v>
@@ -5854,81 +5881,81 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D260" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
       </c>
       <c r="C261" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D261" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E261" t="s">
         <v>10</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
       </c>
       <c r="C262" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D262" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
       </c>
       <c r="C263" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D263" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -5939,27 +5966,27 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
       </c>
       <c r="C264" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E264" t="s">
         <v>11</v>
       </c>
       <c r="F264">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -5974,81 +6001,81 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
       </c>
       <c r="C266" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D266" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E266" t="s">
         <v>11</v>
       </c>
       <c r="F266">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D267" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
       </c>
       <c r="C268" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D268" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E268" t="s">
         <v>11</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D269" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E269" t="s">
         <v>12</v>
@@ -6059,27 +6086,27 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
       </c>
       <c r="C270" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D270" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E270" t="s">
         <v>12</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6099,7 +6126,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6114,12 +6141,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6139,7 +6166,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6154,12 +6181,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6179,7 +6206,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6194,12 +6221,12 @@
         <v>10</v>
       </c>
       <c r="F276">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6214,12 +6241,12 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6239,7 +6266,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6254,12 +6281,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6274,12 +6301,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6299,7 +6326,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6314,32 +6341,32 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
       </c>
       <c r="C283" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D283" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E283" t="s">
         <v>11</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6354,12 +6381,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6374,12 +6401,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6394,12 +6421,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6414,12 +6441,12 @@
         <v>9</v>
       </c>
       <c r="F287">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6439,7 +6466,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6454,12 +6481,12 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6474,12 +6501,12 @@
         <v>10</v>
       </c>
       <c r="F290">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6494,12 +6521,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6514,12 +6541,12 @@
         <v>10</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6539,7 +6566,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6554,12 +6581,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6574,12 +6601,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6594,12 +6621,12 @@
         <v>11</v>
       </c>
       <c r="F296">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6619,7 +6646,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6639,7 +6666,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6654,12 +6681,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6674,32 +6701,32 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D301" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E301" t="s">
         <v>12</v>
       </c>
       <c r="F301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6719,7 +6746,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6739,7 +6766,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6754,12 +6781,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6768,7 +6795,7 @@
         <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E305" t="s">
         <v>10</v>
@@ -6779,7 +6806,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6794,32 +6821,32 @@
         <v>10</v>
       </c>
       <c r="F306">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
       </c>
       <c r="C307" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D307" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
       </c>
       <c r="F307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6834,12 +6861,12 @@
         <v>10</v>
       </c>
       <c r="F308">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6859,16 +6886,16 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D310" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E310" t="s">
         <v>11</v>
@@ -6879,7 +6906,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6894,12 +6921,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6914,12 +6941,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6934,12 +6961,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6959,7 +6986,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -6974,12 +7001,12 @@
         <v>12</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -6999,7 +7026,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7019,7 +7046,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7039,7 +7066,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7054,12 +7081,12 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7079,7 +7106,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7094,12 +7121,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7114,12 +7141,12 @@
         <v>10</v>
       </c>
       <c r="F322">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7139,13 +7166,13 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D324" t="s">
         <v>20</v>
@@ -7154,12 +7181,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7174,12 +7201,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7194,12 +7221,12 @@
         <v>11</v>
       </c>
       <c r="F326">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7214,12 +7241,12 @@
         <v>11</v>
       </c>
       <c r="F327">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7239,7 +7266,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7254,12 +7281,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7274,12 +7301,12 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7294,12 +7321,12 @@
         <v>12</v>
       </c>
       <c r="F331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7314,12 +7341,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7339,7 +7366,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7354,12 +7381,12 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7379,7 +7406,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7399,7 +7426,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7419,7 +7446,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7434,12 +7461,12 @@
         <v>10</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7454,12 +7481,12 @@
         <v>11</v>
       </c>
       <c r="F339">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7474,12 +7501,12 @@
         <v>11</v>
       </c>
       <c r="F340">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7494,12 +7521,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7514,12 +7541,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7534,12 +7561,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7554,12 +7581,12 @@
         <v>12</v>
       </c>
       <c r="F344">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7574,12 +7601,12 @@
         <v>12</v>
       </c>
       <c r="F345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7594,12 +7621,12 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7614,12 +7641,12 @@
         <v>9</v>
       </c>
       <c r="F347">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7639,7 +7666,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7659,7 +7686,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7674,12 +7701,12 @@
         <v>10</v>
       </c>
       <c r="F350">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7694,12 +7721,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7714,12 +7741,12 @@
         <v>10</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7739,7 +7766,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7754,12 +7781,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7774,12 +7801,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7794,12 +7821,12 @@
         <v>11</v>
       </c>
       <c r="F356">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7814,12 +7841,12 @@
         <v>11</v>
       </c>
       <c r="F357">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7839,16 +7866,16 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
       </c>
       <c r="C359" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D359" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E359" t="s">
         <v>12</v>
@@ -7859,7 +7886,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7874,12 +7901,12 @@
         <v>12</v>
       </c>
       <c r="F360">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7897,9 +7924,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>1</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>8</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>1</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>21</v>
+      </c>
+      <c r="D363" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>1</v>
+      </c>
+      <c r="B364" t="s">
+        <v>6</v>
+      </c>
+      <c r="C364" t="s">
+        <v>22</v>
+      </c>
+      <c r="D364" t="s">
+        <v>14</v>
+      </c>
+      <c r="E364" t="s">
+        <v>10</v>
+      </c>
+      <c r="F364">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>1</v>
+      </c>
+      <c r="B365" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>1</v>
+      </c>
+      <c r="B366" t="s">
+        <v>6</v>
+      </c>
+      <c r="C366" t="s">
+        <v>24</v>
+      </c>
+      <c r="D366" t="s">
+        <v>16</v>
+      </c>
+      <c r="E366" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>1</v>
+      </c>
+      <c r="B367" t="s">
+        <v>6</v>
+      </c>
+      <c r="C367" t="s">
+        <v>26</v>
+      </c>
+      <c r="D367" t="s">
+        <v>17</v>
+      </c>
+      <c r="E367" t="s">
+        <v>10</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>1</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368" t="s">
+        <v>18</v>
+      </c>
+      <c r="E368" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" t="s">
+        <v>25</v>
+      </c>
+      <c r="D369" t="s">
+        <v>13</v>
+      </c>
+      <c r="E369" t="s">
+        <v>11</v>
+      </c>
+      <c r="F369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" t="s">
+        <v>6</v>
+      </c>
+      <c r="C370" t="s">
+        <v>28</v>
+      </c>
+      <c r="D370" t="s">
+        <v>13</v>
+      </c>
+      <c r="E370" t="s">
+        <v>11</v>
+      </c>
+      <c r="F370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>1</v>
+      </c>
+      <c r="B371" t="s">
+        <v>6</v>
+      </c>
+      <c r="C371" t="s">
+        <v>29</v>
+      </c>
+      <c r="D371" t="s">
+        <v>19</v>
+      </c>
+      <c r="E371" t="s">
+        <v>11</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>1</v>
+      </c>
+      <c r="B372" t="s">
+        <v>6</v>
+      </c>
+      <c r="C372" t="s">
+        <v>30</v>
+      </c>
+      <c r="D372" t="s">
+        <v>14</v>
+      </c>
+      <c r="E372" t="s">
+        <v>11</v>
+      </c>
+      <c r="F372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>1</v>
+      </c>
+      <c r="B373" t="s">
+        <v>6</v>
+      </c>
+      <c r="C373" t="s">
+        <v>31</v>
+      </c>
+      <c r="D373" t="s">
+        <v>16</v>
+      </c>
+      <c r="E373" t="s">
+        <v>11</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>1</v>
+      </c>
+      <c r="B374" t="s">
+        <v>6</v>
+      </c>
+      <c r="C374" t="s">
+        <v>32</v>
+      </c>
+      <c r="D374" t="s">
+        <v>20</v>
+      </c>
+      <c r="E374" t="s">
+        <v>12</v>
+      </c>
+      <c r="F374">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>1</v>
+      </c>
+      <c r="B375" t="s">
+        <v>6</v>
+      </c>
+      <c r="C375" t="s">
+        <v>33</v>
+      </c>
+      <c r="D375" t="s">
+        <v>17</v>
+      </c>
+      <c r="E375" t="s">
+        <v>12</v>
+      </c>
+      <c r="F375">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>1</v>
+      </c>
+      <c r="B376" t="s">
+        <v>6</v>
+      </c>
+      <c r="C376" t="s">
+        <v>34</v>
+      </c>
+      <c r="D376" t="s">
+        <v>15</v>
+      </c>
+      <c r="E376" t="s">
+        <v>12</v>
+      </c>
+      <c r="F376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>1</v>
+      </c>
+      <c r="B377" t="s">
+        <v>7</v>
+      </c>
+      <c r="C377" t="s">
+        <v>38</v>
+      </c>
+      <c r="D377" t="s">
+        <v>39</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>1</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>62</v>
+      </c>
+      <c r="D378" t="s">
+        <v>44</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>1</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>40</v>
+      </c>
+      <c r="D379" t="s">
+        <v>16</v>
+      </c>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>1</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>41</v>
+      </c>
+      <c r="D380" t="s">
+        <v>20</v>
+      </c>
+      <c r="E380" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>1</v>
+      </c>
+      <c r="B381" t="s">
+        <v>7</v>
+      </c>
+      <c r="C381" t="s">
+        <v>42</v>
+      </c>
+      <c r="D381" t="s">
+        <v>43</v>
+      </c>
+      <c r="E381" t="s">
+        <v>10</v>
+      </c>
+      <c r="F381">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>1</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" t="s">
+        <v>19</v>
+      </c>
+      <c r="E382" t="s">
+        <v>10</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>1</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>46</v>
+      </c>
+      <c r="D383" t="s">
+        <v>49</v>
+      </c>
+      <c r="E383" t="s">
+        <v>10</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>1</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>50</v>
+      </c>
+      <c r="D384" t="s">
+        <v>20</v>
+      </c>
+      <c r="E384" t="s">
+        <v>11</v>
+      </c>
+      <c r="F384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>1</v>
+      </c>
+      <c r="B385" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" t="s">
+        <v>51</v>
+      </c>
+      <c r="D385" t="s">
+        <v>52</v>
+      </c>
+      <c r="E385" t="s">
+        <v>11</v>
+      </c>
+      <c r="F385">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>1</v>
+      </c>
+      <c r="B386" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" t="s">
+        <v>53</v>
+      </c>
+      <c r="D386" t="s">
+        <v>54</v>
+      </c>
+      <c r="E386" t="s">
+        <v>11</v>
+      </c>
+      <c r="F386">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>1</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>55</v>
+      </c>
+      <c r="D387" t="s">
+        <v>19</v>
+      </c>
+      <c r="E387" t="s">
+        <v>11</v>
+      </c>
+      <c r="F387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>1</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>47</v>
+      </c>
+      <c r="D388" t="s">
+        <v>48</v>
+      </c>
+      <c r="E388" t="s">
+        <v>11</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>1</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>56</v>
+      </c>
+      <c r="D389" t="s">
+        <v>14</v>
+      </c>
+      <c r="E389" t="s">
+        <v>12</v>
+      </c>
+      <c r="F389">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>1</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+      <c r="C390" t="s">
+        <v>57</v>
+      </c>
+      <c r="D390" t="s">
+        <v>43</v>
+      </c>
+      <c r="E390" t="s">
+        <v>12</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>1</v>
+      </c>
+      <c r="B391" t="s">
+        <v>7</v>
+      </c>
+      <c r="C391" t="s">
+        <v>58</v>
+      </c>
+      <c r="D391" t="s">
+        <v>19</v>
+      </c>
+      <c r="E391" t="s">
+        <v>12</v>
+      </c>
+      <c r="F391">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A92:F361">
-    <sortCondition descending="1" ref="A92:A361"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A122:F391">
+    <sortCondition descending="1" ref="A122:A391"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7907,10 +8534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7961,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -7973,7 +8600,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -7985,7 +8612,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -7997,7 +8624,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -8009,7 +8636,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -8021,7 +8648,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -8033,7 +8660,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -8045,7 +8672,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -8057,7 +8684,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -8069,7 +8696,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -8081,7 +8708,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -8093,7 +8720,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -8105,7 +8732,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -8117,7 +8744,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -8129,7 +8756,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -8141,7 +8768,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -8153,7 +8780,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -8165,7 +8792,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -8177,7 +8804,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -8189,7 +8816,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -8201,7 +8828,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -8213,7 +8840,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -8225,7 +8852,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"Bazzers Ballers",'Weekly Points'!$A$2:$A$361,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -8237,14 +8864,38 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$361,'Weekly Points'!$B$2:$B$361,"WHU-Tang-Clan",'Weekly Points'!$A$2:$A$361,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B27)+C25</f>
         <v>544</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$391,'Weekly Points'!$B$2:$B$391,A28,'Weekly Points'!$A$2:$A$391,B28)+C26</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$391,'Weekly Points'!$B$2:$B$391,A29,'Weekly Points'!$A$2:$A$391,B29)+C27</f>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C7:C28" formula="1"/>
+    <ignoredError sqref="C7:C27" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F5881B-4412-4C61-9CC9-CBAA06199875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28670C6-A13C-4880-A7A6-68EBFD2A8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="95">
   <si>
     <t>Gameweek</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>J. Gomes</t>
+  </si>
+  <si>
+    <t>Dalot</t>
   </si>
 </sst>
 </file>
@@ -690,13 +693,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F391"/>
+  <dimension ref="A1:F421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,7 +729,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -741,12 +744,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -766,7 +769,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -781,12 +784,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -801,32 +804,32 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s">
-        <v>54</v>
-      </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -841,12 +844,12 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -866,7 +869,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -886,7 +889,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -906,7 +909,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -921,12 +924,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -941,12 +944,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -961,12 +964,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -981,12 +984,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1001,12 +1004,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1021,12 +1024,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1046,7 +1049,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1061,12 +1064,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1081,12 +1084,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1106,7 +1109,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1126,7 +1129,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1141,12 +1144,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1166,7 +1169,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1201,12 +1204,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1221,12 +1224,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1241,12 +1244,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1261,12 +1264,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1281,12 +1284,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1301,12 +1304,12 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1321,12 +1324,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1341,12 +1344,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1366,33 +1369,33 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -1401,12 +1404,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1426,33 +1429,33 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1481,21 +1484,21 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -1506,27 +1509,27 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1541,92 +1544,92 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E45" t="s">
         <v>12</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
         <v>12</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1641,12 +1644,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1661,12 +1664,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1681,12 +1684,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1741,12 +1744,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1761,12 +1764,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1781,12 +1784,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1801,32 +1804,32 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
         <v>13</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1841,12 +1844,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1866,7 +1869,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1886,16 +1889,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
@@ -1906,7 +1909,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1921,12 +1924,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1941,12 +1944,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1966,7 +1969,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1986,7 +1989,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2001,12 +2004,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2021,12 +2024,12 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2041,12 +2044,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2066,7 +2069,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2081,41 +2084,41 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D70" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2126,7 +2129,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2146,7 +2149,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2161,12 +2164,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2181,12 +2184,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2201,12 +2204,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2221,12 +2224,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2241,12 +2244,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2261,12 +2264,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2281,12 +2284,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2301,12 +2304,12 @@
         <v>10</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2326,7 +2329,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2341,12 +2344,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2361,12 +2364,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2381,12 +2384,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2406,7 +2409,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2426,7 +2429,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2441,12 +2444,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2466,7 +2469,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2501,12 +2504,12 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2521,12 +2524,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2541,12 +2544,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2601,12 +2604,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2621,12 +2624,12 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2646,7 +2649,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2681,12 +2684,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2701,12 +2704,12 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2721,12 +2724,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2741,12 +2744,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2761,12 +2764,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2781,12 +2784,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2801,12 +2804,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2821,12 +2824,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2846,7 +2849,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2861,12 +2864,12 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2886,7 +2889,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2901,12 +2904,12 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2926,7 +2929,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2941,12 +2944,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2961,12 +2964,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2981,12 +2984,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3001,12 +3004,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3026,7 +3029,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3046,7 +3049,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3066,7 +3069,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3081,12 +3084,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3101,32 +3104,32 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E121" t="s">
         <v>12</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3141,12 +3144,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3166,7 +3169,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3181,12 +3184,12 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3201,12 +3204,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3226,7 +3229,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3241,12 +3244,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3266,27 +3269,27 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
       </c>
       <c r="C129" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D129" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3306,7 +3309,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3321,12 +3324,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3341,12 +3344,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3366,7 +3369,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3381,32 +3384,32 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D135" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3421,12 +3424,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3446,27 +3449,27 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3481,12 +3484,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3506,7 +3509,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3521,12 +3524,12 @@
         <v>10</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3546,7 +3549,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3561,12 +3564,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3581,12 +3584,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3601,12 +3604,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3626,7 +3629,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3641,12 +3644,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3666,7 +3669,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3681,12 +3684,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3701,12 +3704,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3721,12 +3724,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3741,12 +3744,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3766,7 +3769,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3806,27 +3809,27 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D156" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3846,7 +3849,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3866,7 +3869,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3881,12 +3884,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3901,12 +3904,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3921,12 +3924,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3941,12 +3944,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3961,12 +3964,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3981,12 +3984,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4006,7 +4009,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4021,12 +4024,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4041,12 +4044,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4086,7 +4089,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4106,7 +4109,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4126,7 +4129,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4146,7 +4149,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4161,12 +4164,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4181,12 +4184,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4201,12 +4204,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4226,27 +4229,27 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D177" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4261,12 +4264,12 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4281,12 +4284,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4301,12 +4304,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4326,7 +4329,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4341,12 +4344,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4366,7 +4369,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4386,7 +4389,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4401,12 +4404,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4426,7 +4429,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4441,12 +4444,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4466,7 +4469,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4486,27 +4489,27 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D190" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4521,12 +4524,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4541,12 +4544,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4561,12 +4564,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4606,7 +4609,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4621,12 +4624,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4641,12 +4644,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4666,7 +4669,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4681,21 +4684,21 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D200" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E200" t="s">
         <v>10</v>
@@ -4706,7 +4709,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4721,12 +4724,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4761,12 +4764,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4781,12 +4784,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4801,12 +4804,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4826,7 +4829,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4846,7 +4849,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4861,12 +4864,12 @@
         <v>11</v>
       </c>
       <c r="F208">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4886,7 +4889,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4906,7 +4909,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4921,12 +4924,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4941,12 +4944,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4966,7 +4969,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4981,12 +4984,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5001,12 +5004,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5026,7 +5029,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5041,12 +5044,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5066,7 +5069,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5081,12 +5084,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5106,7 +5109,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5121,12 +5124,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5141,12 +5144,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5161,12 +5164,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5186,7 +5189,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5206,16 +5209,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
@@ -5226,7 +5229,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5246,7 +5249,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5266,13 +5269,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
       </c>
       <c r="C229" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D229" t="s">
         <v>16</v>
@@ -5281,12 +5284,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5301,12 +5304,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5321,12 +5324,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5346,7 +5349,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5381,12 +5384,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5401,12 +5404,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5421,12 +5424,12 @@
         <v>11</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5441,12 +5444,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5461,12 +5464,12 @@
         <v>11</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5481,12 +5484,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5521,12 +5524,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5541,12 +5544,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5566,7 +5569,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5581,12 +5584,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5601,12 +5604,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5621,12 +5624,12 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5641,12 +5644,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5666,7 +5669,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5681,12 +5684,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5701,12 +5704,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5726,27 +5729,27 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
       </c>
       <c r="C252" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D252" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E252" t="s">
         <v>11</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5766,7 +5769,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5781,12 +5784,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5801,12 +5804,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5821,12 +5824,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5841,12 +5844,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5866,7 +5869,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5881,12 +5884,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5901,12 +5904,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5921,12 +5924,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5946,7 +5949,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5961,12 +5964,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5986,7 +5989,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6001,12 +6004,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6021,12 +6024,12 @@
         <v>11</v>
       </c>
       <c r="F266">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6041,12 +6044,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6061,18 +6064,18 @@
         <v>11</v>
       </c>
       <c r="F268">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
       </c>
       <c r="C269" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D269" t="s">
         <v>17</v>
@@ -6081,12 +6084,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6101,12 +6104,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6121,12 +6124,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6141,12 +6144,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6166,7 +6169,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6186,7 +6189,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6206,7 +6209,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6221,12 +6224,12 @@
         <v>10</v>
       </c>
       <c r="F276">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6266,27 +6269,27 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D279" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E279" t="s">
         <v>11</v>
       </c>
       <c r="F279">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6301,12 +6304,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6321,12 +6324,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6341,12 +6344,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6361,12 +6364,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6381,12 +6384,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6401,12 +6404,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6421,41 +6424,41 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
       </c>
       <c r="C287" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D287" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E287" t="s">
         <v>9</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D288" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E288" t="s">
         <v>9</v>
@@ -6466,13 +6469,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
@@ -6481,81 +6484,81 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D290" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
       </c>
       <c r="C291" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D291" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E291" t="s">
         <v>10</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
       </c>
       <c r="C292" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D292" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E292" t="s">
         <v>10</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
       </c>
       <c r="C293" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D293" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E293" t="s">
         <v>10</v>
@@ -6566,27 +6569,27 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D294" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E294" t="s">
         <v>11</v>
       </c>
       <c r="F294">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6601,81 +6604,81 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
       </c>
       <c r="C296" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D296" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E296" t="s">
         <v>11</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D297" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E297" t="s">
         <v>11</v>
       </c>
       <c r="F297">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
       </c>
       <c r="C298" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D298" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E298" t="s">
         <v>11</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D299" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E299" t="s">
         <v>12</v>
@@ -6686,27 +6689,27 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
       </c>
       <c r="C300" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D300" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E300" t="s">
         <v>12</v>
       </c>
       <c r="F300">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6726,7 +6729,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6741,12 +6744,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6781,12 +6784,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6821,12 +6824,12 @@
         <v>10</v>
       </c>
       <c r="F306">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6841,12 +6844,12 @@
         <v>10</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6866,7 +6869,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6881,12 +6884,12 @@
         <v>11</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6901,12 +6904,12 @@
         <v>11</v>
       </c>
       <c r="F310">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6926,7 +6929,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6941,32 +6944,32 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
       </c>
       <c r="C313" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D313" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E313" t="s">
         <v>11</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6981,12 +6984,12 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7001,12 +7004,12 @@
         <v>12</v>
       </c>
       <c r="F315">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7021,12 +7024,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7041,12 +7044,12 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7066,7 +7069,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7081,12 +7084,12 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7101,12 +7104,12 @@
         <v>10</v>
       </c>
       <c r="F320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7121,12 +7124,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7141,12 +7144,12 @@
         <v>10</v>
       </c>
       <c r="F322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7181,12 +7184,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7201,12 +7204,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7221,12 +7224,12 @@
         <v>11</v>
       </c>
       <c r="F326">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7266,7 +7269,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7281,12 +7284,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7301,32 +7304,32 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
       </c>
       <c r="C331" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D331" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E331" t="s">
         <v>12</v>
       </c>
       <c r="F331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7346,7 +7349,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7366,7 +7369,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7381,12 +7384,12 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7395,7 +7398,7 @@
         <v>23</v>
       </c>
       <c r="D335" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E335" t="s">
         <v>10</v>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7421,32 +7424,32 @@
         <v>10</v>
       </c>
       <c r="F336">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D337" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E337" t="s">
         <v>10</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7461,12 +7464,12 @@
         <v>10</v>
       </c>
       <c r="F338">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7486,16 +7489,16 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D340" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E340" t="s">
         <v>11</v>
@@ -7506,7 +7509,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7521,12 +7524,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7541,12 +7544,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7561,12 +7564,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7601,12 +7604,12 @@
         <v>12</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7626,7 +7629,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7646,7 +7649,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7681,12 +7684,12 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7706,7 +7709,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7721,12 +7724,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7741,12 +7744,12 @@
         <v>10</v>
       </c>
       <c r="F352">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7766,13 +7769,13 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
       </c>
       <c r="C354" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D354" t="s">
         <v>20</v>
@@ -7781,12 +7784,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7801,12 +7804,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7821,12 +7824,12 @@
         <v>11</v>
       </c>
       <c r="F356">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7841,12 +7844,12 @@
         <v>11</v>
       </c>
       <c r="F357">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7866,7 +7869,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7881,12 +7884,12 @@
         <v>12</v>
       </c>
       <c r="F359">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7901,12 +7904,12 @@
         <v>12</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7921,12 +7924,12 @@
         <v>12</v>
       </c>
       <c r="F361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7941,12 +7944,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7966,7 +7969,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -7981,12 +7984,12 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8006,7 +8009,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8061,12 +8064,12 @@
         <v>10</v>
       </c>
       <c r="F368">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8081,12 +8084,12 @@
         <v>11</v>
       </c>
       <c r="F369">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8101,12 +8104,12 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8121,12 +8124,12 @@
         <v>11</v>
       </c>
       <c r="F371">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8141,12 +8144,12 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8161,12 +8164,12 @@
         <v>11</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8181,12 +8184,12 @@
         <v>12</v>
       </c>
       <c r="F374">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8201,12 +8204,12 @@
         <v>12</v>
       </c>
       <c r="F375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8221,12 +8224,12 @@
         <v>12</v>
       </c>
       <c r="F376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8241,12 +8244,12 @@
         <v>9</v>
       </c>
       <c r="F377">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8266,7 +8269,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -8286,7 +8289,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -8301,12 +8304,12 @@
         <v>10</v>
       </c>
       <c r="F380">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8321,12 +8324,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8341,12 +8344,12 @@
         <v>10</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8366,7 +8369,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -8381,12 +8384,12 @@
         <v>11</v>
       </c>
       <c r="F384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8401,12 +8404,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8421,12 +8424,12 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8441,12 +8444,12 @@
         <v>11</v>
       </c>
       <c r="F387">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8466,16 +8469,16 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D389" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E389" t="s">
         <v>12</v>
@@ -8486,7 +8489,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8501,12 +8504,12 @@
         <v>12</v>
       </c>
       <c r="F390">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8524,9 +8527,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>1</v>
+      </c>
+      <c r="B392" t="s">
+        <v>6</v>
+      </c>
+      <c r="C392" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" t="s">
+        <v>13</v>
+      </c>
+      <c r="E392" t="s">
+        <v>9</v>
+      </c>
+      <c r="F392">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>1</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>21</v>
+      </c>
+      <c r="D393" t="s">
+        <v>19</v>
+      </c>
+      <c r="E393" t="s">
+        <v>9</v>
+      </c>
+      <c r="F393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>1</v>
+      </c>
+      <c r="B394" t="s">
+        <v>6</v>
+      </c>
+      <c r="C394" t="s">
+        <v>22</v>
+      </c>
+      <c r="D394" t="s">
+        <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>1</v>
+      </c>
+      <c r="B395" t="s">
+        <v>6</v>
+      </c>
+      <c r="C395" t="s">
+        <v>23</v>
+      </c>
+      <c r="D395" t="s">
+        <v>15</v>
+      </c>
+      <c r="E395" t="s">
+        <v>10</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>1</v>
+      </c>
+      <c r="B396" t="s">
+        <v>6</v>
+      </c>
+      <c r="C396" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" t="s">
+        <v>16</v>
+      </c>
+      <c r="E396" t="s">
+        <v>10</v>
+      </c>
+      <c r="F396">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>1</v>
+      </c>
+      <c r="B397" t="s">
+        <v>6</v>
+      </c>
+      <c r="C397" t="s">
+        <v>26</v>
+      </c>
+      <c r="D397" t="s">
+        <v>17</v>
+      </c>
+      <c r="E397" t="s">
+        <v>10</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>1</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>27</v>
+      </c>
+      <c r="D398" t="s">
+        <v>18</v>
+      </c>
+      <c r="E398" t="s">
+        <v>10</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>1</v>
+      </c>
+      <c r="B399" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" t="s">
+        <v>25</v>
+      </c>
+      <c r="D399" t="s">
+        <v>13</v>
+      </c>
+      <c r="E399" t="s">
+        <v>11</v>
+      </c>
+      <c r="F399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>1</v>
+      </c>
+      <c r="B400" t="s">
+        <v>6</v>
+      </c>
+      <c r="C400" t="s">
+        <v>28</v>
+      </c>
+      <c r="D400" t="s">
+        <v>13</v>
+      </c>
+      <c r="E400" t="s">
+        <v>11</v>
+      </c>
+      <c r="F400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>1</v>
+      </c>
+      <c r="B401" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" t="s">
+        <v>29</v>
+      </c>
+      <c r="D401" t="s">
+        <v>19</v>
+      </c>
+      <c r="E401" t="s">
+        <v>11</v>
+      </c>
+      <c r="F401">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>1</v>
+      </c>
+      <c r="B402" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" t="s">
+        <v>30</v>
+      </c>
+      <c r="D402" t="s">
+        <v>14</v>
+      </c>
+      <c r="E402" t="s">
+        <v>11</v>
+      </c>
+      <c r="F402">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>1</v>
+      </c>
+      <c r="B403" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" t="s">
+        <v>31</v>
+      </c>
+      <c r="D403" t="s">
+        <v>16</v>
+      </c>
+      <c r="E403" t="s">
+        <v>11</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>1</v>
+      </c>
+      <c r="B404" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" t="s">
+        <v>32</v>
+      </c>
+      <c r="D404" t="s">
+        <v>20</v>
+      </c>
+      <c r="E404" t="s">
+        <v>12</v>
+      </c>
+      <c r="F404">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>1</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s">
+        <v>33</v>
+      </c>
+      <c r="D405" t="s">
+        <v>17</v>
+      </c>
+      <c r="E405" t="s">
+        <v>12</v>
+      </c>
+      <c r="F405">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>1</v>
+      </c>
+      <c r="B406" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>34</v>
+      </c>
+      <c r="D406" t="s">
+        <v>15</v>
+      </c>
+      <c r="E406" t="s">
+        <v>12</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>1</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>38</v>
+      </c>
+      <c r="D407" t="s">
+        <v>39</v>
+      </c>
+      <c r="E407" t="s">
+        <v>9</v>
+      </c>
+      <c r="F407">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>1</v>
+      </c>
+      <c r="B408" t="s">
+        <v>7</v>
+      </c>
+      <c r="C408" t="s">
+        <v>62</v>
+      </c>
+      <c r="D408" t="s">
+        <v>44</v>
+      </c>
+      <c r="E408" t="s">
+        <v>9</v>
+      </c>
+      <c r="F408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>1</v>
+      </c>
+      <c r="B409" t="s">
+        <v>7</v>
+      </c>
+      <c r="C409" t="s">
+        <v>40</v>
+      </c>
+      <c r="D409" t="s">
+        <v>16</v>
+      </c>
+      <c r="E409" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>1</v>
+      </c>
+      <c r="B410" t="s">
+        <v>7</v>
+      </c>
+      <c r="C410" t="s">
+        <v>41</v>
+      </c>
+      <c r="D410" t="s">
+        <v>20</v>
+      </c>
+      <c r="E410" t="s">
+        <v>10</v>
+      </c>
+      <c r="F410">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>1</v>
+      </c>
+      <c r="B411" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" t="s">
+        <v>42</v>
+      </c>
+      <c r="D411" t="s">
+        <v>43</v>
+      </c>
+      <c r="E411" t="s">
+        <v>10</v>
+      </c>
+      <c r="F411">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>1</v>
+      </c>
+      <c r="B412" t="s">
+        <v>7</v>
+      </c>
+      <c r="C412" t="s">
+        <v>45</v>
+      </c>
+      <c r="D412" t="s">
+        <v>19</v>
+      </c>
+      <c r="E412" t="s">
+        <v>10</v>
+      </c>
+      <c r="F412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>1</v>
+      </c>
+      <c r="B413" t="s">
+        <v>7</v>
+      </c>
+      <c r="C413" t="s">
+        <v>46</v>
+      </c>
+      <c r="D413" t="s">
+        <v>49</v>
+      </c>
+      <c r="E413" t="s">
+        <v>10</v>
+      </c>
+      <c r="F413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>1</v>
+      </c>
+      <c r="B414" t="s">
+        <v>7</v>
+      </c>
+      <c r="C414" t="s">
+        <v>50</v>
+      </c>
+      <c r="D414" t="s">
+        <v>20</v>
+      </c>
+      <c r="E414" t="s">
+        <v>11</v>
+      </c>
+      <c r="F414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>1</v>
+      </c>
+      <c r="B415" t="s">
+        <v>7</v>
+      </c>
+      <c r="C415" t="s">
+        <v>51</v>
+      </c>
+      <c r="D415" t="s">
+        <v>52</v>
+      </c>
+      <c r="E415" t="s">
+        <v>11</v>
+      </c>
+      <c r="F415">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>1</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>53</v>
+      </c>
+      <c r="D416" t="s">
+        <v>54</v>
+      </c>
+      <c r="E416" t="s">
+        <v>11</v>
+      </c>
+      <c r="F416">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>1</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>55</v>
+      </c>
+      <c r="D417" t="s">
+        <v>19</v>
+      </c>
+      <c r="E417" t="s">
+        <v>11</v>
+      </c>
+      <c r="F417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>1</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>47</v>
+      </c>
+      <c r="D418" t="s">
+        <v>48</v>
+      </c>
+      <c r="E418" t="s">
+        <v>11</v>
+      </c>
+      <c r="F418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>1</v>
+      </c>
+      <c r="B419" t="s">
+        <v>7</v>
+      </c>
+      <c r="C419" t="s">
+        <v>56</v>
+      </c>
+      <c r="D419" t="s">
+        <v>14</v>
+      </c>
+      <c r="E419" t="s">
+        <v>12</v>
+      </c>
+      <c r="F419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>1</v>
+      </c>
+      <c r="B420" t="s">
+        <v>7</v>
+      </c>
+      <c r="C420" t="s">
+        <v>57</v>
+      </c>
+      <c r="D420" t="s">
+        <v>43</v>
+      </c>
+      <c r="E420" t="s">
+        <v>12</v>
+      </c>
+      <c r="F420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>1</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>58</v>
+      </c>
+      <c r="D421" t="s">
+        <v>19</v>
+      </c>
+      <c r="E421" t="s">
+        <v>12</v>
+      </c>
+      <c r="F421">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A122:F391">
-    <sortCondition descending="1" ref="A122:A391"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:F421">
+    <sortCondition descending="1" ref="A152:A421"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8534,10 +9137,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8588,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -8600,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -8612,7 +9215,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -8624,7 +9227,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -8636,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -8648,7 +9251,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -8660,7 +9263,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -8672,7 +9275,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -8684,7 +9287,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -8696,7 +9299,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -8708,7 +9311,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -8720,7 +9323,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -8732,7 +9335,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -8744,7 +9347,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -8756,7 +9359,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -8768,7 +9371,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -8780,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -8792,7 +9395,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -8804,7 +9407,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -8816,7 +9419,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -8828,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -8840,7 +9443,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -8852,7 +9455,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"Bazzers Ballers",'Weekly Points'!$A$32:$A$391,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -8864,7 +9467,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$391,'Weekly Points'!$B$32:$B$391,"WHU-Tang-Clan",'Weekly Points'!$A$32:$A$391,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -8876,7 +9479,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$391,'Weekly Points'!$B$2:$B$391,A28,'Weekly Points'!$A$2:$A$391,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$421,'Weekly Points'!$B$32:$B$421,A28,'Weekly Points'!$A$32:$A$421,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -8888,8 +9491,32 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$391,'Weekly Points'!$B$2:$B$391,A29,'Weekly Points'!$A$2:$A$391,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$421,'Weekly Points'!$B$32:$B$421,A29,'Weekly Points'!$A$32:$A$421,B29)+C27</f>
         <v>621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$421,'Weekly Points'!$B$2:$B$421,A30,'Weekly Points'!$A$2:$A$421,B30)+C28</f>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$421,'Weekly Points'!$B$2:$B$421,A31,'Weekly Points'!$A$2:$A$421,B31)+C29</f>
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28670C6-A13C-4880-A7A6-68EBFD2A8385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0819E9-A9CE-4552-B953-6B080EEBD61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="96">
   <si>
     <t>Gameweek</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Dalot</t>
+  </si>
+  <si>
+    <t>Wan-Bissaka</t>
   </si>
 </sst>
 </file>
@@ -693,13 +696,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F421"/>
+  <dimension ref="A1:F451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +732,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -744,12 +747,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -769,7 +772,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -789,7 +792,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -804,12 +807,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -829,7 +832,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -858,7 +861,7 @@
         <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -869,7 +872,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -884,12 +887,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -904,32 +907,32 @@
         <v>11</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -944,12 +947,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -964,12 +967,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -984,12 +987,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1004,12 +1007,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1024,12 +1027,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1044,12 +1047,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1064,12 +1067,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1089,7 +1092,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1109,27 +1112,27 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
         <v>10</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1144,12 +1147,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1169,27 +1172,27 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1204,12 +1207,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1224,12 +1227,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1244,12 +1247,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1264,12 +1267,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1284,12 +1287,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1304,12 +1307,12 @@
         <v>12</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1324,12 +1327,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1344,12 +1347,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1384,12 +1387,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1404,32 +1407,32 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" t="s">
-        <v>54</v>
-      </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1444,12 +1447,12 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1489,7 +1492,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1509,7 +1512,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1524,12 +1527,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1544,12 +1547,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1564,12 +1567,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1584,12 +1587,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1604,12 +1607,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1624,12 +1627,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1649,7 +1652,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1664,12 +1667,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1684,12 +1687,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1744,12 +1747,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1769,7 +1772,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1789,7 +1792,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1804,12 +1807,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1824,12 +1827,12 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1844,12 +1847,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1864,12 +1867,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1884,12 +1887,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1904,12 +1907,12 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1924,12 +1927,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1944,12 +1947,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1969,33 +1972,33 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E64" t="s">
         <v>10</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
@@ -2004,12 +2007,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2029,33 +2032,33 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D68" t="s">
         <v>18</v>
@@ -2069,7 +2072,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2084,21 +2087,21 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D70" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2109,27 +2112,27 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2144,92 +2147,92 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E75" t="s">
         <v>12</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D76" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
         <v>12</v>
       </c>
       <c r="F76">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2244,12 +2247,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2264,12 +2267,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2284,12 +2287,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2309,7 +2312,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2329,7 +2332,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2344,12 +2347,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2364,12 +2367,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2384,12 +2387,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2404,32 +2407,32 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
         <v>13</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2444,12 +2447,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2469,7 +2472,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2489,16 +2492,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E90" t="s">
         <v>12</v>
@@ -2509,7 +2512,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2524,12 +2527,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2544,12 +2547,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2569,7 +2572,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2589,7 +2592,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2604,12 +2607,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2624,12 +2627,12 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2644,12 +2647,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2684,41 +2687,41 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D100" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -2729,7 +2732,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2749,7 +2752,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2764,12 +2767,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2784,12 +2787,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2804,12 +2807,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2824,12 +2827,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2844,12 +2847,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2864,12 +2867,12 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2884,12 +2887,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2904,12 +2907,12 @@
         <v>10</v>
       </c>
       <c r="F110">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2929,7 +2932,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2944,12 +2947,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2964,12 +2967,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2984,12 +2987,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3044,12 +3047,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3069,7 +3072,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3089,7 +3092,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3104,12 +3107,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3124,12 +3127,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3144,12 +3147,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3169,7 +3172,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3189,7 +3192,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3204,12 +3207,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3224,12 +3227,12 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3249,7 +3252,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3269,7 +3272,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3284,12 +3287,12 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3304,12 +3307,12 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3324,12 +3327,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3344,12 +3347,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3364,12 +3367,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3384,12 +3387,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3404,12 +3407,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3424,12 +3427,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3449,7 +3452,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3464,12 +3467,12 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3504,12 +3507,12 @@
         <v>10</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3529,7 +3532,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3544,12 +3547,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3564,12 +3567,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3584,12 +3587,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3604,12 +3607,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3629,7 +3632,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3649,7 +3652,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3684,12 +3687,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3704,32 +3707,32 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
       </c>
       <c r="C151" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D151" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E151" t="s">
         <v>12</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3744,12 +3747,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3769,7 +3772,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3784,12 +3787,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3804,12 +3807,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3829,7 +3832,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3844,12 +3847,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3869,27 +3872,27 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D159" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3909,7 +3912,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3924,12 +3927,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3944,12 +3947,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3969,7 +3972,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3984,32 +3987,32 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D165" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E165" t="s">
         <v>12</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4024,12 +4027,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4049,27 +4052,27 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D168" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4084,12 +4087,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4109,7 +4112,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4124,12 +4127,12 @@
         <v>10</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4149,7 +4152,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4164,12 +4167,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4184,12 +4187,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4204,12 +4207,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4229,7 +4232,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4244,12 +4247,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4269,7 +4272,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4284,12 +4287,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4304,12 +4307,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4324,12 +4327,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4344,12 +4347,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4369,7 +4372,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4389,7 +4392,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4409,27 +4412,27 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D186" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4449,7 +4452,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4469,7 +4472,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4484,12 +4487,12 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4504,12 +4507,12 @@
         <v>11</v>
       </c>
       <c r="F190">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4524,12 +4527,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4544,12 +4547,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4564,12 +4567,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4584,12 +4587,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4609,7 +4612,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4624,12 +4627,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4644,12 +4647,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4669,7 +4672,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4689,7 +4692,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4709,7 +4712,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4729,7 +4732,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4749,7 +4752,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4764,12 +4767,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4784,12 +4787,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4804,12 +4807,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4829,27 +4832,27 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D207" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E207" t="s">
         <v>11</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4864,12 +4867,12 @@
         <v>11</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4884,12 +4887,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4904,12 +4907,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4929,7 +4932,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4944,12 +4947,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4969,7 +4972,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4989,7 +4992,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5004,12 +5007,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5029,7 +5032,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5044,12 +5047,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5069,7 +5072,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5089,27 +5092,27 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D220" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5124,12 +5127,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5144,12 +5147,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5164,12 +5167,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5189,7 +5192,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5209,7 +5212,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5224,12 +5227,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5244,12 +5247,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5269,7 +5272,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5284,21 +5287,21 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
       </c>
       <c r="C230" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D230" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E230" t="s">
         <v>10</v>
@@ -5309,7 +5312,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5324,12 +5327,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5349,7 +5352,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5364,12 +5367,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5384,12 +5387,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5404,12 +5407,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5429,7 +5432,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5449,7 +5452,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5464,12 +5467,12 @@
         <v>11</v>
       </c>
       <c r="F238">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5489,7 +5492,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5509,7 +5512,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5524,12 +5527,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5544,12 +5547,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5569,7 +5572,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5584,12 +5587,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5604,12 +5607,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5629,7 +5632,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5644,12 +5647,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5669,7 +5672,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5684,12 +5687,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5709,7 +5712,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5724,12 +5727,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5744,12 +5747,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5764,12 +5767,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5789,7 +5792,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5809,16 +5812,16 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
       </c>
       <c r="C256" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E256" t="s">
         <v>12</v>
@@ -5829,7 +5832,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5849,7 +5852,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5869,13 +5872,13 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
       </c>
       <c r="C259" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D259" t="s">
         <v>16</v>
@@ -5884,12 +5887,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5904,12 +5907,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5924,12 +5927,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5949,7 +5952,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5984,12 +5987,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6004,12 +6007,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6024,12 +6027,12 @@
         <v>11</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6044,12 +6047,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6064,12 +6067,12 @@
         <v>11</v>
       </c>
       <c r="F268">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6084,12 +6087,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6109,7 +6112,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6124,12 +6127,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6144,12 +6147,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6184,12 +6187,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6204,12 +6207,12 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6224,12 +6227,12 @@
         <v>10</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6244,12 +6247,12 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6269,7 +6272,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6284,12 +6287,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6304,12 +6307,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6329,27 +6332,27 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
       </c>
       <c r="C282" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D282" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E282" t="s">
         <v>11</v>
       </c>
       <c r="F282">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6369,7 +6372,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6384,12 +6387,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6404,12 +6407,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6424,12 +6427,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6444,12 +6447,12 @@
         <v>9</v>
       </c>
       <c r="F287">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6484,12 +6487,12 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6504,12 +6507,12 @@
         <v>10</v>
       </c>
       <c r="F290">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6524,12 +6527,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6549,7 +6552,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6564,12 +6567,12 @@
         <v>10</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6589,7 +6592,7 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6604,12 +6607,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6624,12 +6627,12 @@
         <v>11</v>
       </c>
       <c r="F296">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6644,12 +6647,12 @@
         <v>11</v>
       </c>
       <c r="F297">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6664,18 +6667,18 @@
         <v>11</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
       </c>
       <c r="C299" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D299" t="s">
         <v>17</v>
@@ -6684,12 +6687,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6704,12 +6707,12 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6724,12 +6727,12 @@
         <v>12</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6744,12 +6747,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6769,7 +6772,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6789,7 +6792,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6809,7 +6812,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6824,12 +6827,12 @@
         <v>10</v>
       </c>
       <c r="F306">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6849,7 +6852,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6869,27 +6872,27 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D309" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E309" t="s">
         <v>11</v>
       </c>
       <c r="F309">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6904,12 +6907,12 @@
         <v>11</v>
       </c>
       <c r="F310">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6924,12 +6927,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6944,12 +6947,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6964,12 +6967,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6984,12 +6987,12 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7004,12 +7007,12 @@
         <v>12</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7024,41 +7027,41 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
       </c>
       <c r="C317" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D317" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E317" t="s">
         <v>9</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D318" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E318" t="s">
         <v>9</v>
@@ -7069,13 +7072,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D319" t="s">
         <v>16</v>
@@ -7084,81 +7087,81 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D320" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
       </c>
       <c r="F320">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
       </c>
       <c r="C321" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D321" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E321" t="s">
         <v>10</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
       </c>
       <c r="C322" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D322" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E322" t="s">
         <v>10</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
       </c>
       <c r="C323" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D323" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E323" t="s">
         <v>10</v>
@@ -7169,27 +7172,27 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
       </c>
       <c r="C324" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D324" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E324" t="s">
         <v>11</v>
       </c>
       <c r="F324">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7204,81 +7207,81 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
       </c>
       <c r="C326" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D326" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E326" t="s">
         <v>11</v>
       </c>
       <c r="F326">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D327" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E327" t="s">
         <v>11</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
       </c>
       <c r="C328" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D328" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E328" t="s">
         <v>11</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D329" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E329" t="s">
         <v>12</v>
@@ -7289,27 +7292,27 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
       </c>
       <c r="C330" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D330" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E330" t="s">
         <v>12</v>
       </c>
       <c r="F330">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7329,7 +7332,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7344,12 +7347,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7384,12 +7387,12 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7409,7 +7412,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7424,12 +7427,12 @@
         <v>10</v>
       </c>
       <c r="F336">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7444,12 +7447,12 @@
         <v>10</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7469,7 +7472,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7484,12 +7487,12 @@
         <v>11</v>
       </c>
       <c r="F339">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7504,12 +7507,12 @@
         <v>11</v>
       </c>
       <c r="F340">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7529,7 +7532,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7544,32 +7547,32 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
       <c r="C343" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D343" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E343" t="s">
         <v>11</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7584,12 +7587,12 @@
         <v>12</v>
       </c>
       <c r="F344">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7604,12 +7607,12 @@
         <v>12</v>
       </c>
       <c r="F345">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7624,12 +7627,12 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7644,12 +7647,12 @@
         <v>9</v>
       </c>
       <c r="F347">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7669,7 +7672,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7684,12 +7687,12 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7704,12 +7707,12 @@
         <v>10</v>
       </c>
       <c r="F350">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7724,12 +7727,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7744,12 +7747,12 @@
         <v>10</v>
       </c>
       <c r="F352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7769,7 +7772,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7784,12 +7787,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7804,12 +7807,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7824,12 +7827,12 @@
         <v>11</v>
       </c>
       <c r="F356">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7849,7 +7852,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7869,7 +7872,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7884,12 +7887,12 @@
         <v>12</v>
       </c>
       <c r="F359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7904,32 +7907,32 @@
         <v>12</v>
       </c>
       <c r="F360">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
       </c>
       <c r="C361" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D361" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E361" t="s">
         <v>12</v>
       </c>
       <c r="F361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7949,7 +7952,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7969,7 +7972,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -7984,12 +7987,12 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -7998,7 +8001,7 @@
         <v>23</v>
       </c>
       <c r="D365" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E365" t="s">
         <v>10</v>
@@ -8009,7 +8012,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8024,32 +8027,32 @@
         <v>10</v>
       </c>
       <c r="F366">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
       </c>
       <c r="C367" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D367" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E367" t="s">
         <v>10</v>
       </c>
       <c r="F367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8064,12 +8067,12 @@
         <v>10</v>
       </c>
       <c r="F368">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8089,16 +8092,16 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
       </c>
       <c r="C370" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D370" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E370" t="s">
         <v>11</v>
@@ -8109,7 +8112,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8124,12 +8127,12 @@
         <v>11</v>
       </c>
       <c r="F371">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8144,12 +8147,12 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8164,12 +8167,12 @@
         <v>11</v>
       </c>
       <c r="F373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8189,7 +8192,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8204,12 +8207,12 @@
         <v>12</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8229,7 +8232,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8249,7 +8252,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8269,7 +8272,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -8284,12 +8287,12 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -8309,7 +8312,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8324,12 +8327,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8344,12 +8347,12 @@
         <v>10</v>
       </c>
       <c r="F382">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8369,13 +8372,13 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D384" t="s">
         <v>20</v>
@@ -8384,12 +8387,12 @@
         <v>11</v>
       </c>
       <c r="F384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8404,12 +8407,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8424,12 +8427,12 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8444,12 +8447,12 @@
         <v>11</v>
       </c>
       <c r="F387">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8469,7 +8472,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -8484,12 +8487,12 @@
         <v>12</v>
       </c>
       <c r="F389">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8504,12 +8507,12 @@
         <v>12</v>
       </c>
       <c r="F390">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8524,12 +8527,12 @@
         <v>12</v>
       </c>
       <c r="F391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8544,12 +8547,12 @@
         <v>9</v>
       </c>
       <c r="F392">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8569,7 +8572,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8584,12 +8587,12 @@
         <v>10</v>
       </c>
       <c r="F394">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8609,7 +8612,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8629,7 +8632,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -8649,7 +8652,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8664,12 +8667,12 @@
         <v>10</v>
       </c>
       <c r="F398">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -8684,12 +8687,12 @@
         <v>11</v>
       </c>
       <c r="F399">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -8704,12 +8707,12 @@
         <v>11</v>
       </c>
       <c r="F400">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8724,12 +8727,12 @@
         <v>11</v>
       </c>
       <c r="F401">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -8744,12 +8747,12 @@
         <v>11</v>
       </c>
       <c r="F402">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -8764,12 +8767,12 @@
         <v>11</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8784,12 +8787,12 @@
         <v>12</v>
       </c>
       <c r="F404">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8804,12 +8807,12 @@
         <v>12</v>
       </c>
       <c r="F405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -8824,12 +8827,12 @@
         <v>12</v>
       </c>
       <c r="F406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -8844,12 +8847,12 @@
         <v>9</v>
       </c>
       <c r="F407">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -8869,7 +8872,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -8889,7 +8892,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -8904,12 +8907,12 @@
         <v>10</v>
       </c>
       <c r="F410">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -8924,12 +8927,12 @@
         <v>10</v>
       </c>
       <c r="F411">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -8944,12 +8947,12 @@
         <v>10</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -8969,7 +8972,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -8984,12 +8987,12 @@
         <v>11</v>
       </c>
       <c r="F414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9004,12 +9007,12 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -9024,12 +9027,12 @@
         <v>11</v>
       </c>
       <c r="F416">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -9044,12 +9047,12 @@
         <v>11</v>
       </c>
       <c r="F417">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -9069,16 +9072,16 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
       </c>
       <c r="C419" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D419" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E419" t="s">
         <v>12</v>
@@ -9089,7 +9092,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -9104,12 +9107,12 @@
         <v>12</v>
       </c>
       <c r="F420">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -9127,9 +9130,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>1</v>
+      </c>
+      <c r="B422" t="s">
+        <v>6</v>
+      </c>
+      <c r="C422" t="s">
+        <v>8</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" t="s">
+        <v>9</v>
+      </c>
+      <c r="F422">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>1</v>
+      </c>
+      <c r="B423" t="s">
+        <v>6</v>
+      </c>
+      <c r="C423" t="s">
+        <v>21</v>
+      </c>
+      <c r="D423" t="s">
+        <v>19</v>
+      </c>
+      <c r="E423" t="s">
+        <v>9</v>
+      </c>
+      <c r="F423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>1</v>
+      </c>
+      <c r="B424" t="s">
+        <v>6</v>
+      </c>
+      <c r="C424" t="s">
+        <v>22</v>
+      </c>
+      <c r="D424" t="s">
+        <v>14</v>
+      </c>
+      <c r="E424" t="s">
+        <v>10</v>
+      </c>
+      <c r="F424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>1</v>
+      </c>
+      <c r="B425" t="s">
+        <v>6</v>
+      </c>
+      <c r="C425" t="s">
+        <v>23</v>
+      </c>
+      <c r="D425" t="s">
+        <v>15</v>
+      </c>
+      <c r="E425" t="s">
+        <v>10</v>
+      </c>
+      <c r="F425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>1</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>24</v>
+      </c>
+      <c r="D426" t="s">
+        <v>16</v>
+      </c>
+      <c r="E426" t="s">
+        <v>10</v>
+      </c>
+      <c r="F426">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>1</v>
+      </c>
+      <c r="B427" t="s">
+        <v>6</v>
+      </c>
+      <c r="C427" t="s">
+        <v>26</v>
+      </c>
+      <c r="D427" t="s">
+        <v>17</v>
+      </c>
+      <c r="E427" t="s">
+        <v>10</v>
+      </c>
+      <c r="F427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>1</v>
+      </c>
+      <c r="B428" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" t="s">
+        <v>27</v>
+      </c>
+      <c r="D428" t="s">
+        <v>18</v>
+      </c>
+      <c r="E428" t="s">
+        <v>10</v>
+      </c>
+      <c r="F428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>1</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>25</v>
+      </c>
+      <c r="D429" t="s">
+        <v>13</v>
+      </c>
+      <c r="E429" t="s">
+        <v>11</v>
+      </c>
+      <c r="F429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>1</v>
+      </c>
+      <c r="B430" t="s">
+        <v>6</v>
+      </c>
+      <c r="C430" t="s">
+        <v>28</v>
+      </c>
+      <c r="D430" t="s">
+        <v>13</v>
+      </c>
+      <c r="E430" t="s">
+        <v>11</v>
+      </c>
+      <c r="F430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>1</v>
+      </c>
+      <c r="B431" t="s">
+        <v>6</v>
+      </c>
+      <c r="C431" t="s">
+        <v>29</v>
+      </c>
+      <c r="D431" t="s">
+        <v>19</v>
+      </c>
+      <c r="E431" t="s">
+        <v>11</v>
+      </c>
+      <c r="F431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>1</v>
+      </c>
+      <c r="B432" t="s">
+        <v>6</v>
+      </c>
+      <c r="C432" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" t="s">
+        <v>14</v>
+      </c>
+      <c r="E432" t="s">
+        <v>11</v>
+      </c>
+      <c r="F432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>1</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>31</v>
+      </c>
+      <c r="D433" t="s">
+        <v>16</v>
+      </c>
+      <c r="E433" t="s">
+        <v>11</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>1</v>
+      </c>
+      <c r="B434" t="s">
+        <v>6</v>
+      </c>
+      <c r="C434" t="s">
+        <v>32</v>
+      </c>
+      <c r="D434" t="s">
+        <v>20</v>
+      </c>
+      <c r="E434" t="s">
+        <v>12</v>
+      </c>
+      <c r="F434">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>1</v>
+      </c>
+      <c r="B435" t="s">
+        <v>6</v>
+      </c>
+      <c r="C435" t="s">
+        <v>33</v>
+      </c>
+      <c r="D435" t="s">
+        <v>17</v>
+      </c>
+      <c r="E435" t="s">
+        <v>12</v>
+      </c>
+      <c r="F435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>1</v>
+      </c>
+      <c r="B436" t="s">
+        <v>6</v>
+      </c>
+      <c r="C436" t="s">
+        <v>34</v>
+      </c>
+      <c r="D436" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436" t="s">
+        <v>12</v>
+      </c>
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>1</v>
+      </c>
+      <c r="B437" t="s">
+        <v>7</v>
+      </c>
+      <c r="C437" t="s">
+        <v>38</v>
+      </c>
+      <c r="D437" t="s">
+        <v>39</v>
+      </c>
+      <c r="E437" t="s">
+        <v>9</v>
+      </c>
+      <c r="F437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>1</v>
+      </c>
+      <c r="B438" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" t="s">
+        <v>62</v>
+      </c>
+      <c r="D438" t="s">
+        <v>44</v>
+      </c>
+      <c r="E438" t="s">
+        <v>9</v>
+      </c>
+      <c r="F438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>1</v>
+      </c>
+      <c r="B439" t="s">
+        <v>7</v>
+      </c>
+      <c r="C439" t="s">
+        <v>40</v>
+      </c>
+      <c r="D439" t="s">
+        <v>16</v>
+      </c>
+      <c r="E439" t="s">
+        <v>10</v>
+      </c>
+      <c r="F439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>1</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>41</v>
+      </c>
+      <c r="D440" t="s">
+        <v>20</v>
+      </c>
+      <c r="E440" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>1</v>
+      </c>
+      <c r="B441" t="s">
+        <v>7</v>
+      </c>
+      <c r="C441" t="s">
+        <v>42</v>
+      </c>
+      <c r="D441" t="s">
+        <v>43</v>
+      </c>
+      <c r="E441" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>1</v>
+      </c>
+      <c r="B442" t="s">
+        <v>7</v>
+      </c>
+      <c r="C442" t="s">
+        <v>45</v>
+      </c>
+      <c r="D442" t="s">
+        <v>19</v>
+      </c>
+      <c r="E442" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>1</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443" t="s">
+        <v>46</v>
+      </c>
+      <c r="D443" t="s">
+        <v>49</v>
+      </c>
+      <c r="E443" t="s">
+        <v>10</v>
+      </c>
+      <c r="F443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>1</v>
+      </c>
+      <c r="B444" t="s">
+        <v>7</v>
+      </c>
+      <c r="C444" t="s">
+        <v>50</v>
+      </c>
+      <c r="D444" t="s">
+        <v>20</v>
+      </c>
+      <c r="E444" t="s">
+        <v>11</v>
+      </c>
+      <c r="F444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>1</v>
+      </c>
+      <c r="B445" t="s">
+        <v>7</v>
+      </c>
+      <c r="C445" t="s">
+        <v>51</v>
+      </c>
+      <c r="D445" t="s">
+        <v>52</v>
+      </c>
+      <c r="E445" t="s">
+        <v>11</v>
+      </c>
+      <c r="F445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>1</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>53</v>
+      </c>
+      <c r="D446" t="s">
+        <v>54</v>
+      </c>
+      <c r="E446" t="s">
+        <v>11</v>
+      </c>
+      <c r="F446">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>1</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>55</v>
+      </c>
+      <c r="D447" t="s">
+        <v>19</v>
+      </c>
+      <c r="E447" t="s">
+        <v>11</v>
+      </c>
+      <c r="F447">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>1</v>
+      </c>
+      <c r="B448" t="s">
+        <v>7</v>
+      </c>
+      <c r="C448" t="s">
+        <v>47</v>
+      </c>
+      <c r="D448" t="s">
+        <v>48</v>
+      </c>
+      <c r="E448" t="s">
+        <v>11</v>
+      </c>
+      <c r="F448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>1</v>
+      </c>
+      <c r="B449" t="s">
+        <v>7</v>
+      </c>
+      <c r="C449" t="s">
+        <v>56</v>
+      </c>
+      <c r="D449" t="s">
+        <v>14</v>
+      </c>
+      <c r="E449" t="s">
+        <v>12</v>
+      </c>
+      <c r="F449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>1</v>
+      </c>
+      <c r="B450" t="s">
+        <v>7</v>
+      </c>
+      <c r="C450" t="s">
+        <v>57</v>
+      </c>
+      <c r="D450" t="s">
+        <v>43</v>
+      </c>
+      <c r="E450" t="s">
+        <v>12</v>
+      </c>
+      <c r="F450">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>1</v>
+      </c>
+      <c r="B451" t="s">
+        <v>7</v>
+      </c>
+      <c r="C451" t="s">
+        <v>58</v>
+      </c>
+      <c r="D451" t="s">
+        <v>19</v>
+      </c>
+      <c r="E451" t="s">
+        <v>12</v>
+      </c>
+      <c r="F451">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A152:F421">
-    <sortCondition descending="1" ref="A152:A421"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A182:F451">
+    <sortCondition descending="1" ref="A182:A451"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9137,10 +9740,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9191,7 +9794,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -9203,7 +9806,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -9215,7 +9818,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -9227,7 +9830,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -9239,7 +9842,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -9251,7 +9854,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -9263,7 +9866,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -9275,7 +9878,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -9287,7 +9890,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -9299,7 +9902,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -9311,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -9323,7 +9926,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -9335,7 +9938,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -9347,7 +9950,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -9359,7 +9962,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -9371,7 +9974,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -9383,7 +9986,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -9395,7 +9998,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -9407,7 +10010,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -9419,7 +10022,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -9431,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -9443,7 +10046,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -9455,7 +10058,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"Bazzers Ballers",'Weekly Points'!$A$62:$A$421,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -9467,7 +10070,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$421,'Weekly Points'!$B$62:$B$421,"WHU-Tang-Clan",'Weekly Points'!$A$62:$A$421,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -9479,7 +10082,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$421,'Weekly Points'!$B$32:$B$421,A28,'Weekly Points'!$A$32:$A$421,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$451,'Weekly Points'!$B$62:$B$451,A28,'Weekly Points'!$A$62:$A$451,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -9491,7 +10094,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$421,'Weekly Points'!$B$32:$B$421,A29,'Weekly Points'!$A$32:$A$421,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$451,'Weekly Points'!$B$62:$B$451,A29,'Weekly Points'!$A$62:$A$451,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -9503,7 +10106,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$421,'Weekly Points'!$B$2:$B$421,A30,'Weekly Points'!$A$2:$A$421,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$451,'Weekly Points'!$B$32:$B$451,A30,'Weekly Points'!$A$32:$A$451,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -9515,8 +10118,32 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$421,'Weekly Points'!$B$2:$B$421,A31,'Weekly Points'!$A$2:$A$421,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$451,'Weekly Points'!$B$32:$B$451,A31,'Weekly Points'!$A$32:$A$451,B31)+C29</f>
         <v>680</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$451,'Weekly Points'!$B$2:$B$451,A32,'Weekly Points'!$A$2:$A$451,B32)+C30</f>
+        <v>818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>15</v>
+      </c>
+      <c r="C33">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$451,'Weekly Points'!$B$2:$B$451,A33,'Weekly Points'!$A$2:$A$451,B33)+C31</f>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0819E9-A9CE-4552-B953-6B080EEBD61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7748547-FFAA-4A00-9D77-E4C98C613FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="98">
   <si>
     <t>Gameweek</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>Wan-Bissaka</t>
+  </si>
+  <si>
+    <t>Devenny</t>
+  </si>
+  <si>
+    <t>Kerkez</t>
   </si>
 </sst>
 </file>
@@ -696,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F451"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,7 +738,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -747,12 +753,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -772,7 +778,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -787,12 +793,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -807,12 +813,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -827,12 +833,12 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -852,7 +858,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -872,7 +878,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -887,52 +893,53 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <f>-4+1</f>
+        <v>-3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -947,12 +954,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -967,12 +974,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -987,12 +994,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1007,12 +1014,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1027,12 +1034,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1047,12 +1054,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1072,7 +1079,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1087,32 +1094,32 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1127,12 +1134,12 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1147,12 +1154,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1167,12 +1174,12 @@
         <v>10</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1187,12 +1194,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1207,12 +1214,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1227,12 +1234,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1252,7 +1259,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1267,12 +1274,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1287,12 +1294,12 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1312,7 +1319,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1327,12 +1334,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1347,12 +1354,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1372,7 +1379,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1392,7 +1399,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1407,12 +1414,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1432,7 +1439,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1452,7 +1459,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1461,7 +1468,7 @@
         <v>87</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
@@ -1472,7 +1479,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1487,12 +1494,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1507,32 +1514,32 @@
         <v>11</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1547,12 +1554,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1567,12 +1574,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1587,12 +1594,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1607,12 +1614,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1627,12 +1634,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1647,12 +1654,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1667,12 +1674,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1692,7 +1699,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1712,27 +1719,27 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1747,12 +1754,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1772,27 +1779,27 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1807,12 +1814,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1827,12 +1834,12 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1847,12 +1854,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1867,12 +1874,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1887,12 +1894,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1907,12 +1914,12 @@
         <v>12</v>
       </c>
       <c r="F60">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1927,12 +1934,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1947,12 +1954,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1972,7 +1979,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1987,12 +1994,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2007,32 +2014,32 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
         <v>13</v>
       </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" t="s">
-        <v>54</v>
-      </c>
       <c r="E66" t="s">
         <v>10</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2047,12 +2054,12 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2072,7 +2079,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2092,7 +2099,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2112,7 +2119,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2127,12 +2134,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2147,12 +2154,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2167,12 +2174,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2187,12 +2194,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2207,12 +2214,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2227,12 +2234,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2252,7 +2259,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2267,12 +2274,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2287,12 +2294,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2312,7 +2319,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2332,7 +2339,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2347,12 +2354,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2372,7 +2379,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2392,7 +2399,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2407,12 +2414,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2427,12 +2434,12 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2447,12 +2454,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2467,12 +2474,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2487,12 +2494,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2507,12 +2514,12 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2527,12 +2534,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2547,12 +2554,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2572,33 +2579,33 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E94" t="s">
         <v>10</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s">
         <v>35</v>
@@ -2607,12 +2614,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2632,33 +2639,33 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E97" t="s">
         <v>10</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D98" t="s">
         <v>18</v>
@@ -2672,7 +2679,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2687,21 +2694,21 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -2712,27 +2719,27 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2747,92 +2754,92 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D103" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D105" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2847,12 +2854,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2867,12 +2874,12 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2887,12 +2894,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2912,7 +2919,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2932,7 +2939,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2947,12 +2954,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2967,12 +2974,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2987,12 +2994,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3007,32 +3014,32 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116">
         <v>13</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3047,12 +3054,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3072,7 +3079,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3092,16 +3099,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
         <v>12</v>
@@ -3112,7 +3119,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3127,12 +3134,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3147,12 +3154,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3172,7 +3179,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3192,7 +3199,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3207,12 +3214,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3227,12 +3234,12 @@
         <v>10</v>
       </c>
       <c r="F126">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3247,12 +3254,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3272,7 +3279,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3287,41 +3294,41 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D130" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D131" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -3332,7 +3339,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3352,7 +3359,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3367,12 +3374,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3387,12 +3394,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3407,12 +3414,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3427,12 +3434,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3447,12 +3454,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3467,12 +3474,12 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3487,12 +3494,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3507,12 +3514,12 @@
         <v>10</v>
       </c>
       <c r="F140">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3532,7 +3539,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3547,12 +3554,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3567,12 +3574,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3587,12 +3594,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3612,7 +3619,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3632,7 +3639,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3647,12 +3654,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3672,7 +3679,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3692,7 +3699,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3707,12 +3714,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3727,12 +3734,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3747,12 +3754,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3772,7 +3779,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3792,7 +3799,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3807,12 +3814,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3827,12 +3834,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3852,7 +3859,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3872,7 +3879,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3887,12 +3894,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3907,12 +3914,12 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3927,12 +3934,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3947,12 +3954,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3967,12 +3974,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3987,12 +3994,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4007,12 +4014,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4027,12 +4034,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4052,7 +4059,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4067,12 +4074,12 @@
         <v>9</v>
       </c>
       <c r="F168">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4092,7 +4099,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4107,12 +4114,12 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4132,7 +4139,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4147,12 +4154,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4167,12 +4174,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4187,12 +4194,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4207,12 +4214,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4232,7 +4239,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4252,7 +4259,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4272,7 +4279,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4287,12 +4294,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4307,32 +4314,32 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D181" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E181" t="s">
         <v>12</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4347,12 +4354,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4372,7 +4379,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4387,12 +4394,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4407,12 +4414,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4432,7 +4439,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4447,12 +4454,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4472,27 +4479,27 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
       </c>
       <c r="C189" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D189" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
       <c r="F189">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4512,7 +4519,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4527,12 +4534,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4547,12 +4554,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4572,7 +4579,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4587,32 +4594,32 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D195" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4627,12 +4634,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4652,27 +4659,27 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D198" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4687,12 +4694,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4712,7 +4719,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4727,12 +4734,12 @@
         <v>10</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4752,7 +4759,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4767,12 +4774,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4787,12 +4794,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4807,12 +4814,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4832,7 +4839,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4847,12 +4854,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4872,7 +4879,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4887,12 +4894,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4907,12 +4914,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4927,12 +4934,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4947,12 +4954,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4972,7 +4979,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4992,7 +4999,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5012,27 +5019,27 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
       </c>
       <c r="C216" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D216" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E216" t="s">
         <v>10</v>
       </c>
       <c r="F216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5052,7 +5059,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5072,7 +5079,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5087,12 +5094,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5107,12 +5114,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5127,12 +5134,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5147,12 +5154,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5167,12 +5174,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5187,12 +5194,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5212,7 +5219,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5227,12 +5234,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5247,12 +5254,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5272,7 +5279,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5292,7 +5299,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5312,7 +5319,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5332,7 +5339,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5352,7 +5359,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5367,12 +5374,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5387,12 +5394,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5407,12 +5414,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5432,27 +5439,27 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
       <c r="C237" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D237" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E237" t="s">
         <v>11</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5467,12 +5474,12 @@
         <v>11</v>
       </c>
       <c r="F238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5487,12 +5494,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5507,12 +5514,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5532,7 +5539,7 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5547,12 +5554,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5572,7 +5579,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5592,7 +5599,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5607,12 +5614,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5632,7 +5639,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5647,12 +5654,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5672,7 +5679,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5692,27 +5699,27 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D250" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5727,12 +5734,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5747,12 +5754,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5767,12 +5774,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5792,7 +5799,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5812,7 +5819,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5827,12 +5834,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5847,12 +5854,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5872,7 +5879,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5887,21 +5894,21 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
       </c>
       <c r="C260" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D260" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E260" t="s">
         <v>10</v>
@@ -5912,7 +5919,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5927,12 +5934,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5952,7 +5959,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5967,12 +5974,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5987,12 +5994,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6007,12 +6014,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6032,7 +6039,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6052,7 +6059,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6067,12 +6074,12 @@
         <v>11</v>
       </c>
       <c r="F268">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6092,7 +6099,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6112,7 +6119,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6127,12 +6134,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6147,12 +6154,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6172,7 +6179,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6187,12 +6194,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6207,12 +6214,12 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6232,7 +6239,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6247,12 +6254,12 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6272,7 +6279,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6287,12 +6294,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6312,7 +6319,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6327,12 +6334,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6347,12 +6354,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6367,12 +6374,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6392,7 +6399,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6412,16 +6419,16 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
       </c>
       <c r="C286" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D286" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E286" t="s">
         <v>12</v>
@@ -6432,7 +6439,7 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6452,7 +6459,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6472,13 +6479,13 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
       </c>
       <c r="C289" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D289" t="s">
         <v>16</v>
@@ -6487,12 +6494,12 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6507,12 +6514,12 @@
         <v>10</v>
       </c>
       <c r="F290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6527,12 +6534,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6552,7 +6559,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6572,7 +6579,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6587,12 +6594,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6607,12 +6614,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6627,12 +6634,12 @@
         <v>11</v>
       </c>
       <c r="F296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6647,12 +6654,12 @@
         <v>11</v>
       </c>
       <c r="F297">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6667,12 +6674,12 @@
         <v>11</v>
       </c>
       <c r="F298">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6687,12 +6694,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6712,7 +6719,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6727,12 +6734,12 @@
         <v>12</v>
       </c>
       <c r="F301">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6747,12 +6754,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6772,7 +6779,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6787,12 +6794,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6807,12 +6814,12 @@
         <v>10</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6827,12 +6834,12 @@
         <v>10</v>
       </c>
       <c r="F306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6847,12 +6854,12 @@
         <v>10</v>
       </c>
       <c r="F307">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6872,7 +6879,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6887,12 +6894,12 @@
         <v>11</v>
       </c>
       <c r="F309">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6907,12 +6914,12 @@
         <v>11</v>
       </c>
       <c r="F310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6932,27 +6939,27 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
       </c>
       <c r="C312" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D312" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E312" t="s">
         <v>11</v>
       </c>
       <c r="F312">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6972,7 +6979,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6987,12 +6994,12 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7007,12 +7014,12 @@
         <v>12</v>
       </c>
       <c r="F315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7027,12 +7034,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7047,12 +7054,12 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7072,7 +7079,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7087,12 +7094,12 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7107,12 +7114,12 @@
         <v>10</v>
       </c>
       <c r="F320">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7127,12 +7134,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7152,7 +7159,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7167,12 +7174,12 @@
         <v>10</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7192,7 +7199,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7207,12 +7214,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7227,12 +7234,12 @@
         <v>11</v>
       </c>
       <c r="F326">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7247,12 +7254,12 @@
         <v>11</v>
       </c>
       <c r="F327">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7267,18 +7274,18 @@
         <v>11</v>
       </c>
       <c r="F328">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
       </c>
       <c r="C329" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D329" t="s">
         <v>17</v>
@@ -7287,12 +7294,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7307,12 +7314,12 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7327,12 +7334,12 @@
         <v>12</v>
       </c>
       <c r="F331">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7347,12 +7354,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7372,7 +7379,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7392,7 +7399,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7412,7 +7419,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7427,12 +7434,12 @@
         <v>10</v>
       </c>
       <c r="F336">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7452,7 +7459,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7472,27 +7479,27 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
       </c>
       <c r="C339" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D339" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E339" t="s">
         <v>11</v>
       </c>
       <c r="F339">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7507,12 +7514,12 @@
         <v>11</v>
       </c>
       <c r="F340">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7527,12 +7534,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7547,12 +7554,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7567,12 +7574,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7587,12 +7594,12 @@
         <v>12</v>
       </c>
       <c r="F344">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7607,12 +7614,12 @@
         <v>12</v>
       </c>
       <c r="F345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7627,41 +7634,41 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
       </c>
       <c r="C347" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D347" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E347" t="s">
         <v>9</v>
       </c>
       <c r="F347">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
       </c>
       <c r="C348" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D348" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E348" t="s">
         <v>9</v>
@@ -7672,13 +7679,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D349" t="s">
         <v>16</v>
@@ -7687,81 +7694,81 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D350" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E350" t="s">
         <v>10</v>
       </c>
       <c r="F350">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
       </c>
       <c r="C351" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D351" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E351" t="s">
         <v>10</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D352" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E352" t="s">
         <v>10</v>
       </c>
       <c r="F352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
       </c>
       <c r="C353" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D353" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E353" t="s">
         <v>10</v>
@@ -7772,27 +7779,27 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
       </c>
       <c r="C354" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D354" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E354" t="s">
         <v>11</v>
       </c>
       <c r="F354">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7807,81 +7814,81 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
       </c>
       <c r="C356" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D356" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E356" t="s">
         <v>11</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
       </c>
       <c r="C357" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D357" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E357" t="s">
         <v>11</v>
       </c>
       <c r="F357">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
       </c>
       <c r="C358" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D358" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E358" t="s">
         <v>11</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
       </c>
       <c r="C359" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D359" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E359" t="s">
         <v>12</v>
@@ -7892,27 +7899,27 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
       </c>
       <c r="C360" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D360" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E360" t="s">
         <v>12</v>
       </c>
       <c r="F360">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7932,7 +7939,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7947,12 +7954,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7972,7 +7979,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -7987,12 +7994,12 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8012,7 +8019,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8027,12 +8034,12 @@
         <v>10</v>
       </c>
       <c r="F366">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8047,12 +8054,12 @@
         <v>10</v>
       </c>
       <c r="F367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8072,7 +8079,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8087,12 +8094,12 @@
         <v>11</v>
       </c>
       <c r="F369">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8107,12 +8114,12 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8132,7 +8139,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8147,32 +8154,32 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
       </c>
       <c r="C373" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D373" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E373" t="s">
         <v>11</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8187,12 +8194,12 @@
         <v>12</v>
       </c>
       <c r="F374">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8207,12 +8214,12 @@
         <v>12</v>
       </c>
       <c r="F375">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8227,12 +8234,12 @@
         <v>12</v>
       </c>
       <c r="F376">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8247,12 +8254,12 @@
         <v>9</v>
       </c>
       <c r="F377">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8272,7 +8279,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -8287,12 +8294,12 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -8307,12 +8314,12 @@
         <v>10</v>
       </c>
       <c r="F380">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8327,12 +8334,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8347,12 +8354,12 @@
         <v>10</v>
       </c>
       <c r="F382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8372,7 +8379,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -8387,12 +8394,12 @@
         <v>11</v>
       </c>
       <c r="F384">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8407,12 +8414,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8427,12 +8434,12 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8452,7 +8459,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8472,7 +8479,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -8487,12 +8494,12 @@
         <v>12</v>
       </c>
       <c r="F389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8507,32 +8514,32 @@
         <v>12</v>
       </c>
       <c r="F390">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
       </c>
       <c r="C391" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D391" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E391" t="s">
         <v>12</v>
       </c>
       <c r="F391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8552,7 +8559,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8572,7 +8579,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8587,12 +8594,12 @@
         <v>10</v>
       </c>
       <c r="F394">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8601,7 +8608,7 @@
         <v>23</v>
       </c>
       <c r="D395" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E395" t="s">
         <v>10</v>
@@ -8612,7 +8619,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8627,32 +8634,32 @@
         <v>10</v>
       </c>
       <c r="F396">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
       </c>
       <c r="C397" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D397" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E397" t="s">
         <v>10</v>
       </c>
       <c r="F397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8667,12 +8674,12 @@
         <v>10</v>
       </c>
       <c r="F398">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -8692,16 +8699,16 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D400" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E400" t="s">
         <v>11</v>
@@ -8712,7 +8719,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8727,12 +8734,12 @@
         <v>11</v>
       </c>
       <c r="F401">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -8747,12 +8754,12 @@
         <v>11</v>
       </c>
       <c r="F402">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -8767,12 +8774,12 @@
         <v>11</v>
       </c>
       <c r="F403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8792,7 +8799,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8807,12 +8814,12 @@
         <v>12</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -8832,7 +8839,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -8852,7 +8859,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -8872,7 +8879,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -8887,12 +8894,12 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -8912,7 +8919,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -8927,12 +8934,12 @@
         <v>10</v>
       </c>
       <c r="F411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -8947,12 +8954,12 @@
         <v>10</v>
       </c>
       <c r="F412">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -8972,13 +8979,13 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D414" t="s">
         <v>20</v>
@@ -8987,12 +8994,12 @@
         <v>11</v>
       </c>
       <c r="F414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9007,12 +9014,12 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -9027,12 +9034,12 @@
         <v>11</v>
       </c>
       <c r="F416">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -9047,12 +9054,12 @@
         <v>11</v>
       </c>
       <c r="F417">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -9072,7 +9079,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -9087,12 +9094,12 @@
         <v>12</v>
       </c>
       <c r="F419">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -9107,12 +9114,12 @@
         <v>12</v>
       </c>
       <c r="F420">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -9127,12 +9134,12 @@
         <v>12</v>
       </c>
       <c r="F421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
@@ -9147,12 +9154,12 @@
         <v>9</v>
       </c>
       <c r="F422">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
@@ -9172,7 +9179,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
@@ -9187,12 +9194,12 @@
         <v>10</v>
       </c>
       <c r="F424">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -9212,7 +9219,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -9232,7 +9239,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
@@ -9252,7 +9259,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
@@ -9267,12 +9274,12 @@
         <v>10</v>
       </c>
       <c r="F428">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
@@ -9287,12 +9294,12 @@
         <v>11</v>
       </c>
       <c r="F429">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
@@ -9307,12 +9314,12 @@
         <v>11</v>
       </c>
       <c r="F430">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
@@ -9327,12 +9334,12 @@
         <v>11</v>
       </c>
       <c r="F431">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
@@ -9347,12 +9354,12 @@
         <v>11</v>
       </c>
       <c r="F432">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
@@ -9367,12 +9374,12 @@
         <v>11</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9387,12 +9394,12 @@
         <v>12</v>
       </c>
       <c r="F434">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9407,12 +9414,12 @@
         <v>12</v>
       </c>
       <c r="F435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9427,12 +9434,12 @@
         <v>12</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -9447,12 +9454,12 @@
         <v>9</v>
       </c>
       <c r="F437">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -9472,7 +9479,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -9492,7 +9499,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -9507,12 +9514,12 @@
         <v>10</v>
       </c>
       <c r="F440">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -9527,12 +9534,12 @@
         <v>10</v>
       </c>
       <c r="F441">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -9547,12 +9554,12 @@
         <v>10</v>
       </c>
       <c r="F442">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -9572,7 +9579,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
@@ -9587,12 +9594,12 @@
         <v>11</v>
       </c>
       <c r="F444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -9607,12 +9614,12 @@
         <v>11</v>
       </c>
       <c r="F445">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -9627,12 +9634,12 @@
         <v>11</v>
       </c>
       <c r="F446">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -9647,12 +9654,12 @@
         <v>11</v>
       </c>
       <c r="F447">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -9672,16 +9679,16 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D449" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E449" t="s">
         <v>12</v>
@@ -9692,7 +9699,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -9707,12 +9714,12 @@
         <v>12</v>
       </c>
       <c r="F450">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -9730,9 +9737,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>1</v>
+      </c>
+      <c r="B452" t="s">
+        <v>6</v>
+      </c>
+      <c r="C452" t="s">
+        <v>8</v>
+      </c>
+      <c r="D452" t="s">
+        <v>13</v>
+      </c>
+      <c r="E452" t="s">
+        <v>9</v>
+      </c>
+      <c r="F452">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>1</v>
+      </c>
+      <c r="B453" t="s">
+        <v>6</v>
+      </c>
+      <c r="C453" t="s">
+        <v>21</v>
+      </c>
+      <c r="D453" t="s">
+        <v>19</v>
+      </c>
+      <c r="E453" t="s">
+        <v>9</v>
+      </c>
+      <c r="F453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>1</v>
+      </c>
+      <c r="B454" t="s">
+        <v>6</v>
+      </c>
+      <c r="C454" t="s">
+        <v>22</v>
+      </c>
+      <c r="D454" t="s">
+        <v>14</v>
+      </c>
+      <c r="E454" t="s">
+        <v>10</v>
+      </c>
+      <c r="F454">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>1</v>
+      </c>
+      <c r="B455" t="s">
+        <v>6</v>
+      </c>
+      <c r="C455" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455" t="s">
+        <v>10</v>
+      </c>
+      <c r="F455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>1</v>
+      </c>
+      <c r="B456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s">
+        <v>24</v>
+      </c>
+      <c r="D456" t="s">
+        <v>16</v>
+      </c>
+      <c r="E456" t="s">
+        <v>10</v>
+      </c>
+      <c r="F456">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>1</v>
+      </c>
+      <c r="B457" t="s">
+        <v>6</v>
+      </c>
+      <c r="C457" t="s">
+        <v>26</v>
+      </c>
+      <c r="D457" t="s">
+        <v>17</v>
+      </c>
+      <c r="E457" t="s">
+        <v>10</v>
+      </c>
+      <c r="F457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>1</v>
+      </c>
+      <c r="B458" t="s">
+        <v>6</v>
+      </c>
+      <c r="C458" t="s">
+        <v>27</v>
+      </c>
+      <c r="D458" t="s">
+        <v>18</v>
+      </c>
+      <c r="E458" t="s">
+        <v>10</v>
+      </c>
+      <c r="F458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>1</v>
+      </c>
+      <c r="B459" t="s">
+        <v>6</v>
+      </c>
+      <c r="C459" t="s">
+        <v>25</v>
+      </c>
+      <c r="D459" t="s">
+        <v>13</v>
+      </c>
+      <c r="E459" t="s">
+        <v>11</v>
+      </c>
+      <c r="F459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>1</v>
+      </c>
+      <c r="B460" t="s">
+        <v>6</v>
+      </c>
+      <c r="C460" t="s">
+        <v>28</v>
+      </c>
+      <c r="D460" t="s">
+        <v>13</v>
+      </c>
+      <c r="E460" t="s">
+        <v>11</v>
+      </c>
+      <c r="F460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>1</v>
+      </c>
+      <c r="B461" t="s">
+        <v>6</v>
+      </c>
+      <c r="C461" t="s">
+        <v>29</v>
+      </c>
+      <c r="D461" t="s">
+        <v>19</v>
+      </c>
+      <c r="E461" t="s">
+        <v>11</v>
+      </c>
+      <c r="F461">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>1</v>
+      </c>
+      <c r="B462" t="s">
+        <v>6</v>
+      </c>
+      <c r="C462" t="s">
+        <v>30</v>
+      </c>
+      <c r="D462" t="s">
+        <v>14</v>
+      </c>
+      <c r="E462" t="s">
+        <v>11</v>
+      </c>
+      <c r="F462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>1</v>
+      </c>
+      <c r="B463" t="s">
+        <v>6</v>
+      </c>
+      <c r="C463" t="s">
+        <v>31</v>
+      </c>
+      <c r="D463" t="s">
+        <v>16</v>
+      </c>
+      <c r="E463" t="s">
+        <v>11</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>1</v>
+      </c>
+      <c r="B464" t="s">
+        <v>6</v>
+      </c>
+      <c r="C464" t="s">
+        <v>32</v>
+      </c>
+      <c r="D464" t="s">
+        <v>20</v>
+      </c>
+      <c r="E464" t="s">
+        <v>12</v>
+      </c>
+      <c r="F464">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>1</v>
+      </c>
+      <c r="B465" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" t="s">
+        <v>33</v>
+      </c>
+      <c r="D465" t="s">
+        <v>17</v>
+      </c>
+      <c r="E465" t="s">
+        <v>12</v>
+      </c>
+      <c r="F465">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>1</v>
+      </c>
+      <c r="B466" t="s">
+        <v>6</v>
+      </c>
+      <c r="C466" t="s">
+        <v>34</v>
+      </c>
+      <c r="D466" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466" t="s">
+        <v>12</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>1</v>
+      </c>
+      <c r="B467" t="s">
+        <v>7</v>
+      </c>
+      <c r="C467" t="s">
+        <v>38</v>
+      </c>
+      <c r="D467" t="s">
+        <v>39</v>
+      </c>
+      <c r="E467" t="s">
+        <v>9</v>
+      </c>
+      <c r="F467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>1</v>
+      </c>
+      <c r="B468" t="s">
+        <v>7</v>
+      </c>
+      <c r="C468" t="s">
+        <v>62</v>
+      </c>
+      <c r="D468" t="s">
+        <v>44</v>
+      </c>
+      <c r="E468" t="s">
+        <v>9</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>1</v>
+      </c>
+      <c r="B469" t="s">
+        <v>7</v>
+      </c>
+      <c r="C469" t="s">
+        <v>40</v>
+      </c>
+      <c r="D469" t="s">
+        <v>16</v>
+      </c>
+      <c r="E469" t="s">
+        <v>10</v>
+      </c>
+      <c r="F469">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>1</v>
+      </c>
+      <c r="B470" t="s">
+        <v>7</v>
+      </c>
+      <c r="C470" t="s">
+        <v>41</v>
+      </c>
+      <c r="D470" t="s">
+        <v>20</v>
+      </c>
+      <c r="E470" t="s">
+        <v>10</v>
+      </c>
+      <c r="F470">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>1</v>
+      </c>
+      <c r="B471" t="s">
+        <v>7</v>
+      </c>
+      <c r="C471" t="s">
+        <v>42</v>
+      </c>
+      <c r="D471" t="s">
+        <v>43</v>
+      </c>
+      <c r="E471" t="s">
+        <v>10</v>
+      </c>
+      <c r="F471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>1</v>
+      </c>
+      <c r="B472" t="s">
+        <v>7</v>
+      </c>
+      <c r="C472" t="s">
+        <v>45</v>
+      </c>
+      <c r="D472" t="s">
+        <v>19</v>
+      </c>
+      <c r="E472" t="s">
+        <v>10</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>1</v>
+      </c>
+      <c r="B473" t="s">
+        <v>7</v>
+      </c>
+      <c r="C473" t="s">
+        <v>46</v>
+      </c>
+      <c r="D473" t="s">
+        <v>49</v>
+      </c>
+      <c r="E473" t="s">
+        <v>10</v>
+      </c>
+      <c r="F473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>1</v>
+      </c>
+      <c r="B474" t="s">
+        <v>7</v>
+      </c>
+      <c r="C474" t="s">
+        <v>50</v>
+      </c>
+      <c r="D474" t="s">
+        <v>20</v>
+      </c>
+      <c r="E474" t="s">
+        <v>11</v>
+      </c>
+      <c r="F474">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>1</v>
+      </c>
+      <c r="B475" t="s">
+        <v>7</v>
+      </c>
+      <c r="C475" t="s">
+        <v>51</v>
+      </c>
+      <c r="D475" t="s">
+        <v>52</v>
+      </c>
+      <c r="E475" t="s">
+        <v>11</v>
+      </c>
+      <c r="F475">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>1</v>
+      </c>
+      <c r="B476" t="s">
+        <v>7</v>
+      </c>
+      <c r="C476" t="s">
+        <v>53</v>
+      </c>
+      <c r="D476" t="s">
+        <v>54</v>
+      </c>
+      <c r="E476" t="s">
+        <v>11</v>
+      </c>
+      <c r="F476">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>1</v>
+      </c>
+      <c r="B477" t="s">
+        <v>7</v>
+      </c>
+      <c r="C477" t="s">
+        <v>55</v>
+      </c>
+      <c r="D477" t="s">
+        <v>19</v>
+      </c>
+      <c r="E477" t="s">
+        <v>11</v>
+      </c>
+      <c r="F477">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>1</v>
+      </c>
+      <c r="B478" t="s">
+        <v>7</v>
+      </c>
+      <c r="C478" t="s">
+        <v>47</v>
+      </c>
+      <c r="D478" t="s">
+        <v>48</v>
+      </c>
+      <c r="E478" t="s">
+        <v>11</v>
+      </c>
+      <c r="F478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>1</v>
+      </c>
+      <c r="B479" t="s">
+        <v>7</v>
+      </c>
+      <c r="C479" t="s">
+        <v>56</v>
+      </c>
+      <c r="D479" t="s">
+        <v>14</v>
+      </c>
+      <c r="E479" t="s">
+        <v>12</v>
+      </c>
+      <c r="F479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>1</v>
+      </c>
+      <c r="B480" t="s">
+        <v>7</v>
+      </c>
+      <c r="C480" t="s">
+        <v>57</v>
+      </c>
+      <c r="D480" t="s">
+        <v>43</v>
+      </c>
+      <c r="E480" t="s">
+        <v>12</v>
+      </c>
+      <c r="F480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>1</v>
+      </c>
+      <c r="B481" t="s">
+        <v>7</v>
+      </c>
+      <c r="C481" t="s">
+        <v>58</v>
+      </c>
+      <c r="D481" t="s">
+        <v>19</v>
+      </c>
+      <c r="E481" t="s">
+        <v>12</v>
+      </c>
+      <c r="F481">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A182:F451">
-    <sortCondition descending="1" ref="A182:A451"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A212:F481">
+    <sortCondition descending="1" ref="A212:A481"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9740,10 +10347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9794,7 +10401,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -9806,7 +10413,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -9818,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -9830,7 +10437,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -9842,7 +10449,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -9854,7 +10461,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -9866,7 +10473,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -9878,7 +10485,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -9890,7 +10497,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -9902,7 +10509,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -9914,7 +10521,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -9926,7 +10533,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -9938,7 +10545,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -9950,7 +10557,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -9962,7 +10569,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -9974,7 +10581,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -9986,7 +10593,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -9998,7 +10605,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -10010,7 +10617,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -10022,7 +10629,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -10034,7 +10641,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -10046,7 +10653,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -10058,7 +10665,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"Bazzers Ballers",'Weekly Points'!$A$92:$A$451,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -10070,7 +10677,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$451,'Weekly Points'!$B$92:$B$451,"WHU-Tang-Clan",'Weekly Points'!$A$92:$A$451,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -10082,7 +10689,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$451,'Weekly Points'!$B$62:$B$451,A28,'Weekly Points'!$A$62:$A$451,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$481,'Weekly Points'!$B$92:$B$481,A28,'Weekly Points'!$A$92:$A$481,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -10094,7 +10701,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$451,'Weekly Points'!$B$62:$B$451,A29,'Weekly Points'!$A$62:$A$451,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$481,'Weekly Points'!$B$92:$B$481,A29,'Weekly Points'!$A$92:$A$481,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -10106,7 +10713,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$451,'Weekly Points'!$B$32:$B$451,A30,'Weekly Points'!$A$32:$A$451,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$481,'Weekly Points'!$B$62:$B$481,A30,'Weekly Points'!$A$62:$A$481,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -10118,7 +10725,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$451,'Weekly Points'!$B$32:$B$451,A31,'Weekly Points'!$A$32:$A$451,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$481,'Weekly Points'!$B$62:$B$481,A31,'Weekly Points'!$A$62:$A$481,B31)+C29</f>
         <v>680</v>
       </c>
     </row>
@@ -10130,7 +10737,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$451,'Weekly Points'!$B$2:$B$451,A32,'Weekly Points'!$A$2:$A$451,B32)+C30</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$481,'Weekly Points'!$B$32:$B$481,A32,'Weekly Points'!$A$32:$A$481,B32)+C30</f>
         <v>818</v>
       </c>
     </row>
@@ -10142,8 +10749,32 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$451,'Weekly Points'!$B$2:$B$451,A33,'Weekly Points'!$A$2:$A$451,B33)+C31</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$481,'Weekly Points'!$B$32:$B$481,A33,'Weekly Points'!$A$32:$A$481,B33)+C31</f>
         <v>723</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$481,'Weekly Points'!$B$2:$B$481,A34,'Weekly Points'!$A$2:$A$481,B34)+C32</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$481,'Weekly Points'!$B$2:$B$481,A35,'Weekly Points'!$A$2:$A$481,B35)+C33</f>
+        <v>763</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7748547-FFAA-4A00-9D77-E4C98C613FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735A173-0593-47BA-A66D-D793E21A54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1963" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="98">
   <si>
     <t>Gameweek</t>
   </si>
@@ -702,13 +702,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F481"/>
+  <dimension ref="A1:F511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F2:F16"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +738,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -753,12 +753,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -793,12 +793,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -833,12 +833,12 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -873,12 +873,12 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -893,12 +893,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -913,633 +913,633 @@
         <v>11</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>16</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40">
         <f>-4+1</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>15</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>15</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>15</v>
-      </c>
-      <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>86</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>15</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>15</v>
-      </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>15</v>
-      </c>
-      <c r="B38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" t="s">
-        <v>81</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>15</v>
-      </c>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1554,12 +1554,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1574,12 +1574,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1594,12 +1594,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1614,12 +1614,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1634,12 +1634,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1654,12 +1654,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1694,32 +1694,32 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1734,12 +1734,12 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1754,12 +1754,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1774,12 +1774,12 @@
         <v>10</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1794,12 +1794,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1814,12 +1814,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1834,12 +1834,12 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1859,7 +1859,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1874,12 +1874,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1894,12 +1894,12 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1934,12 +1934,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1954,12 +1954,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2014,12 +2014,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2068,7 +2068,7 @@
         <v>87</v>
       </c>
       <c r="D68" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
         <v>10</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2094,12 +2094,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2114,32 +2114,32 @@
         <v>11</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D71" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2154,12 +2154,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2174,12 +2174,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2194,12 +2194,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2214,12 +2214,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2234,12 +2234,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2254,12 +2254,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2274,12 +2274,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2299,7 +2299,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2319,27 +2319,27 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
         <v>10</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2354,12 +2354,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2379,27 +2379,27 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2414,12 +2414,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2434,12 +2434,12 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2454,12 +2454,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2474,12 +2474,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2494,12 +2494,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2514,12 +2514,12 @@
         <v>12</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2534,12 +2534,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2554,12 +2554,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2594,12 +2594,12 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2614,32 +2614,32 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
         <v>13</v>
       </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" t="s">
-        <v>54</v>
-      </c>
       <c r="E96" t="s">
         <v>10</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2654,12 +2654,12 @@
         <v>10</v>
       </c>
       <c r="F97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -2734,12 +2734,12 @@
         <v>11</v>
       </c>
       <c r="F101">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2754,12 +2754,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2774,12 +2774,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2794,12 +2794,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2814,12 +2814,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2834,12 +2834,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2859,7 +2859,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2874,12 +2874,12 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2894,12 +2894,12 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2954,12 +2954,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3014,12 +3014,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3034,12 +3034,12 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3054,12 +3054,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3074,12 +3074,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3094,12 +3094,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3114,12 +3114,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3134,12 +3134,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3154,12 +3154,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3179,33 +3179,33 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
       </c>
       <c r="C124" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E124" t="s">
         <v>10</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D125" t="s">
         <v>35</v>
@@ -3214,12 +3214,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3239,33 +3239,33 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
       </c>
       <c r="C127" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E127" t="s">
         <v>10</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D128" t="s">
         <v>18</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3294,21 +3294,21 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
       </c>
       <c r="C130" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -3319,27 +3319,27 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D131" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3354,92 +3354,92 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D133" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E134" t="s">
         <v>12</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
       </c>
       <c r="C135" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D135" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E135" t="s">
         <v>12</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D136" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E136" t="s">
         <v>12</v>
       </c>
       <c r="F136">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3454,12 +3454,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3474,12 +3474,12 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3494,12 +3494,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3539,7 +3539,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3554,12 +3554,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3574,12 +3574,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3594,12 +3594,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3614,32 +3614,32 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D146" t="s">
+        <v>54</v>
+      </c>
+      <c r="E146" t="s">
+        <v>11</v>
+      </c>
+      <c r="F146">
         <v>13</v>
-      </c>
-      <c r="E146" t="s">
-        <v>11</v>
-      </c>
-      <c r="F146">
-        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3654,12 +3654,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3699,16 +3699,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D150" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E150" t="s">
         <v>12</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3734,12 +3734,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3754,12 +3754,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3814,12 +3814,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3834,12 +3834,12 @@
         <v>10</v>
       </c>
       <c r="F156">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3854,12 +3854,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3894,41 +3894,41 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D160" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -3939,7 +3939,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3974,12 +3974,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -3994,12 +3994,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4014,12 +4014,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4034,12 +4034,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4054,12 +4054,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4074,12 +4074,12 @@
         <v>9</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4094,12 +4094,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4114,12 +4114,12 @@
         <v>10</v>
       </c>
       <c r="F170">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4139,7 +4139,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4154,12 +4154,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4174,12 +4174,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4194,12 +4194,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4254,12 +4254,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4314,12 +4314,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4334,12 +4334,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4354,12 +4354,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4414,12 +4414,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4434,12 +4434,12 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4494,12 +4494,12 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4514,12 +4514,12 @@
         <v>11</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4534,12 +4534,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4554,12 +4554,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4574,12 +4574,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4594,12 +4594,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4614,12 +4614,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4634,12 +4634,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4674,12 +4674,12 @@
         <v>9</v>
       </c>
       <c r="F198">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4699,7 +4699,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4714,12 +4714,12 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4754,12 +4754,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4774,12 +4774,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4794,12 +4794,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4814,12 +4814,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4894,12 +4894,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4914,32 +4914,32 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D211" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4954,12 +4954,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4979,7 +4979,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4994,12 +4994,12 @@
         <v>10</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5014,12 +5014,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5054,12 +5054,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5079,27 +5079,27 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D219" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E219" t="s">
         <v>11</v>
       </c>
       <c r="F219">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5134,12 +5134,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5154,12 +5154,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5194,32 +5194,32 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D225" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5234,12 +5234,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5259,27 +5259,27 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D228" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E228" t="s">
         <v>9</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5294,12 +5294,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5319,7 +5319,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5334,12 +5334,12 @@
         <v>10</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5359,7 +5359,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5374,12 +5374,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5394,12 +5394,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5414,12 +5414,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5454,12 +5454,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5479,7 +5479,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5494,12 +5494,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5514,12 +5514,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5534,12 +5534,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5554,12 +5554,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5579,7 +5579,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5619,27 +5619,27 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
       </c>
       <c r="C246" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D246" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E246" t="s">
         <v>10</v>
       </c>
       <c r="F246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5659,7 +5659,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5694,12 +5694,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5714,12 +5714,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5734,12 +5734,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5754,12 +5754,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5774,12 +5774,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5794,12 +5794,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5819,7 +5819,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5834,12 +5834,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5854,12 +5854,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5939,7 +5939,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5959,7 +5959,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5974,12 +5974,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5994,12 +5994,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6014,12 +6014,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6039,27 +6039,27 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D267" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E267" t="s">
         <v>11</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6074,12 +6074,12 @@
         <v>11</v>
       </c>
       <c r="F268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6094,12 +6094,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6114,12 +6114,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6154,12 +6154,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6199,7 +6199,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6214,12 +6214,12 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6254,12 +6254,12 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6299,27 +6299,27 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
       </c>
       <c r="C280" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D280" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E280" t="s">
         <v>11</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6334,12 +6334,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6354,12 +6354,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6374,12 +6374,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6434,12 +6434,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6454,12 +6454,12 @@
         <v>9</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6494,21 +6494,21 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
       </c>
       <c r="C290" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D290" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6534,12 +6534,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6574,12 +6574,12 @@
         <v>10</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6594,12 +6594,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6614,12 +6614,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6639,7 +6639,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6659,7 +6659,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6674,12 +6674,12 @@
         <v>11</v>
       </c>
       <c r="F298">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6734,12 +6734,12 @@
         <v>12</v>
       </c>
       <c r="F301">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6754,12 +6754,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6779,7 +6779,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6794,12 +6794,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6814,12 +6814,12 @@
         <v>10</v>
       </c>
       <c r="F305">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6839,7 +6839,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6854,12 +6854,12 @@
         <v>10</v>
       </c>
       <c r="F307">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6894,12 +6894,12 @@
         <v>11</v>
       </c>
       <c r="F309">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6934,12 +6934,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6954,12 +6954,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6974,12 +6974,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6999,7 +6999,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7019,16 +7019,16 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
       </c>
       <c r="C316" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D316" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E316" t="s">
         <v>12</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7079,13 +7079,13 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
       </c>
       <c r="C319" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D319" t="s">
         <v>16</v>
@@ -7094,12 +7094,12 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7114,12 +7114,12 @@
         <v>10</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7134,12 +7134,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7159,7 +7159,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7179,7 +7179,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7194,12 +7194,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7214,12 +7214,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7234,12 +7234,12 @@
         <v>11</v>
       </c>
       <c r="F326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7254,12 +7254,12 @@
         <v>11</v>
       </c>
       <c r="F327">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7274,12 +7274,12 @@
         <v>11</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7294,12 +7294,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7319,7 +7319,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7334,12 +7334,12 @@
         <v>12</v>
       </c>
       <c r="F331">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7354,12 +7354,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7379,7 +7379,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7394,12 +7394,12 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7414,12 +7414,12 @@
         <v>10</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7434,12 +7434,12 @@
         <v>10</v>
       </c>
       <c r="F336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7454,12 +7454,12 @@
         <v>10</v>
       </c>
       <c r="F337">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7494,12 +7494,12 @@
         <v>11</v>
       </c>
       <c r="F339">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7514,12 +7514,12 @@
         <v>11</v>
       </c>
       <c r="F340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7539,27 +7539,27 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
       </c>
       <c r="C342" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D342" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E342" t="s">
         <v>11</v>
       </c>
       <c r="F342">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7579,7 +7579,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7594,12 +7594,12 @@
         <v>12</v>
       </c>
       <c r="F344">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7614,12 +7614,12 @@
         <v>12</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7634,12 +7634,12 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7654,12 +7654,12 @@
         <v>9</v>
       </c>
       <c r="F347">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7694,12 +7694,12 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7714,12 +7714,12 @@
         <v>10</v>
       </c>
       <c r="F350">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7734,12 +7734,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7774,12 +7774,12 @@
         <v>10</v>
       </c>
       <c r="F353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7799,7 +7799,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7814,12 +7814,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7834,12 +7834,12 @@
         <v>11</v>
       </c>
       <c r="F356">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7854,12 +7854,12 @@
         <v>11</v>
       </c>
       <c r="F357">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7874,18 +7874,18 @@
         <v>11</v>
       </c>
       <c r="F358">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
       </c>
       <c r="C359" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D359" t="s">
         <v>17</v>
@@ -7894,12 +7894,12 @@
         <v>12</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7914,12 +7914,12 @@
         <v>12</v>
       </c>
       <c r="F360">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7934,12 +7934,12 @@
         <v>12</v>
       </c>
       <c r="F361">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7954,12 +7954,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8019,7 +8019,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8034,12 +8034,12 @@
         <v>10</v>
       </c>
       <c r="F366">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8059,7 +8059,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8079,27 +8079,27 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
       </c>
       <c r="C369" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D369" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E369" t="s">
         <v>11</v>
       </c>
       <c r="F369">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8114,12 +8114,12 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8134,12 +8134,12 @@
         <v>11</v>
       </c>
       <c r="F371">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8154,12 +8154,12 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8174,12 +8174,12 @@
         <v>11</v>
       </c>
       <c r="F373">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8194,12 +8194,12 @@
         <v>12</v>
       </c>
       <c r="F374">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8214,12 +8214,12 @@
         <v>12</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8234,41 +8234,41 @@
         <v>12</v>
       </c>
       <c r="F376">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
       </c>
       <c r="C377" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D377" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
       </c>
       <c r="F377">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
       </c>
       <c r="C378" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D378" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E378" t="s">
         <v>9</v>
@@ -8279,13 +8279,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D379" t="s">
         <v>16</v>
@@ -8294,81 +8294,81 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D380" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E380" t="s">
         <v>10</v>
       </c>
       <c r="F380">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
       </c>
       <c r="C381" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D381" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E381" t="s">
         <v>10</v>
       </c>
       <c r="F381">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
       </c>
       <c r="C382" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D382" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E382" t="s">
         <v>10</v>
       </c>
       <c r="F382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
       </c>
       <c r="C383" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D383" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E383" t="s">
         <v>10</v>
@@ -8379,27 +8379,27 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
       </c>
       <c r="C384" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D384" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E384" t="s">
         <v>11</v>
       </c>
       <c r="F384">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8414,81 +8414,81 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
       </c>
       <c r="C386" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D386" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E386" t="s">
         <v>11</v>
       </c>
       <c r="F386">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
       </c>
       <c r="C387" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D387" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E387" t="s">
         <v>11</v>
       </c>
       <c r="F387">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
       </c>
       <c r="C388" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D388" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E388" t="s">
         <v>11</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D389" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E389" t="s">
         <v>12</v>
@@ -8499,27 +8499,27 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
       </c>
       <c r="C390" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D390" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E390" t="s">
         <v>12</v>
       </c>
       <c r="F390">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8539,7 +8539,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8554,12 +8554,12 @@
         <v>9</v>
       </c>
       <c r="F392">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8594,12 +8594,12 @@
         <v>10</v>
       </c>
       <c r="F394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8634,12 +8634,12 @@
         <v>10</v>
       </c>
       <c r="F396">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -8654,12 +8654,12 @@
         <v>10</v>
       </c>
       <c r="F397">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8679,7 +8679,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -8694,12 +8694,12 @@
         <v>11</v>
       </c>
       <c r="F399">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -8714,12 +8714,12 @@
         <v>11</v>
       </c>
       <c r="F400">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8739,7 +8739,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -8754,32 +8754,32 @@
         <v>11</v>
       </c>
       <c r="F402">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
       </c>
       <c r="C403" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D403" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E403" t="s">
         <v>11</v>
       </c>
       <c r="F403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8794,12 +8794,12 @@
         <v>12</v>
       </c>
       <c r="F404">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8814,12 +8814,12 @@
         <v>12</v>
       </c>
       <c r="F405">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -8834,12 +8834,12 @@
         <v>12</v>
       </c>
       <c r="F406">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -8854,12 +8854,12 @@
         <v>9</v>
       </c>
       <c r="F407">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -8879,7 +8879,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -8894,12 +8894,12 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -8914,12 +8914,12 @@
         <v>10</v>
       </c>
       <c r="F410">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -8934,12 +8934,12 @@
         <v>10</v>
       </c>
       <c r="F411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -8954,12 +8954,12 @@
         <v>10</v>
       </c>
       <c r="F412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -8994,12 +8994,12 @@
         <v>11</v>
       </c>
       <c r="F414">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9014,12 +9014,12 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -9034,12 +9034,12 @@
         <v>11</v>
       </c>
       <c r="F416">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -9059,7 +9059,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -9094,12 +9094,12 @@
         <v>12</v>
       </c>
       <c r="F419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -9114,32 +9114,32 @@
         <v>12</v>
       </c>
       <c r="F420">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
       </c>
       <c r="C421" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D421" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E421" t="s">
         <v>12</v>
       </c>
       <c r="F421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
@@ -9179,7 +9179,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
@@ -9194,12 +9194,12 @@
         <v>10</v>
       </c>
       <c r="F424">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -9208,7 +9208,7 @@
         <v>23</v>
       </c>
       <c r="D425" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E425" t="s">
         <v>10</v>
@@ -9219,7 +9219,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -9234,32 +9234,32 @@
         <v>10</v>
       </c>
       <c r="F426">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
       </c>
       <c r="C427" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D427" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E427" t="s">
         <v>10</v>
       </c>
       <c r="F427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
@@ -9274,12 +9274,12 @@
         <v>10</v>
       </c>
       <c r="F428">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
@@ -9299,16 +9299,16 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
       </c>
       <c r="C430" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D430" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E430" t="s">
         <v>11</v>
@@ -9319,7 +9319,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
@@ -9334,12 +9334,12 @@
         <v>11</v>
       </c>
       <c r="F431">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
@@ -9354,12 +9354,12 @@
         <v>11</v>
       </c>
       <c r="F432">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
@@ -9374,12 +9374,12 @@
         <v>11</v>
       </c>
       <c r="F433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9399,7 +9399,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9414,12 +9414,12 @@
         <v>12</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -9459,7 +9459,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -9479,7 +9479,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -9494,12 +9494,12 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -9534,12 +9534,12 @@
         <v>10</v>
       </c>
       <c r="F441">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -9554,12 +9554,12 @@
         <v>10</v>
       </c>
       <c r="F442">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -9579,13 +9579,13 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
       </c>
       <c r="C444" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D444" t="s">
         <v>20</v>
@@ -9594,12 +9594,12 @@
         <v>11</v>
       </c>
       <c r="F444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -9614,12 +9614,12 @@
         <v>11</v>
       </c>
       <c r="F445">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -9634,12 +9634,12 @@
         <v>11</v>
       </c>
       <c r="F446">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -9654,12 +9654,12 @@
         <v>11</v>
       </c>
       <c r="F447">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
@@ -9694,12 +9694,12 @@
         <v>12</v>
       </c>
       <c r="F449">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -9714,12 +9714,12 @@
         <v>12</v>
       </c>
       <c r="F450">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -9734,12 +9734,12 @@
         <v>12</v>
       </c>
       <c r="F451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
@@ -9754,12 +9754,12 @@
         <v>9</v>
       </c>
       <c r="F452">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
@@ -9779,7 +9779,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
@@ -9794,12 +9794,12 @@
         <v>10</v>
       </c>
       <c r="F454">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -9874,12 +9874,12 @@
         <v>10</v>
       </c>
       <c r="F458">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -9894,12 +9894,12 @@
         <v>11</v>
       </c>
       <c r="F459">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
@@ -9914,12 +9914,12 @@
         <v>11</v>
       </c>
       <c r="F460">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -9934,12 +9934,12 @@
         <v>11</v>
       </c>
       <c r="F461">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -9954,12 +9954,12 @@
         <v>11</v>
       </c>
       <c r="F462">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
@@ -9974,12 +9974,12 @@
         <v>11</v>
       </c>
       <c r="F463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -9994,12 +9994,12 @@
         <v>12</v>
       </c>
       <c r="F464">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -10014,12 +10014,12 @@
         <v>12</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -10034,12 +10034,12 @@
         <v>12</v>
       </c>
       <c r="F466">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B467" t="s">
         <v>7</v>
@@ -10054,12 +10054,12 @@
         <v>9</v>
       </c>
       <c r="F467">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B469" t="s">
         <v>7</v>
@@ -10099,7 +10099,7 @@
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B470" t="s">
         <v>7</v>
@@ -10114,12 +10114,12 @@
         <v>10</v>
       </c>
       <c r="F470">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B471" t="s">
         <v>7</v>
@@ -10134,12 +10134,12 @@
         <v>10</v>
       </c>
       <c r="F471">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
@@ -10154,12 +10154,12 @@
         <v>10</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B473" t="s">
         <v>7</v>
@@ -10179,7 +10179,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
@@ -10194,12 +10194,12 @@
         <v>11</v>
       </c>
       <c r="F474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B475" t="s">
         <v>7</v>
@@ -10214,12 +10214,12 @@
         <v>11</v>
       </c>
       <c r="F475">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B476" t="s">
         <v>7</v>
@@ -10234,12 +10234,12 @@
         <v>11</v>
       </c>
       <c r="F476">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
@@ -10254,12 +10254,12 @@
         <v>11</v>
       </c>
       <c r="F477">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B478" t="s">
         <v>7</v>
@@ -10279,16 +10279,16 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
       </c>
       <c r="C479" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D479" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E479" t="s">
         <v>12</v>
@@ -10299,7 +10299,7 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
@@ -10314,12 +10314,12 @@
         <v>12</v>
       </c>
       <c r="F480">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -10337,9 +10337,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>1</v>
+      </c>
+      <c r="B482" t="s">
+        <v>6</v>
+      </c>
+      <c r="C482" t="s">
+        <v>8</v>
+      </c>
+      <c r="D482" t="s">
+        <v>13</v>
+      </c>
+      <c r="E482" t="s">
+        <v>9</v>
+      </c>
+      <c r="F482">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>1</v>
+      </c>
+      <c r="B483" t="s">
+        <v>6</v>
+      </c>
+      <c r="C483" t="s">
+        <v>21</v>
+      </c>
+      <c r="D483" t="s">
+        <v>19</v>
+      </c>
+      <c r="E483" t="s">
+        <v>9</v>
+      </c>
+      <c r="F483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>1</v>
+      </c>
+      <c r="B484" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" t="s">
+        <v>22</v>
+      </c>
+      <c r="D484" t="s">
+        <v>14</v>
+      </c>
+      <c r="E484" t="s">
+        <v>10</v>
+      </c>
+      <c r="F484">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>1</v>
+      </c>
+      <c r="B485" t="s">
+        <v>6</v>
+      </c>
+      <c r="C485" t="s">
+        <v>23</v>
+      </c>
+      <c r="D485" t="s">
+        <v>15</v>
+      </c>
+      <c r="E485" t="s">
+        <v>10</v>
+      </c>
+      <c r="F485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>1</v>
+      </c>
+      <c r="B486" t="s">
+        <v>6</v>
+      </c>
+      <c r="C486" t="s">
+        <v>24</v>
+      </c>
+      <c r="D486" t="s">
+        <v>16</v>
+      </c>
+      <c r="E486" t="s">
+        <v>10</v>
+      </c>
+      <c r="F486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>1</v>
+      </c>
+      <c r="B487" t="s">
+        <v>6</v>
+      </c>
+      <c r="C487" t="s">
+        <v>26</v>
+      </c>
+      <c r="D487" t="s">
+        <v>17</v>
+      </c>
+      <c r="E487" t="s">
+        <v>10</v>
+      </c>
+      <c r="F487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>1</v>
+      </c>
+      <c r="B488" t="s">
+        <v>6</v>
+      </c>
+      <c r="C488" t="s">
+        <v>27</v>
+      </c>
+      <c r="D488" t="s">
+        <v>18</v>
+      </c>
+      <c r="E488" t="s">
+        <v>10</v>
+      </c>
+      <c r="F488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>1</v>
+      </c>
+      <c r="B489" t="s">
+        <v>6</v>
+      </c>
+      <c r="C489" t="s">
+        <v>25</v>
+      </c>
+      <c r="D489" t="s">
+        <v>13</v>
+      </c>
+      <c r="E489" t="s">
+        <v>11</v>
+      </c>
+      <c r="F489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>1</v>
+      </c>
+      <c r="B490" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" t="s">
+        <v>28</v>
+      </c>
+      <c r="D490" t="s">
+        <v>13</v>
+      </c>
+      <c r="E490" t="s">
+        <v>11</v>
+      </c>
+      <c r="F490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>1</v>
+      </c>
+      <c r="B491" t="s">
+        <v>6</v>
+      </c>
+      <c r="C491" t="s">
+        <v>29</v>
+      </c>
+      <c r="D491" t="s">
+        <v>19</v>
+      </c>
+      <c r="E491" t="s">
+        <v>11</v>
+      </c>
+      <c r="F491">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>1</v>
+      </c>
+      <c r="B492" t="s">
+        <v>6</v>
+      </c>
+      <c r="C492" t="s">
+        <v>30</v>
+      </c>
+      <c r="D492" t="s">
+        <v>14</v>
+      </c>
+      <c r="E492" t="s">
+        <v>11</v>
+      </c>
+      <c r="F492">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>1</v>
+      </c>
+      <c r="B493" t="s">
+        <v>6</v>
+      </c>
+      <c r="C493" t="s">
+        <v>31</v>
+      </c>
+      <c r="D493" t="s">
+        <v>16</v>
+      </c>
+      <c r="E493" t="s">
+        <v>11</v>
+      </c>
+      <c r="F493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>1</v>
+      </c>
+      <c r="B494" t="s">
+        <v>6</v>
+      </c>
+      <c r="C494" t="s">
+        <v>32</v>
+      </c>
+      <c r="D494" t="s">
+        <v>20</v>
+      </c>
+      <c r="E494" t="s">
+        <v>12</v>
+      </c>
+      <c r="F494">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>1</v>
+      </c>
+      <c r="B495" t="s">
+        <v>6</v>
+      </c>
+      <c r="C495" t="s">
+        <v>33</v>
+      </c>
+      <c r="D495" t="s">
+        <v>17</v>
+      </c>
+      <c r="E495" t="s">
+        <v>12</v>
+      </c>
+      <c r="F495">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>1</v>
+      </c>
+      <c r="B496" t="s">
+        <v>6</v>
+      </c>
+      <c r="C496" t="s">
+        <v>34</v>
+      </c>
+      <c r="D496" t="s">
+        <v>15</v>
+      </c>
+      <c r="E496" t="s">
+        <v>12</v>
+      </c>
+      <c r="F496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>1</v>
+      </c>
+      <c r="B497" t="s">
+        <v>7</v>
+      </c>
+      <c r="C497" t="s">
+        <v>38</v>
+      </c>
+      <c r="D497" t="s">
+        <v>39</v>
+      </c>
+      <c r="E497" t="s">
+        <v>9</v>
+      </c>
+      <c r="F497">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>1</v>
+      </c>
+      <c r="B498" t="s">
+        <v>7</v>
+      </c>
+      <c r="C498" t="s">
+        <v>62</v>
+      </c>
+      <c r="D498" t="s">
+        <v>44</v>
+      </c>
+      <c r="E498" t="s">
+        <v>9</v>
+      </c>
+      <c r="F498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>1</v>
+      </c>
+      <c r="B499" t="s">
+        <v>7</v>
+      </c>
+      <c r="C499" t="s">
+        <v>40</v>
+      </c>
+      <c r="D499" t="s">
+        <v>16</v>
+      </c>
+      <c r="E499" t="s">
+        <v>10</v>
+      </c>
+      <c r="F499">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>1</v>
+      </c>
+      <c r="B500" t="s">
+        <v>7</v>
+      </c>
+      <c r="C500" t="s">
+        <v>41</v>
+      </c>
+      <c r="D500" t="s">
+        <v>20</v>
+      </c>
+      <c r="E500" t="s">
+        <v>10</v>
+      </c>
+      <c r="F500">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>1</v>
+      </c>
+      <c r="B501" t="s">
+        <v>7</v>
+      </c>
+      <c r="C501" t="s">
+        <v>42</v>
+      </c>
+      <c r="D501" t="s">
+        <v>43</v>
+      </c>
+      <c r="E501" t="s">
+        <v>10</v>
+      </c>
+      <c r="F501">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>1</v>
+      </c>
+      <c r="B502" t="s">
+        <v>7</v>
+      </c>
+      <c r="C502" t="s">
+        <v>45</v>
+      </c>
+      <c r="D502" t="s">
+        <v>19</v>
+      </c>
+      <c r="E502" t="s">
+        <v>10</v>
+      </c>
+      <c r="F502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>1</v>
+      </c>
+      <c r="B503" t="s">
+        <v>7</v>
+      </c>
+      <c r="C503" t="s">
+        <v>46</v>
+      </c>
+      <c r="D503" t="s">
+        <v>49</v>
+      </c>
+      <c r="E503" t="s">
+        <v>10</v>
+      </c>
+      <c r="F503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>1</v>
+      </c>
+      <c r="B504" t="s">
+        <v>7</v>
+      </c>
+      <c r="C504" t="s">
+        <v>50</v>
+      </c>
+      <c r="D504" t="s">
+        <v>20</v>
+      </c>
+      <c r="E504" t="s">
+        <v>11</v>
+      </c>
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>1</v>
+      </c>
+      <c r="B505" t="s">
+        <v>7</v>
+      </c>
+      <c r="C505" t="s">
+        <v>51</v>
+      </c>
+      <c r="D505" t="s">
+        <v>52</v>
+      </c>
+      <c r="E505" t="s">
+        <v>11</v>
+      </c>
+      <c r="F505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>1</v>
+      </c>
+      <c r="B506" t="s">
+        <v>7</v>
+      </c>
+      <c r="C506" t="s">
+        <v>53</v>
+      </c>
+      <c r="D506" t="s">
+        <v>54</v>
+      </c>
+      <c r="E506" t="s">
+        <v>11</v>
+      </c>
+      <c r="F506">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>1</v>
+      </c>
+      <c r="B507" t="s">
+        <v>7</v>
+      </c>
+      <c r="C507" t="s">
+        <v>55</v>
+      </c>
+      <c r="D507" t="s">
+        <v>19</v>
+      </c>
+      <c r="E507" t="s">
+        <v>11</v>
+      </c>
+      <c r="F507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>1</v>
+      </c>
+      <c r="B508" t="s">
+        <v>7</v>
+      </c>
+      <c r="C508" t="s">
+        <v>47</v>
+      </c>
+      <c r="D508" t="s">
+        <v>48</v>
+      </c>
+      <c r="E508" t="s">
+        <v>11</v>
+      </c>
+      <c r="F508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>1</v>
+      </c>
+      <c r="B509" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" t="s">
+        <v>56</v>
+      </c>
+      <c r="D509" t="s">
+        <v>14</v>
+      </c>
+      <c r="E509" t="s">
+        <v>12</v>
+      </c>
+      <c r="F509">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>1</v>
+      </c>
+      <c r="B510" t="s">
+        <v>7</v>
+      </c>
+      <c r="C510" t="s">
+        <v>57</v>
+      </c>
+      <c r="D510" t="s">
+        <v>43</v>
+      </c>
+      <c r="E510" t="s">
+        <v>12</v>
+      </c>
+      <c r="F510">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>1</v>
+      </c>
+      <c r="B511" t="s">
+        <v>7</v>
+      </c>
+      <c r="C511" t="s">
+        <v>58</v>
+      </c>
+      <c r="D511" t="s">
+        <v>19</v>
+      </c>
+      <c r="E511" t="s">
+        <v>12</v>
+      </c>
+      <c r="F511">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A212:F481">
-    <sortCondition descending="1" ref="A212:A481"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A242:F511">
+    <sortCondition descending="1" ref="A242:A511"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10347,10 +10947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10401,7 +11001,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -10413,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -10425,7 +11025,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -10437,7 +11037,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -10449,7 +11049,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -10461,7 +11061,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -10473,7 +11073,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -10485,7 +11085,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -10497,7 +11097,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -10509,7 +11109,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -10521,7 +11121,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -10533,7 +11133,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -10545,7 +11145,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -10557,7 +11157,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -10569,7 +11169,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -10581,7 +11181,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -10593,7 +11193,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -10605,7 +11205,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -10617,7 +11217,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -10629,7 +11229,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -10641,7 +11241,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -10653,7 +11253,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -10665,7 +11265,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"Bazzers Ballers",'Weekly Points'!$A$122:$A$481,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -10677,7 +11277,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$481,'Weekly Points'!$B$122:$B$481,"WHU-Tang-Clan",'Weekly Points'!$A$122:$A$481,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -10689,7 +11289,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$481,'Weekly Points'!$B$92:$B$481,A28,'Weekly Points'!$A$92:$A$481,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$511,'Weekly Points'!$B$122:$B$511,A28,'Weekly Points'!$A$122:$A$511,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -10701,7 +11301,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$481,'Weekly Points'!$B$92:$B$481,A29,'Weekly Points'!$A$92:$A$481,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$511,'Weekly Points'!$B$122:$B$511,A29,'Weekly Points'!$A$122:$A$511,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -10713,7 +11313,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$481,'Weekly Points'!$B$62:$B$481,A30,'Weekly Points'!$A$62:$A$481,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$511,'Weekly Points'!$B$92:$B$511,A30,'Weekly Points'!$A$92:$A$511,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -10725,7 +11325,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$481,'Weekly Points'!$B$62:$B$481,A31,'Weekly Points'!$A$62:$A$481,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$511,'Weekly Points'!$B$92:$B$511,A31,'Weekly Points'!$A$92:$A$511,B31)+C29</f>
         <v>680</v>
       </c>
     </row>
@@ -10737,7 +11337,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$481,'Weekly Points'!$B$32:$B$481,A32,'Weekly Points'!$A$32:$A$481,B32)+C30</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$511,'Weekly Points'!$B$62:$B$511,A32,'Weekly Points'!$A$62:$A$511,B32)+C30</f>
         <v>818</v>
       </c>
     </row>
@@ -10749,7 +11349,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$481,'Weekly Points'!$B$32:$B$481,A33,'Weekly Points'!$A$32:$A$481,B33)+C31</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$511,'Weekly Points'!$B$62:$B$511,A33,'Weekly Points'!$A$62:$A$511,B33)+C31</f>
         <v>723</v>
       </c>
     </row>
@@ -10761,7 +11361,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$481,'Weekly Points'!$B$2:$B$481,A34,'Weekly Points'!$A$2:$A$481,B34)+C32</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$511,'Weekly Points'!$B$32:$B$511,A34,'Weekly Points'!$A$32:$A$511,B34)+C32</f>
         <v>876</v>
       </c>
     </row>
@@ -10773,8 +11373,32 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$481,'Weekly Points'!$B$2:$B$481,A35,'Weekly Points'!$A$2:$A$481,B35)+C33</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$511,'Weekly Points'!$B$32:$B$511,A35,'Weekly Points'!$A$32:$A$511,B35)+C33</f>
         <v>763</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="C36">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$511,'Weekly Points'!$B$2:$B$511,A36,'Weekly Points'!$A$2:$A$511,B36)+C34</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$511,'Weekly Points'!$B$2:$B$511,A37,'Weekly Points'!$A$2:$A$511,B37)+C35</f>
+        <v>812</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8735A173-0593-47BA-A66D-D793E21A54B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D4DF89-7CED-42AE-AB2B-C0EA13754FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="101">
   <si>
     <t>Gameweek</t>
   </si>
@@ -331,6 +331,15 @@
   </si>
   <si>
     <t>Kerkez</t>
+  </si>
+  <si>
+    <t>Maddison</t>
+  </si>
+  <si>
+    <t>Jesus</t>
+  </si>
+  <si>
+    <t>Kluivert</t>
   </si>
 </sst>
 </file>
@@ -702,13 +711,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F511"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F17:F31"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +747,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -758,7 +767,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -778,7 +787,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -793,12 +802,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -813,12 +822,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -838,7 +847,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -858,7 +867,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -873,12 +882,12 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -893,12 +902,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -918,7 +927,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -933,12 +942,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -953,52 +962,52 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1013,12 +1022,12 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1033,12 +1042,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1053,12 +1062,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1073,12 +1082,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1093,12 +1102,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1118,7 +1127,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1133,12 +1142,12 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1153,12 +1162,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1178,27 +1187,27 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1213,12 +1222,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1233,12 +1242,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1253,12 +1262,12 @@
         <v>11</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1273,32 +1282,32 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
         <v>12</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1318,7 +1327,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1338,7 +1347,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1353,12 +1362,12 @@
         <v>9</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1378,7 +1387,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1393,12 +1402,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1418,7 +1427,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1433,12 +1442,12 @@
         <v>10</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1458,7 +1467,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1473,12 +1482,12 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1493,12 +1502,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1513,633 +1522,633 @@
         <v>11</v>
       </c>
       <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>17</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>17</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>17</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>66</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D54" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>17</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" t="s">
+        <v>43</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" t="s">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>16</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>87</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>16</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>16</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
+        <v>96</v>
+      </c>
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
         <f>-4+1</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" t="s">
-        <v>54</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" t="s">
-        <v>66</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48" t="s">
-        <v>39</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>68</v>
-      </c>
-      <c r="D52" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>70</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>90</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" t="s">
-        <v>52</v>
-      </c>
-      <c r="E55" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>16</v>
-      </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" t="s">
-        <v>54</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>16</v>
-      </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D57" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>16</v>
-      </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>16</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>75</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>16</v>
-      </c>
-      <c r="B60" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>16</v>
-      </c>
-      <c r="B61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>15</v>
-      </c>
-      <c r="B62" t="s">
-        <v>6</v>
-      </c>
-      <c r="C62" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>15</v>
-      </c>
-      <c r="B63" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="E63" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>15</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>89</v>
-      </c>
-      <c r="D64" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>15</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>15</v>
-      </c>
-      <c r="B66" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>15</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>15</v>
-      </c>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>15</v>
-      </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" t="s">
-        <v>39</v>
-      </c>
-      <c r="E69" t="s">
-        <v>11</v>
-      </c>
-      <c r="F69">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>15</v>
-      </c>
-      <c r="B70" t="s">
-        <v>6</v>
-      </c>
-      <c r="C70" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E70" t="s">
-        <v>11</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2154,12 +2163,12 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -2174,12 +2183,12 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -2194,12 +2203,12 @@
         <v>12</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2214,12 +2223,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2234,12 +2243,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2254,12 +2263,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2279,7 +2288,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2294,32 +2303,32 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
         <v>10</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2334,12 +2343,12 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2354,12 +2363,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2374,12 +2383,12 @@
         <v>10</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2394,12 +2403,12 @@
         <v>11</v>
       </c>
       <c r="F84">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2414,12 +2423,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2434,12 +2443,12 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2459,7 +2468,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2474,12 +2483,12 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2494,12 +2503,12 @@
         <v>12</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2519,7 +2528,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2534,12 +2543,12 @@
         <v>12</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2554,12 +2563,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2579,7 +2588,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2599,7 +2608,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2614,12 +2623,12 @@
         <v>10</v>
       </c>
       <c r="F95">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2639,7 +2648,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2659,7 +2668,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2668,7 +2677,7 @@
         <v>87</v>
       </c>
       <c r="D98" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E98" t="s">
         <v>10</v>
@@ -2679,7 +2688,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2694,12 +2703,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2714,32 +2723,32 @@
         <v>11</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2754,12 +2763,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2774,12 +2783,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2794,12 +2803,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2814,12 +2823,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2834,12 +2843,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2854,12 +2863,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2874,12 +2883,12 @@
         <v>9</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2899,7 +2908,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -2919,27 +2928,27 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D111" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
         <v>10</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2954,12 +2963,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2979,27 +2988,27 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3014,12 +3023,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3034,12 +3043,12 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3054,12 +3063,12 @@
         <v>11</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3074,12 +3083,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3094,12 +3103,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3114,12 +3123,12 @@
         <v>12</v>
       </c>
       <c r="F120">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3134,12 +3143,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3154,12 +3163,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3179,7 +3188,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3194,12 +3203,12 @@
         <v>10</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3214,32 +3223,32 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" t="s">
         <v>13</v>
       </c>
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s">
-        <v>76</v>
-      </c>
-      <c r="D126" t="s">
-        <v>54</v>
-      </c>
       <c r="E126" t="s">
         <v>10</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3254,12 +3263,12 @@
         <v>10</v>
       </c>
       <c r="F127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3279,7 +3288,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3299,7 +3308,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3319,7 +3328,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -3334,12 +3343,12 @@
         <v>11</v>
       </c>
       <c r="F131">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3354,12 +3363,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3374,12 +3383,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3394,12 +3403,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3414,12 +3423,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3434,12 +3443,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3459,7 +3468,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3474,12 +3483,12 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3494,12 +3503,12 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3519,7 +3528,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3539,7 +3548,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3554,12 +3563,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3579,7 +3588,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3599,7 +3608,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3614,12 +3623,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3634,12 +3643,12 @@
         <v>11</v>
       </c>
       <c r="F146">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3654,12 +3663,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3674,12 +3683,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3694,12 +3703,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3714,12 +3723,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3734,12 +3743,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3754,12 +3763,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3779,33 +3788,33 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D155" t="s">
         <v>35</v>
@@ -3814,12 +3823,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3839,33 +3848,33 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D157" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E157" t="s">
         <v>10</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D158" t="s">
         <v>18</v>
@@ -3879,7 +3888,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3894,21 +3903,21 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -3919,27 +3928,27 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D161" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
       <c r="F161">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3954,92 +3963,92 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D163" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E164" t="s">
         <v>12</v>
       </c>
       <c r="F164">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D165" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E165" t="s">
         <v>12</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D166" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E166" t="s">
         <v>12</v>
       </c>
       <c r="F166">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4054,12 +4063,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4074,12 +4083,12 @@
         <v>9</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4094,12 +4103,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4119,7 +4128,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4139,7 +4148,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4154,12 +4163,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4174,12 +4183,12 @@
         <v>10</v>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4194,12 +4203,12 @@
         <v>11</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4214,32 +4223,32 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D176" t="s">
+        <v>54</v>
+      </c>
+      <c r="E176" t="s">
+        <v>11</v>
+      </c>
+      <c r="F176">
         <v>13</v>
-      </c>
-      <c r="E176" t="s">
-        <v>11</v>
-      </c>
-      <c r="F176">
-        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4254,12 +4263,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4279,7 +4288,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4299,16 +4308,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D180" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E180" t="s">
         <v>12</v>
@@ -4319,7 +4328,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4334,12 +4343,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4354,12 +4363,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4379,7 +4388,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4399,7 +4408,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4414,12 +4423,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4434,12 +4443,12 @@
         <v>10</v>
       </c>
       <c r="F186">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4454,12 +4463,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4479,7 +4488,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4494,41 +4503,41 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D190" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D191" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
@@ -4539,7 +4548,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4559,7 +4568,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4574,12 +4583,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4594,12 +4603,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4614,12 +4623,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4634,12 +4643,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4654,12 +4663,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4674,12 +4683,12 @@
         <v>9</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4694,12 +4703,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4714,12 +4723,12 @@
         <v>10</v>
       </c>
       <c r="F200">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4739,7 +4748,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4754,12 +4763,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4774,12 +4783,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4794,12 +4803,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4819,7 +4828,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4839,7 +4848,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4854,12 +4863,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4879,7 +4888,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4899,7 +4908,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4914,12 +4923,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4934,12 +4943,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4954,12 +4963,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4979,7 +4988,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -4999,7 +5008,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5014,12 +5023,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5034,12 +5043,12 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5059,7 +5068,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5079,7 +5088,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5094,12 +5103,12 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
@@ -5114,12 +5123,12 @@
         <v>11</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
@@ -5134,12 +5143,12 @@
         <v>11</v>
       </c>
       <c r="F221">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5154,12 +5163,12 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5174,12 +5183,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5194,12 +5203,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5214,12 +5223,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5234,12 +5243,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5259,7 +5268,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5274,12 +5283,12 @@
         <v>9</v>
       </c>
       <c r="F228">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5299,7 +5308,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5314,12 +5323,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5339,7 +5348,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5354,12 +5363,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5374,12 +5383,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5394,12 +5403,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5414,12 +5423,12 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5439,7 +5448,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5459,7 +5468,7 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5479,7 +5488,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5494,12 +5503,12 @@
         <v>12</v>
       </c>
       <c r="F239">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5514,32 +5523,32 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
       </c>
       <c r="C241" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D241" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E241" t="s">
         <v>12</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5554,12 +5563,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5579,7 +5588,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5594,12 +5603,12 @@
         <v>10</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5614,12 +5623,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5639,7 +5648,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5654,12 +5663,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5679,27 +5688,27 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
       </c>
       <c r="C249" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D249" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E249" t="s">
         <v>11</v>
       </c>
       <c r="F249">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5719,7 +5728,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5734,12 +5743,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5754,12 +5763,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5779,7 +5788,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5794,32 +5803,32 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D255" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E255" t="s">
         <v>12</v>
       </c>
       <c r="F255">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5834,12 +5843,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5859,27 +5868,27 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
       </c>
       <c r="C258" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D258" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
       </c>
       <c r="F258">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5894,12 +5903,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5919,7 +5928,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5934,12 +5943,12 @@
         <v>10</v>
       </c>
       <c r="F261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5959,7 +5968,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5974,12 +5983,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -5994,12 +6003,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6014,12 +6023,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6039,7 +6048,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6054,12 +6063,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6079,7 +6088,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6094,12 +6103,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6114,12 +6123,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6134,12 +6143,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6154,12 +6163,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6179,7 +6188,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6199,7 +6208,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6219,27 +6228,27 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
       </c>
       <c r="C276" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D276" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E276" t="s">
         <v>10</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6259,7 +6268,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6279,7 +6288,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6294,12 +6303,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6314,12 +6323,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6334,12 +6343,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6354,12 +6363,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6374,12 +6383,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6394,12 +6403,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6419,7 +6428,7 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6434,12 +6443,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6454,12 +6463,12 @@
         <v>9</v>
       </c>
       <c r="F287">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6479,7 +6488,7 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6499,7 +6508,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6519,7 +6528,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6539,7 +6548,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6559,7 +6568,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6574,12 +6583,12 @@
         <v>10</v>
       </c>
       <c r="F293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6594,12 +6603,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6614,12 +6623,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6639,27 +6648,27 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
       </c>
       <c r="C297" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D297" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E297" t="s">
         <v>11</v>
       </c>
       <c r="F297">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6674,12 +6683,12 @@
         <v>11</v>
       </c>
       <c r="F298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6694,12 +6703,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6714,12 +6723,12 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6739,7 +6748,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6754,12 +6763,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6779,7 +6788,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6799,7 +6808,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6814,12 +6823,12 @@
         <v>10</v>
       </c>
       <c r="F305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6839,7 +6848,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6854,12 +6863,12 @@
         <v>10</v>
       </c>
       <c r="F307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6879,7 +6888,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6899,27 +6908,27 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
       </c>
       <c r="C310" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D310" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E310" t="s">
         <v>11</v>
       </c>
       <c r="F310">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6934,12 +6943,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6954,12 +6963,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6974,12 +6983,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -6999,7 +7008,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7019,7 +7028,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7034,12 +7043,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7054,12 +7063,12 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7079,7 +7088,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7094,21 +7103,21 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
       </c>
       <c r="C320" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D320" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E320" t="s">
         <v>10</v>
@@ -7119,7 +7128,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7134,12 +7143,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7159,7 +7168,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7174,12 +7183,12 @@
         <v>10</v>
       </c>
       <c r="F323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7194,12 +7203,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7214,12 +7223,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7239,7 +7248,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7259,7 +7268,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7274,12 +7283,12 @@
         <v>11</v>
       </c>
       <c r="F328">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7299,7 +7308,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7319,7 +7328,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7334,12 +7343,12 @@
         <v>12</v>
       </c>
       <c r="F331">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7354,12 +7363,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7379,7 +7388,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7394,12 +7403,12 @@
         <v>10</v>
       </c>
       <c r="F334">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7414,12 +7423,12 @@
         <v>10</v>
       </c>
       <c r="F335">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7439,7 +7448,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7454,12 +7463,12 @@
         <v>10</v>
       </c>
       <c r="F337">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7479,7 +7488,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7494,12 +7503,12 @@
         <v>11</v>
       </c>
       <c r="F339">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7519,7 +7528,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7534,12 +7543,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7554,12 +7563,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7574,12 +7583,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7599,7 +7608,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7619,16 +7628,16 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
       </c>
       <c r="C346" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D346" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E346" t="s">
         <v>12</v>
@@ -7639,7 +7648,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7659,7 +7668,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7679,13 +7688,13 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
       </c>
       <c r="C349" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D349" t="s">
         <v>16</v>
@@ -7694,12 +7703,12 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7714,12 +7723,12 @@
         <v>10</v>
       </c>
       <c r="F350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7734,12 +7743,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7759,7 +7768,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7779,7 +7788,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7794,12 +7803,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7814,12 +7823,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7834,12 +7843,12 @@
         <v>11</v>
       </c>
       <c r="F356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7854,12 +7863,12 @@
         <v>11</v>
       </c>
       <c r="F357">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7874,12 +7883,12 @@
         <v>11</v>
       </c>
       <c r="F358">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7894,12 +7903,12 @@
         <v>12</v>
       </c>
       <c r="F359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7919,7 +7928,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7934,12 +7943,12 @@
         <v>12</v>
       </c>
       <c r="F361">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7954,12 +7963,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7979,7 +7988,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -7994,12 +8003,12 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8014,12 +8023,12 @@
         <v>10</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8034,12 +8043,12 @@
         <v>10</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8054,12 +8063,12 @@
         <v>10</v>
       </c>
       <c r="F367">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8079,7 +8088,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8094,12 +8103,12 @@
         <v>11</v>
       </c>
       <c r="F369">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8114,12 +8123,12 @@
         <v>11</v>
       </c>
       <c r="F370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8139,27 +8148,27 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
       </c>
       <c r="C372" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D372" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E372" t="s">
         <v>11</v>
       </c>
       <c r="F372">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8179,7 +8188,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8194,12 +8203,12 @@
         <v>12</v>
       </c>
       <c r="F374">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8214,12 +8223,12 @@
         <v>12</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8234,12 +8243,12 @@
         <v>12</v>
       </c>
       <c r="F376">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8254,12 +8263,12 @@
         <v>9</v>
       </c>
       <c r="F377">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8279,7 +8288,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -8294,12 +8303,12 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -8314,12 +8323,12 @@
         <v>10</v>
       </c>
       <c r="F380">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8334,12 +8343,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8359,7 +8368,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8374,12 +8383,12 @@
         <v>10</v>
       </c>
       <c r="F383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -8399,7 +8408,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8414,12 +8423,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8434,12 +8443,12 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8454,12 +8463,12 @@
         <v>11</v>
       </c>
       <c r="F387">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8474,18 +8483,18 @@
         <v>11</v>
       </c>
       <c r="F388">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
       </c>
       <c r="C389" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D389" t="s">
         <v>17</v>
@@ -8494,12 +8503,12 @@
         <v>12</v>
       </c>
       <c r="F389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8514,12 +8523,12 @@
         <v>12</v>
       </c>
       <c r="F390">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8534,12 +8543,12 @@
         <v>12</v>
       </c>
       <c r="F391">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8554,12 +8563,12 @@
         <v>9</v>
       </c>
       <c r="F392">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8579,7 +8588,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8599,7 +8608,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8619,7 +8628,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8634,12 +8643,12 @@
         <v>10</v>
       </c>
       <c r="F396">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -8659,7 +8668,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8679,27 +8688,27 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
       </c>
       <c r="C399" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D399" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E399" t="s">
         <v>11</v>
       </c>
       <c r="F399">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -8714,12 +8723,12 @@
         <v>11</v>
       </c>
       <c r="F400">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8734,12 +8743,12 @@
         <v>11</v>
       </c>
       <c r="F401">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -8754,12 +8763,12 @@
         <v>11</v>
       </c>
       <c r="F402">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -8774,12 +8783,12 @@
         <v>11</v>
       </c>
       <c r="F403">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8794,12 +8803,12 @@
         <v>12</v>
       </c>
       <c r="F404">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8814,12 +8823,12 @@
         <v>12</v>
       </c>
       <c r="F405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -8834,41 +8843,41 @@
         <v>12</v>
       </c>
       <c r="F406">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
       </c>
       <c r="C407" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D407" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E407" t="s">
         <v>9</v>
       </c>
       <c r="F407">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
       </c>
       <c r="C408" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D408" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E408" t="s">
         <v>9</v>
@@ -8879,13 +8888,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D409" t="s">
         <v>16</v>
@@ -8894,81 +8903,81 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
       </c>
       <c r="C410" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D410" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E410" t="s">
         <v>10</v>
       </c>
       <c r="F410">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
       </c>
       <c r="C411" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D411" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E411" t="s">
         <v>10</v>
       </c>
       <c r="F411">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
       </c>
       <c r="C412" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D412" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E412" t="s">
         <v>10</v>
       </c>
       <c r="F412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
       </c>
       <c r="C413" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D413" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -8979,27 +8988,27 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
       </c>
       <c r="C414" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D414" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E414" t="s">
         <v>11</v>
       </c>
       <c r="F414">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9014,81 +9023,81 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
       </c>
       <c r="C416" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D416" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E416" t="s">
         <v>11</v>
       </c>
       <c r="F416">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
       </c>
       <c r="C417" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D417" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E417" t="s">
         <v>11</v>
       </c>
       <c r="F417">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
       </c>
       <c r="C418" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D418" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E418" t="s">
         <v>11</v>
       </c>
       <c r="F418">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
       </c>
       <c r="C419" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D419" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E419" t="s">
         <v>12</v>
@@ -9099,27 +9108,27 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
       </c>
       <c r="C420" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D420" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E420" t="s">
         <v>12</v>
       </c>
       <c r="F420">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -9139,7 +9148,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
@@ -9154,12 +9163,12 @@
         <v>9</v>
       </c>
       <c r="F422">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
@@ -9179,7 +9188,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
@@ -9194,12 +9203,12 @@
         <v>10</v>
       </c>
       <c r="F424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -9219,7 +9228,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -9234,12 +9243,12 @@
         <v>10</v>
       </c>
       <c r="F426">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
@@ -9254,12 +9263,12 @@
         <v>10</v>
       </c>
       <c r="F427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
@@ -9279,7 +9288,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
@@ -9294,12 +9303,12 @@
         <v>11</v>
       </c>
       <c r="F429">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
@@ -9314,12 +9323,12 @@
         <v>11</v>
       </c>
       <c r="F430">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
@@ -9339,7 +9348,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
@@ -9354,32 +9363,32 @@
         <v>11</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
       </c>
       <c r="C433" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D433" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E433" t="s">
         <v>11</v>
       </c>
       <c r="F433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9394,12 +9403,12 @@
         <v>12</v>
       </c>
       <c r="F434">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9414,12 +9423,12 @@
         <v>12</v>
       </c>
       <c r="F435">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9434,12 +9443,12 @@
         <v>12</v>
       </c>
       <c r="F436">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -9454,12 +9463,12 @@
         <v>9</v>
       </c>
       <c r="F437">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -9479,7 +9488,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -9494,12 +9503,12 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -9514,12 +9523,12 @@
         <v>10</v>
       </c>
       <c r="F440">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -9534,12 +9543,12 @@
         <v>10</v>
       </c>
       <c r="F441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -9554,12 +9563,12 @@
         <v>10</v>
       </c>
       <c r="F442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -9579,7 +9588,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
@@ -9594,12 +9603,12 @@
         <v>11</v>
       </c>
       <c r="F444">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -9614,12 +9623,12 @@
         <v>11</v>
       </c>
       <c r="F445">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -9634,12 +9643,12 @@
         <v>11</v>
       </c>
       <c r="F446">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -9659,7 +9668,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -9679,7 +9688,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
@@ -9694,12 +9703,12 @@
         <v>12</v>
       </c>
       <c r="F449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -9714,32 +9723,32 @@
         <v>12</v>
       </c>
       <c r="F450">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
       </c>
       <c r="C451" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D451" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E451" t="s">
         <v>12</v>
       </c>
       <c r="F451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
@@ -9759,7 +9768,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
@@ -9779,7 +9788,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
@@ -9794,12 +9803,12 @@
         <v>10</v>
       </c>
       <c r="F454">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -9808,7 +9817,7 @@
         <v>23</v>
       </c>
       <c r="D455" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E455" t="s">
         <v>10</v>
@@ -9819,7 +9828,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -9834,32 +9843,32 @@
         <v>10</v>
       </c>
       <c r="F456">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
       </c>
       <c r="C457" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D457" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E457" t="s">
         <v>10</v>
       </c>
       <c r="F457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -9874,12 +9883,12 @@
         <v>10</v>
       </c>
       <c r="F458">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -9899,16 +9908,16 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
       </c>
       <c r="C460" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D460" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E460" t="s">
         <v>11</v>
@@ -9919,7 +9928,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -9934,12 +9943,12 @@
         <v>11</v>
       </c>
       <c r="F461">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -9954,12 +9963,12 @@
         <v>11</v>
       </c>
       <c r="F462">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
@@ -9974,12 +9983,12 @@
         <v>11</v>
       </c>
       <c r="F463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -9999,7 +10008,7 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -10014,12 +10023,12 @@
         <v>12</v>
       </c>
       <c r="F465">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -10039,7 +10048,7 @@
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B467" t="s">
         <v>7</v>
@@ -10059,7 +10068,7 @@
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
@@ -10079,7 +10088,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B469" t="s">
         <v>7</v>
@@ -10094,12 +10103,12 @@
         <v>10</v>
       </c>
       <c r="F469">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B470" t="s">
         <v>7</v>
@@ -10119,7 +10128,7 @@
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B471" t="s">
         <v>7</v>
@@ -10134,12 +10143,12 @@
         <v>10</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
@@ -10154,12 +10163,12 @@
         <v>10</v>
       </c>
       <c r="F472">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B473" t="s">
         <v>7</v>
@@ -10179,13 +10188,13 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
       </c>
       <c r="C474" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D474" t="s">
         <v>20</v>
@@ -10194,12 +10203,12 @@
         <v>11</v>
       </c>
       <c r="F474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B475" t="s">
         <v>7</v>
@@ -10214,12 +10223,12 @@
         <v>11</v>
       </c>
       <c r="F475">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B476" t="s">
         <v>7</v>
@@ -10234,12 +10243,12 @@
         <v>11</v>
       </c>
       <c r="F476">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
@@ -10254,12 +10263,12 @@
         <v>11</v>
       </c>
       <c r="F477">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B478" t="s">
         <v>7</v>
@@ -10279,7 +10288,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -10294,12 +10303,12 @@
         <v>12</v>
       </c>
       <c r="F479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
@@ -10314,12 +10323,12 @@
         <v>12</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -10334,12 +10343,12 @@
         <v>12</v>
       </c>
       <c r="F481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B482" t="s">
         <v>6</v>
@@ -10354,12 +10363,12 @@
         <v>9</v>
       </c>
       <c r="F482">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
@@ -10379,7 +10388,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
@@ -10394,12 +10403,12 @@
         <v>10</v>
       </c>
       <c r="F484">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
@@ -10419,7 +10428,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
@@ -10439,7 +10448,7 @@
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
@@ -10459,7 +10468,7 @@
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
@@ -10474,12 +10483,12 @@
         <v>10</v>
       </c>
       <c r="F488">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
@@ -10494,12 +10503,12 @@
         <v>11</v>
       </c>
       <c r="F489">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
@@ -10514,12 +10523,12 @@
         <v>11</v>
       </c>
       <c r="F490">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
@@ -10534,12 +10543,12 @@
         <v>11</v>
       </c>
       <c r="F491">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
@@ -10554,12 +10563,12 @@
         <v>11</v>
       </c>
       <c r="F492">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
@@ -10574,12 +10583,12 @@
         <v>11</v>
       </c>
       <c r="F493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
@@ -10594,12 +10603,12 @@
         <v>12</v>
       </c>
       <c r="F494">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
@@ -10614,12 +10623,12 @@
         <v>12</v>
       </c>
       <c r="F495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
@@ -10634,12 +10643,12 @@
         <v>12</v>
       </c>
       <c r="F496">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
@@ -10654,12 +10663,12 @@
         <v>9</v>
       </c>
       <c r="F497">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B498" t="s">
         <v>7</v>
@@ -10679,7 +10688,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B499" t="s">
         <v>7</v>
@@ -10699,7 +10708,7 @@
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B500" t="s">
         <v>7</v>
@@ -10714,12 +10723,12 @@
         <v>10</v>
       </c>
       <c r="F500">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -10734,12 +10743,12 @@
         <v>10</v>
       </c>
       <c r="F501">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B502" t="s">
         <v>7</v>
@@ -10754,12 +10763,12 @@
         <v>10</v>
       </c>
       <c r="F502">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B503" t="s">
         <v>7</v>
@@ -10779,7 +10788,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B504" t="s">
         <v>7</v>
@@ -10794,12 +10803,12 @@
         <v>11</v>
       </c>
       <c r="F504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B505" t="s">
         <v>7</v>
@@ -10814,12 +10823,12 @@
         <v>11</v>
       </c>
       <c r="F505">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -10834,12 +10843,12 @@
         <v>11</v>
       </c>
       <c r="F506">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B507" t="s">
         <v>7</v>
@@ -10854,12 +10863,12 @@
         <v>11</v>
       </c>
       <c r="F507">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -10879,16 +10888,16 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B509" t="s">
         <v>7</v>
       </c>
       <c r="C509" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D509" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E509" t="s">
         <v>12</v>
@@ -10899,7 +10908,7 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
@@ -10914,12 +10923,12 @@
         <v>12</v>
       </c>
       <c r="F510">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B511" t="s">
         <v>7</v>
@@ -10937,9 +10946,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>1</v>
+      </c>
+      <c r="B512" t="s">
+        <v>6</v>
+      </c>
+      <c r="C512" t="s">
+        <v>8</v>
+      </c>
+      <c r="D512" t="s">
+        <v>13</v>
+      </c>
+      <c r="E512" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>1</v>
+      </c>
+      <c r="B513" t="s">
+        <v>6</v>
+      </c>
+      <c r="C513" t="s">
+        <v>21</v>
+      </c>
+      <c r="D513" t="s">
+        <v>19</v>
+      </c>
+      <c r="E513" t="s">
+        <v>9</v>
+      </c>
+      <c r="F513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>1</v>
+      </c>
+      <c r="B514" t="s">
+        <v>6</v>
+      </c>
+      <c r="C514" t="s">
+        <v>22</v>
+      </c>
+      <c r="D514" t="s">
+        <v>14</v>
+      </c>
+      <c r="E514" t="s">
+        <v>10</v>
+      </c>
+      <c r="F514">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>1</v>
+      </c>
+      <c r="B515" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515" t="s">
+        <v>23</v>
+      </c>
+      <c r="D515" t="s">
+        <v>15</v>
+      </c>
+      <c r="E515" t="s">
+        <v>10</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>1</v>
+      </c>
+      <c r="B516" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516" t="s">
+        <v>24</v>
+      </c>
+      <c r="D516" t="s">
+        <v>16</v>
+      </c>
+      <c r="E516" t="s">
+        <v>10</v>
+      </c>
+      <c r="F516">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>1</v>
+      </c>
+      <c r="B517" t="s">
+        <v>6</v>
+      </c>
+      <c r="C517" t="s">
+        <v>26</v>
+      </c>
+      <c r="D517" t="s">
+        <v>17</v>
+      </c>
+      <c r="E517" t="s">
+        <v>10</v>
+      </c>
+      <c r="F517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>1</v>
+      </c>
+      <c r="B518" t="s">
+        <v>6</v>
+      </c>
+      <c r="C518" t="s">
+        <v>27</v>
+      </c>
+      <c r="D518" t="s">
+        <v>18</v>
+      </c>
+      <c r="E518" t="s">
+        <v>10</v>
+      </c>
+      <c r="F518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>1</v>
+      </c>
+      <c r="B519" t="s">
+        <v>6</v>
+      </c>
+      <c r="C519" t="s">
+        <v>25</v>
+      </c>
+      <c r="D519" t="s">
+        <v>13</v>
+      </c>
+      <c r="E519" t="s">
+        <v>11</v>
+      </c>
+      <c r="F519">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>1</v>
+      </c>
+      <c r="B520" t="s">
+        <v>6</v>
+      </c>
+      <c r="C520" t="s">
+        <v>28</v>
+      </c>
+      <c r="D520" t="s">
+        <v>13</v>
+      </c>
+      <c r="E520" t="s">
+        <v>11</v>
+      </c>
+      <c r="F520">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>1</v>
+      </c>
+      <c r="B521" t="s">
+        <v>6</v>
+      </c>
+      <c r="C521" t="s">
+        <v>29</v>
+      </c>
+      <c r="D521" t="s">
+        <v>19</v>
+      </c>
+      <c r="E521" t="s">
+        <v>11</v>
+      </c>
+      <c r="F521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>1</v>
+      </c>
+      <c r="B522" t="s">
+        <v>6</v>
+      </c>
+      <c r="C522" t="s">
+        <v>30</v>
+      </c>
+      <c r="D522" t="s">
+        <v>14</v>
+      </c>
+      <c r="E522" t="s">
+        <v>11</v>
+      </c>
+      <c r="F522">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>1</v>
+      </c>
+      <c r="B523" t="s">
+        <v>6</v>
+      </c>
+      <c r="C523" t="s">
+        <v>31</v>
+      </c>
+      <c r="D523" t="s">
+        <v>16</v>
+      </c>
+      <c r="E523" t="s">
+        <v>11</v>
+      </c>
+      <c r="F523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>1</v>
+      </c>
+      <c r="B524" t="s">
+        <v>6</v>
+      </c>
+      <c r="C524" t="s">
+        <v>32</v>
+      </c>
+      <c r="D524" t="s">
+        <v>20</v>
+      </c>
+      <c r="E524" t="s">
+        <v>12</v>
+      </c>
+      <c r="F524">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>1</v>
+      </c>
+      <c r="B525" t="s">
+        <v>6</v>
+      </c>
+      <c r="C525" t="s">
+        <v>33</v>
+      </c>
+      <c r="D525" t="s">
+        <v>17</v>
+      </c>
+      <c r="E525" t="s">
+        <v>12</v>
+      </c>
+      <c r="F525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>1</v>
+      </c>
+      <c r="B526" t="s">
+        <v>6</v>
+      </c>
+      <c r="C526" t="s">
+        <v>34</v>
+      </c>
+      <c r="D526" t="s">
+        <v>15</v>
+      </c>
+      <c r="E526" t="s">
+        <v>12</v>
+      </c>
+      <c r="F526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>1</v>
+      </c>
+      <c r="B527" t="s">
+        <v>7</v>
+      </c>
+      <c r="C527" t="s">
+        <v>38</v>
+      </c>
+      <c r="D527" t="s">
+        <v>39</v>
+      </c>
+      <c r="E527" t="s">
+        <v>9</v>
+      </c>
+      <c r="F527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>1</v>
+      </c>
+      <c r="B528" t="s">
+        <v>7</v>
+      </c>
+      <c r="C528" t="s">
+        <v>62</v>
+      </c>
+      <c r="D528" t="s">
+        <v>44</v>
+      </c>
+      <c r="E528" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>1</v>
+      </c>
+      <c r="B529" t="s">
+        <v>7</v>
+      </c>
+      <c r="C529" t="s">
+        <v>40</v>
+      </c>
+      <c r="D529" t="s">
+        <v>16</v>
+      </c>
+      <c r="E529" t="s">
+        <v>10</v>
+      </c>
+      <c r="F529">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>1</v>
+      </c>
+      <c r="B530" t="s">
+        <v>7</v>
+      </c>
+      <c r="C530" t="s">
+        <v>41</v>
+      </c>
+      <c r="D530" t="s">
+        <v>20</v>
+      </c>
+      <c r="E530" t="s">
+        <v>10</v>
+      </c>
+      <c r="F530">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>1</v>
+      </c>
+      <c r="B531" t="s">
+        <v>7</v>
+      </c>
+      <c r="C531" t="s">
+        <v>42</v>
+      </c>
+      <c r="D531" t="s">
+        <v>43</v>
+      </c>
+      <c r="E531" t="s">
+        <v>10</v>
+      </c>
+      <c r="F531">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>1</v>
+      </c>
+      <c r="B532" t="s">
+        <v>7</v>
+      </c>
+      <c r="C532" t="s">
+        <v>45</v>
+      </c>
+      <c r="D532" t="s">
+        <v>19</v>
+      </c>
+      <c r="E532" t="s">
+        <v>10</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>1</v>
+      </c>
+      <c r="B533" t="s">
+        <v>7</v>
+      </c>
+      <c r="C533" t="s">
+        <v>46</v>
+      </c>
+      <c r="D533" t="s">
+        <v>49</v>
+      </c>
+      <c r="E533" t="s">
+        <v>10</v>
+      </c>
+      <c r="F533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>1</v>
+      </c>
+      <c r="B534" t="s">
+        <v>7</v>
+      </c>
+      <c r="C534" t="s">
+        <v>50</v>
+      </c>
+      <c r="D534" t="s">
+        <v>20</v>
+      </c>
+      <c r="E534" t="s">
+        <v>11</v>
+      </c>
+      <c r="F534">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>1</v>
+      </c>
+      <c r="B535" t="s">
+        <v>7</v>
+      </c>
+      <c r="C535" t="s">
+        <v>51</v>
+      </c>
+      <c r="D535" t="s">
+        <v>52</v>
+      </c>
+      <c r="E535" t="s">
+        <v>11</v>
+      </c>
+      <c r="F535">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>1</v>
+      </c>
+      <c r="B536" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536" t="s">
+        <v>53</v>
+      </c>
+      <c r="D536" t="s">
+        <v>54</v>
+      </c>
+      <c r="E536" t="s">
+        <v>11</v>
+      </c>
+      <c r="F536">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>1</v>
+      </c>
+      <c r="B537" t="s">
+        <v>7</v>
+      </c>
+      <c r="C537" t="s">
+        <v>55</v>
+      </c>
+      <c r="D537" t="s">
+        <v>19</v>
+      </c>
+      <c r="E537" t="s">
+        <v>11</v>
+      </c>
+      <c r="F537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>1</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+      <c r="C538" t="s">
+        <v>47</v>
+      </c>
+      <c r="D538" t="s">
+        <v>48</v>
+      </c>
+      <c r="E538" t="s">
+        <v>11</v>
+      </c>
+      <c r="F538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>1</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+      <c r="C539" t="s">
+        <v>56</v>
+      </c>
+      <c r="D539" t="s">
+        <v>14</v>
+      </c>
+      <c r="E539" t="s">
+        <v>12</v>
+      </c>
+      <c r="F539">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>1</v>
+      </c>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+      <c r="C540" t="s">
+        <v>57</v>
+      </c>
+      <c r="D540" t="s">
+        <v>43</v>
+      </c>
+      <c r="E540" t="s">
+        <v>12</v>
+      </c>
+      <c r="F540">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>1</v>
+      </c>
+      <c r="B541" t="s">
+        <v>7</v>
+      </c>
+      <c r="C541" t="s">
+        <v>58</v>
+      </c>
+      <c r="D541" t="s">
+        <v>19</v>
+      </c>
+      <c r="E541" t="s">
+        <v>12</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A242:F511">
-    <sortCondition descending="1" ref="A242:A511"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A272:F541">
+    <sortCondition descending="1" ref="A272:A541"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10947,10 +11556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11001,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -11013,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -11025,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -11037,7 +11646,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -11049,7 +11658,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -11061,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -11073,7 +11682,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -11085,7 +11694,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -11097,7 +11706,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -11109,7 +11718,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -11121,7 +11730,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -11133,7 +11742,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -11145,7 +11754,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -11157,7 +11766,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -11169,7 +11778,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -11181,7 +11790,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -11193,7 +11802,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -11205,7 +11814,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -11217,7 +11826,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -11229,7 +11838,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -11241,7 +11850,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -11253,7 +11862,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -11265,7 +11874,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"Bazzers Ballers",'Weekly Points'!$A$152:$A$511,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -11277,7 +11886,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$511,'Weekly Points'!$B$152:$B$511,"WHU-Tang-Clan",'Weekly Points'!$A$152:$A$511,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -11289,7 +11898,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$511,'Weekly Points'!$B$122:$B$511,A28,'Weekly Points'!$A$122:$A$511,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$541,'Weekly Points'!$B$152:$B$541,A28,'Weekly Points'!$A$152:$A$541,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -11301,7 +11910,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$511,'Weekly Points'!$B$122:$B$511,A29,'Weekly Points'!$A$122:$A$511,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$541,'Weekly Points'!$B$152:$B$541,A29,'Weekly Points'!$A$152:$A$541,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -11313,7 +11922,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$511,'Weekly Points'!$B$92:$B$511,A30,'Weekly Points'!$A$92:$A$511,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$541,'Weekly Points'!$B$122:$B$541,A30,'Weekly Points'!$A$122:$A$541,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -11325,7 +11934,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$511,'Weekly Points'!$B$92:$B$511,A31,'Weekly Points'!$A$92:$A$511,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$541,'Weekly Points'!$B$122:$B$541,A31,'Weekly Points'!$A$122:$A$541,B31)+C29</f>
         <v>680</v>
       </c>
     </row>
@@ -11337,7 +11946,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$511,'Weekly Points'!$B$62:$B$511,A32,'Weekly Points'!$A$62:$A$511,B32)+C30</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$541,'Weekly Points'!$B$92:$B$541,A32,'Weekly Points'!$A$92:$A$541,B32)+C30</f>
         <v>818</v>
       </c>
     </row>
@@ -11349,7 +11958,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$511,'Weekly Points'!$B$62:$B$511,A33,'Weekly Points'!$A$62:$A$511,B33)+C31</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$541,'Weekly Points'!$B$92:$B$541,A33,'Weekly Points'!$A$92:$A$541,B33)+C31</f>
         <v>723</v>
       </c>
     </row>
@@ -11361,7 +11970,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$511,'Weekly Points'!$B$32:$B$511,A34,'Weekly Points'!$A$32:$A$511,B34)+C32</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$541,'Weekly Points'!$B$62:$B$541,A34,'Weekly Points'!$A$62:$A$541,B34)+C32</f>
         <v>876</v>
       </c>
     </row>
@@ -11373,7 +11982,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$511,'Weekly Points'!$B$32:$B$511,A35,'Weekly Points'!$A$32:$A$511,B35)+C33</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$541,'Weekly Points'!$B$62:$B$541,A35,'Weekly Points'!$A$62:$A$541,B35)+C33</f>
         <v>763</v>
       </c>
     </row>
@@ -11385,7 +11994,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$511,'Weekly Points'!$B$2:$B$511,A36,'Weekly Points'!$A$2:$A$511,B36)+C34</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$541,'Weekly Points'!$B$32:$B$541,A36,'Weekly Points'!$A$32:$A$541,B36)+C34</f>
         <v>950</v>
       </c>
     </row>
@@ -11397,8 +12006,32 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$511,'Weekly Points'!$B$2:$B$511,A37,'Weekly Points'!$A$2:$A$511,B37)+C35</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$541,'Weekly Points'!$B$32:$B$541,A37,'Weekly Points'!$A$32:$A$541,B37)+C35</f>
         <v>812</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$541,'Weekly Points'!$B$2:$B$541,A38,'Weekly Points'!$A$2:$A$541,B38)+C36</f>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$541,'Weekly Points'!$B$2:$B$541,A39,'Weekly Points'!$A$2:$A$541,B39)+C37</f>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D4DF89-7CED-42AE-AB2B-C0EA13754FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B45A42-2DF6-4BEC-A2EA-D26814761AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="102">
   <si>
     <t>Gameweek</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>Kluivert</t>
+  </si>
+  <si>
+    <t>Pickford</t>
   </si>
 </sst>
 </file>
@@ -711,13 +714,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F541"/>
+  <dimension ref="A1:F571"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -747,16 +750,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -767,7 +770,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -787,7 +790,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -802,12 +805,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -822,12 +825,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -847,7 +850,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -862,12 +865,12 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -882,12 +885,12 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -902,12 +905,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -927,7 +930,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -942,12 +945,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -962,12 +965,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -982,12 +985,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1002,12 +1005,12 @@
         <v>12</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1027,7 +1030,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -1042,12 +1045,12 @@
         <v>12</v>
       </c>
       <c r="F16">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1062,12 +1065,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1087,7 +1090,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1102,12 +1105,12 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1122,12 +1125,12 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1142,12 +1145,12 @@
         <v>10</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1162,12 +1165,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1202,12 +1205,12 @@
         <v>11</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1222,12 +1225,12 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1242,12 +1245,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1267,7 +1270,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1282,12 +1285,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1302,32 +1305,32 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1342,12 +1345,12 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -1367,7 +1370,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1402,12 +1405,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1422,12 +1425,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1482,12 +1485,12 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1502,12 +1505,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1527,7 +1530,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1542,12 +1545,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1562,52 +1565,52 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E44" t="s">
         <v>12</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1622,12 +1625,12 @@
         <v>12</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1642,12 +1645,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1662,12 +1665,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1682,12 +1685,12 @@
         <v>9</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1702,12 +1705,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1727,7 +1730,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1742,12 +1745,12 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1762,12 +1765,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1787,27 +1790,27 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1822,12 +1825,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1842,12 +1845,12 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1862,12 +1865,12 @@
         <v>11</v>
       </c>
       <c r="F57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1882,32 +1885,32 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
         <v>12</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1962,12 +1965,12 @@
         <v>9</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1987,7 +1990,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2002,12 +2005,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2042,12 +2045,12 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2082,12 +2085,12 @@
         <v>10</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2102,12 +2105,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2122,633 +2125,633 @@
         <v>11</v>
       </c>
       <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" t="s">
+        <v>9</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>17</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D80" t="s">
+        <v>66</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>17</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>17</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>17</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>17</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>17</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>17</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" t="s">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94" t="s">
+        <v>89</v>
+      </c>
+      <c r="D94" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>86</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+      <c r="E95" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>87</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>81</v>
+      </c>
+      <c r="D99" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100">
         <f>-4+1</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>16</v>
-      </c>
-      <c r="B71" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" t="s">
-        <v>53</v>
-      </c>
-      <c r="D71" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" t="s">
-        <v>11</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>16</v>
-      </c>
-      <c r="B72" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>16</v>
-      </c>
-      <c r="B73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>16</v>
-      </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="C74" t="s">
-        <v>75</v>
-      </c>
-      <c r="D74" t="s">
-        <v>17</v>
-      </c>
-      <c r="E74" t="s">
-        <v>12</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>16</v>
-      </c>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" t="s">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s">
-        <v>12</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>16</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76" t="s">
-        <v>91</v>
-      </c>
-      <c r="D76" t="s">
-        <v>44</v>
-      </c>
-      <c r="E76" t="s">
-        <v>12</v>
-      </c>
-      <c r="F76">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>16</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" t="s">
-        <v>65</v>
-      </c>
-      <c r="D77" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" t="s">
-        <v>9</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>16</v>
-      </c>
-      <c r="B78" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E78" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>16</v>
-      </c>
-      <c r="B79" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>16</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" t="s">
-        <v>66</v>
-      </c>
-      <c r="E80" t="s">
-        <v>10</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
-      <c r="F81">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" t="s">
-        <v>69</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>16</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-      <c r="E83" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>16</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E84" t="s">
-        <v>11</v>
-      </c>
-      <c r="F84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>16</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" t="s">
-        <v>51</v>
-      </c>
-      <c r="D85" t="s">
-        <v>52</v>
-      </c>
-      <c r="E85" t="s">
-        <v>11</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>16</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>53</v>
-      </c>
-      <c r="D86" t="s">
-        <v>54</v>
-      </c>
-      <c r="E86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F86">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>16</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" t="s">
-        <v>80</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" t="s">
-        <v>11</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" t="s">
-        <v>73</v>
-      </c>
-      <c r="D88" t="s">
-        <v>52</v>
-      </c>
-      <c r="E88" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>16</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" t="s">
-        <v>75</v>
-      </c>
-      <c r="D89" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>16</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" t="s">
-        <v>85</v>
-      </c>
-      <c r="D90" t="s">
-        <v>17</v>
-      </c>
-      <c r="E90" t="s">
-        <v>12</v>
-      </c>
-      <c r="F90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>16</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D91" t="s">
-        <v>69</v>
-      </c>
-      <c r="E91" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>15</v>
-      </c>
-      <c r="B92" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" t="s">
-        <v>9</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>15</v>
-      </c>
-      <c r="B93" t="s">
-        <v>6</v>
-      </c>
-      <c r="C93" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
-      </c>
-      <c r="E93" t="s">
-        <v>9</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>15</v>
-      </c>
-      <c r="B94" t="s">
-        <v>6</v>
-      </c>
-      <c r="C94" t="s">
-        <v>89</v>
-      </c>
-      <c r="D94" t="s">
-        <v>43</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>15</v>
-      </c>
-      <c r="B95" t="s">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
-        <v>86</v>
-      </c>
-      <c r="D95" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>15</v>
-      </c>
-      <c r="B96" t="s">
-        <v>6</v>
-      </c>
-      <c r="C96" t="s">
-        <v>94</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-      <c r="E96" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>15</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>88</v>
-      </c>
-      <c r="D97" t="s">
-        <v>78</v>
-      </c>
-      <c r="E97" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>15</v>
-      </c>
-      <c r="B98" t="s">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" t="s">
-        <v>17</v>
-      </c>
-      <c r="E98" t="s">
-        <v>10</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>15</v>
-      </c>
-      <c r="B99" t="s">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>81</v>
-      </c>
-      <c r="D99" t="s">
-        <v>39</v>
-      </c>
-      <c r="E99" t="s">
-        <v>11</v>
-      </c>
-      <c r="F99">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>15</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
       </c>
       <c r="F101">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -2763,12 +2766,12 @@
         <v>11</v>
       </c>
       <c r="F102">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -2783,12 +2786,12 @@
         <v>11</v>
       </c>
       <c r="F103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -2803,12 +2806,12 @@
         <v>12</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -2823,12 +2826,12 @@
         <v>12</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -2843,12 +2846,12 @@
         <v>12</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -2863,12 +2866,12 @@
         <v>9</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -2888,7 +2891,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -2903,32 +2906,32 @@
         <v>10</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D110" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E110" t="s">
         <v>10</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -2943,12 +2946,12 @@
         <v>10</v>
       </c>
       <c r="F111">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -2963,12 +2966,12 @@
         <v>10</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -2983,12 +2986,12 @@
         <v>10</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3003,12 +3006,12 @@
         <v>11</v>
       </c>
       <c r="F114">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3023,12 +3026,12 @@
         <v>11</v>
       </c>
       <c r="F115">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3043,12 +3046,12 @@
         <v>11</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3068,7 +3071,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3083,12 +3086,12 @@
         <v>11</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3103,12 +3106,12 @@
         <v>12</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3128,7 +3131,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3143,12 +3146,12 @@
         <v>12</v>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -3163,12 +3166,12 @@
         <v>9</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -3188,7 +3191,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -3208,7 +3211,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -3223,12 +3226,12 @@
         <v>10</v>
       </c>
       <c r="F125">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -3268,7 +3271,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -3277,7 +3280,7 @@
         <v>87</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
         <v>10</v>
@@ -3288,7 +3291,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -3303,12 +3306,12 @@
         <v>11</v>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -3323,32 +3326,32 @@
         <v>11</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D131" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3363,12 +3366,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3383,12 +3386,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3403,12 +3406,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3423,12 +3426,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3443,12 +3446,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3463,12 +3466,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3483,12 +3486,12 @@
         <v>9</v>
       </c>
       <c r="F138">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3528,27 +3531,27 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D141" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E141" t="s">
         <v>10</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3563,12 +3566,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3588,27 +3591,27 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3623,12 +3626,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3643,12 +3646,12 @@
         <v>11</v>
       </c>
       <c r="F146">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3663,12 +3666,12 @@
         <v>11</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3683,12 +3686,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3703,12 +3706,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3723,12 +3726,12 @@
         <v>12</v>
       </c>
       <c r="F150">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3743,12 +3746,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3763,12 +3766,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3788,7 +3791,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3803,12 +3806,12 @@
         <v>10</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3823,32 +3826,32 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>6</v>
+      </c>
+      <c r="C156" t="s">
+        <v>94</v>
+      </c>
+      <c r="D156" t="s">
         <v>13</v>
       </c>
-      <c r="B156" t="s">
-        <v>6</v>
-      </c>
-      <c r="C156" t="s">
-        <v>76</v>
-      </c>
-      <c r="D156" t="s">
-        <v>54</v>
-      </c>
       <c r="E156" t="s">
         <v>10</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3863,12 +3866,12 @@
         <v>10</v>
       </c>
       <c r="F157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3888,7 +3891,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3908,7 +3911,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3928,7 +3931,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -3943,12 +3946,12 @@
         <v>11</v>
       </c>
       <c r="F161">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3963,12 +3966,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3983,12 +3986,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4003,12 +4006,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4023,12 +4026,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4043,12 +4046,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4068,7 +4071,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4083,12 +4086,12 @@
         <v>9</v>
       </c>
       <c r="F168">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4103,12 +4106,12 @@
         <v>10</v>
       </c>
       <c r="F169">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4128,7 +4131,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -4148,7 +4151,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4163,12 +4166,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4188,7 +4191,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -4208,7 +4211,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4223,12 +4226,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4243,12 +4246,12 @@
         <v>11</v>
       </c>
       <c r="F176">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4263,12 +4266,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4283,12 +4286,12 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4303,12 +4306,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4323,12 +4326,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4343,12 +4346,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4363,12 +4366,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4388,33 +4391,33 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
       </c>
       <c r="C184" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D184" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E184" t="s">
         <v>10</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
       </c>
       <c r="C185" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D185" t="s">
         <v>35</v>
@@ -4423,12 +4426,12 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -4448,33 +4451,33 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D187" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E187" t="s">
         <v>10</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
       </c>
       <c r="C188" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D188" t="s">
         <v>18</v>
@@ -4488,7 +4491,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4503,21 +4506,21 @@
         <v>11</v>
       </c>
       <c r="F189">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
       </c>
       <c r="C190" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D190" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -4528,27 +4531,27 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
       </c>
       <c r="C191" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D191" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E191" t="s">
         <v>11</v>
       </c>
       <c r="F191">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4563,92 +4566,92 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D193" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E193" t="s">
         <v>11</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
       </c>
       <c r="C194" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D194" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E194" t="s">
         <v>12</v>
       </c>
       <c r="F194">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
       </c>
       <c r="C195" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D195" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E195" t="s">
         <v>12</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E196" t="s">
         <v>12</v>
       </c>
       <c r="F196">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4663,12 +4666,12 @@
         <v>9</v>
       </c>
       <c r="F197">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4683,12 +4686,12 @@
         <v>9</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4703,12 +4706,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4728,7 +4731,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4748,7 +4751,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4763,12 +4766,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4783,12 +4786,12 @@
         <v>10</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4803,12 +4806,12 @@
         <v>11</v>
       </c>
       <c r="F204">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4823,32 +4826,32 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D206" t="s">
+        <v>54</v>
+      </c>
+      <c r="E206" t="s">
+        <v>11</v>
+      </c>
+      <c r="F206">
         <v>13</v>
-      </c>
-      <c r="E206" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206">
-        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4863,12 +4866,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4888,7 +4891,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4908,16 +4911,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D210" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
@@ -4928,7 +4931,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4943,12 +4946,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4963,12 +4966,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4988,7 +4991,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
@@ -5008,7 +5011,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
@@ -5023,12 +5026,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5043,12 +5046,12 @@
         <v>10</v>
       </c>
       <c r="F216">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
@@ -5063,12 +5066,12 @@
         <v>10</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5103,41 +5106,41 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D220" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
@@ -5148,7 +5151,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5168,7 +5171,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
@@ -5183,12 +5186,12 @@
         <v>11</v>
       </c>
       <c r="F223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
@@ -5203,12 +5206,12 @@
         <v>12</v>
       </c>
       <c r="F224">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -5223,12 +5226,12 @@
         <v>12</v>
       </c>
       <c r="F225">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
@@ -5243,12 +5246,12 @@
         <v>12</v>
       </c>
       <c r="F226">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5263,12 +5266,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5283,12 +5286,12 @@
         <v>9</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5303,12 +5306,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5323,12 +5326,12 @@
         <v>10</v>
       </c>
       <c r="F230">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5348,7 +5351,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5363,12 +5366,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5383,12 +5386,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5403,12 +5406,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5428,7 +5431,7 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
@@ -5448,7 +5451,7 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5463,12 +5466,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5488,7 +5491,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5508,7 +5511,7 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
@@ -5523,12 +5526,12 @@
         <v>12</v>
       </c>
       <c r="F240">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5543,12 +5546,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5563,12 +5566,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5588,7 +5591,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5608,7 +5611,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5623,12 +5626,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5643,12 +5646,12 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5668,7 +5671,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5688,7 +5691,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5703,12 +5706,12 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
@@ -5723,12 +5726,12 @@
         <v>11</v>
       </c>
       <c r="F250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
@@ -5743,12 +5746,12 @@
         <v>11</v>
       </c>
       <c r="F251">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5763,12 +5766,12 @@
         <v>11</v>
       </c>
       <c r="F252">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5783,12 +5786,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5803,12 +5806,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5823,12 +5826,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5843,12 +5846,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5868,7 +5871,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5883,12 +5886,12 @@
         <v>9</v>
       </c>
       <c r="F258">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5908,7 +5911,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5923,12 +5926,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5963,12 +5966,12 @@
         <v>10</v>
       </c>
       <c r="F262">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5983,12 +5986,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -6003,12 +6006,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6023,12 +6026,12 @@
         <v>11</v>
       </c>
       <c r="F265">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6048,7 +6051,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6068,7 +6071,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6103,12 +6106,12 @@
         <v>12</v>
       </c>
       <c r="F269">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6123,32 +6126,32 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
       </c>
       <c r="C271" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D271" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E271" t="s">
         <v>12</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6163,12 +6166,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6188,7 +6191,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6203,12 +6206,12 @@
         <v>10</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6223,12 +6226,12 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6248,7 +6251,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6263,12 +6266,12 @@
         <v>10</v>
       </c>
       <c r="F277">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6288,27 +6291,27 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
       </c>
       <c r="C279" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D279" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E279" t="s">
         <v>11</v>
       </c>
       <c r="F279">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6328,7 +6331,7 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6343,12 +6346,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6363,12 +6366,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6403,32 +6406,32 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D285" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E285" t="s">
         <v>12</v>
       </c>
       <c r="F285">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6443,12 +6446,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6468,27 +6471,27 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
       </c>
       <c r="C288" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D288" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E288" t="s">
         <v>9</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6503,12 +6506,12 @@
         <v>10</v>
       </c>
       <c r="F289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6528,7 +6531,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6543,12 +6546,12 @@
         <v>10</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6583,12 +6586,12 @@
         <v>10</v>
       </c>
       <c r="F293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6603,12 +6606,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6623,12 +6626,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6648,7 +6651,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6663,12 +6666,12 @@
         <v>11</v>
       </c>
       <c r="F297">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6688,7 +6691,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6703,12 +6706,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6723,12 +6726,12 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
@@ -6743,12 +6746,12 @@
         <v>12</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6763,12 +6766,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6788,7 +6791,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6808,7 +6811,7 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6828,27 +6831,27 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
       </c>
       <c r="C306" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D306" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E306" t="s">
         <v>10</v>
       </c>
       <c r="F306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6868,7 +6871,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6888,7 +6891,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
@@ -6903,12 +6906,12 @@
         <v>11</v>
       </c>
       <c r="F309">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6923,12 +6926,12 @@
         <v>11</v>
       </c>
       <c r="F310">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6943,12 +6946,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6963,12 +6966,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6983,12 +6986,12 @@
         <v>11</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7003,12 +7006,12 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
@@ -7028,7 +7031,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7043,12 +7046,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7063,12 +7066,12 @@
         <v>9</v>
       </c>
       <c r="F317">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
@@ -7088,7 +7091,7 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7108,7 +7111,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7128,7 +7131,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7148,7 +7151,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7168,7 +7171,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7183,12 +7186,12 @@
         <v>10</v>
       </c>
       <c r="F323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7203,12 +7206,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7223,12 +7226,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7248,27 +7251,27 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
       </c>
       <c r="C327" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D327" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E327" t="s">
         <v>11</v>
       </c>
       <c r="F327">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7283,12 +7286,12 @@
         <v>11</v>
       </c>
       <c r="F328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7303,12 +7306,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7323,12 +7326,12 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7348,7 +7351,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7363,12 +7366,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7388,7 +7391,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7408,7 +7411,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7423,12 +7426,12 @@
         <v>10</v>
       </c>
       <c r="F335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
@@ -7448,7 +7451,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7463,12 +7466,12 @@
         <v>10</v>
       </c>
       <c r="F337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7488,7 +7491,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7508,27 +7511,27 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D340" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E340" t="s">
         <v>11</v>
       </c>
       <c r="F340">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7543,12 +7546,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7563,12 +7566,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7583,12 +7586,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7608,7 +7611,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7628,7 +7631,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7643,12 +7646,12 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7663,12 +7666,12 @@
         <v>9</v>
       </c>
       <c r="F347">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7688,7 +7691,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7703,21 +7706,21 @@
         <v>10</v>
       </c>
       <c r="F349">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
       </c>
       <c r="C350" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D350" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E350" t="s">
         <v>10</v>
@@ -7728,7 +7731,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7743,12 +7746,12 @@
         <v>10</v>
       </c>
       <c r="F351">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7768,7 +7771,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7783,12 +7786,12 @@
         <v>10</v>
       </c>
       <c r="F353">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7803,12 +7806,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7823,12 +7826,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7848,7 +7851,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
@@ -7868,7 +7871,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7883,12 +7886,12 @@
         <v>11</v>
       </c>
       <c r="F358">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7908,7 +7911,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7928,7 +7931,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7943,12 +7946,12 @@
         <v>12</v>
       </c>
       <c r="F361">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7963,12 +7966,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7988,7 +7991,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8003,12 +8006,12 @@
         <v>10</v>
       </c>
       <c r="F364">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8023,12 +8026,12 @@
         <v>10</v>
       </c>
       <c r="F365">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8048,7 +8051,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8063,12 +8066,12 @@
         <v>10</v>
       </c>
       <c r="F367">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8088,7 +8091,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8103,12 +8106,12 @@
         <v>11</v>
       </c>
       <c r="F369">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
@@ -8128,7 +8131,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8143,12 +8146,12 @@
         <v>11</v>
       </c>
       <c r="F371">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8163,12 +8166,12 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8183,12 +8186,12 @@
         <v>11</v>
       </c>
       <c r="F373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8208,7 +8211,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8228,16 +8231,16 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
       </c>
       <c r="C376" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D376" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E376" t="s">
         <v>12</v>
@@ -8248,7 +8251,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8268,7 +8271,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8288,13 +8291,13 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
       </c>
       <c r="C379" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D379" t="s">
         <v>16</v>
@@ -8303,12 +8306,12 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
@@ -8323,12 +8326,12 @@
         <v>10</v>
       </c>
       <c r="F380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8343,12 +8346,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8388,7 +8391,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -8403,12 +8406,12 @@
         <v>11</v>
       </c>
       <c r="F384">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8423,12 +8426,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8443,12 +8446,12 @@
         <v>11</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8463,12 +8466,12 @@
         <v>11</v>
       </c>
       <c r="F387">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8483,12 +8486,12 @@
         <v>11</v>
       </c>
       <c r="F388">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -8503,12 +8506,12 @@
         <v>12</v>
       </c>
       <c r="F389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8528,7 +8531,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8543,12 +8546,12 @@
         <v>12</v>
       </c>
       <c r="F391">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8563,12 +8566,12 @@
         <v>9</v>
       </c>
       <c r="F392">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8588,7 +8591,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8603,12 +8606,12 @@
         <v>10</v>
       </c>
       <c r="F394">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8623,12 +8626,12 @@
         <v>10</v>
       </c>
       <c r="F395">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8643,12 +8646,12 @@
         <v>10</v>
       </c>
       <c r="F396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -8663,12 +8666,12 @@
         <v>10</v>
       </c>
       <c r="F397">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8688,7 +8691,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -8703,12 +8706,12 @@
         <v>11</v>
       </c>
       <c r="F399">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -8723,12 +8726,12 @@
         <v>11</v>
       </c>
       <c r="F400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8748,27 +8751,27 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
       </c>
       <c r="C402" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D402" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E402" t="s">
         <v>11</v>
       </c>
       <c r="F402">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -8788,7 +8791,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8803,12 +8806,12 @@
         <v>12</v>
       </c>
       <c r="F404">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8823,12 +8826,12 @@
         <v>12</v>
       </c>
       <c r="F405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
@@ -8843,12 +8846,12 @@
         <v>12</v>
       </c>
       <c r="F406">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -8863,12 +8866,12 @@
         <v>9</v>
       </c>
       <c r="F407">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -8888,7 +8891,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
@@ -8903,12 +8906,12 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -8923,12 +8926,12 @@
         <v>10</v>
       </c>
       <c r="F410">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -8943,12 +8946,12 @@
         <v>10</v>
       </c>
       <c r="F411">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -8968,7 +8971,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -8983,12 +8986,12 @@
         <v>10</v>
       </c>
       <c r="F413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -9008,7 +9011,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9023,12 +9026,12 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -9043,12 +9046,12 @@
         <v>11</v>
       </c>
       <c r="F416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -9063,12 +9066,12 @@
         <v>11</v>
       </c>
       <c r="F417">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -9083,18 +9086,18 @@
         <v>11</v>
       </c>
       <c r="F418">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
       </c>
       <c r="C419" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D419" t="s">
         <v>17</v>
@@ -9103,12 +9106,12 @@
         <v>12</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -9123,12 +9126,12 @@
         <v>12</v>
       </c>
       <c r="F420">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -9143,12 +9146,12 @@
         <v>12</v>
       </c>
       <c r="F421">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
@@ -9163,12 +9166,12 @@
         <v>9</v>
       </c>
       <c r="F422">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
@@ -9188,7 +9191,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
@@ -9208,7 +9211,7 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -9228,7 +9231,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -9243,12 +9246,12 @@
         <v>10</v>
       </c>
       <c r="F426">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
@@ -9268,7 +9271,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
@@ -9288,27 +9291,27 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
       </c>
       <c r="C429" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D429" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E429" t="s">
         <v>11</v>
       </c>
       <c r="F429">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
@@ -9323,12 +9326,12 @@
         <v>11</v>
       </c>
       <c r="F430">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
@@ -9343,12 +9346,12 @@
         <v>11</v>
       </c>
       <c r="F431">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
@@ -9363,12 +9366,12 @@
         <v>11</v>
       </c>
       <c r="F432">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
@@ -9383,12 +9386,12 @@
         <v>11</v>
       </c>
       <c r="F433">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9403,12 +9406,12 @@
         <v>12</v>
       </c>
       <c r="F434">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9423,12 +9426,12 @@
         <v>12</v>
       </c>
       <c r="F435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9443,41 +9446,41 @@
         <v>12</v>
       </c>
       <c r="F436">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
       </c>
       <c r="C437" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D437" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E437" t="s">
         <v>9</v>
       </c>
       <c r="F437">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
       </c>
       <c r="C438" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D438" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E438" t="s">
         <v>9</v>
@@ -9488,13 +9491,13 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
       </c>
       <c r="C439" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D439" t="s">
         <v>16</v>
@@ -9503,81 +9506,81 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
       </c>
       <c r="C440" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D440" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E440" t="s">
         <v>10</v>
       </c>
       <c r="F440">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
       </c>
       <c r="C441" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D441" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E441" t="s">
         <v>10</v>
       </c>
       <c r="F441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
       </c>
       <c r="C442" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D442" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E442" t="s">
         <v>10</v>
       </c>
       <c r="F442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
       </c>
       <c r="C443" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D443" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E443" t="s">
         <v>10</v>
@@ -9588,27 +9591,27 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
       </c>
       <c r="C444" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D444" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E444" t="s">
         <v>11</v>
       </c>
       <c r="F444">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -9623,81 +9626,81 @@
         <v>11</v>
       </c>
       <c r="F445">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
       </c>
       <c r="C446" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D446" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E446" t="s">
         <v>11</v>
       </c>
       <c r="F446">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
       </c>
       <c r="C447" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D447" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E447" t="s">
         <v>11</v>
       </c>
       <c r="F447">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
       </c>
       <c r="C448" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D448" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E448" t="s">
         <v>11</v>
       </c>
       <c r="F448">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D449" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E449" t="s">
         <v>12</v>
@@ -9708,27 +9711,27 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
       </c>
       <c r="C450" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D450" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E450" t="s">
         <v>12</v>
       </c>
       <c r="F450">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -9748,7 +9751,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
@@ -9763,12 +9766,12 @@
         <v>9</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
@@ -9788,7 +9791,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
@@ -9803,12 +9806,12 @@
         <v>10</v>
       </c>
       <c r="F454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -9828,7 +9831,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -9843,12 +9846,12 @@
         <v>10</v>
       </c>
       <c r="F456">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -9863,12 +9866,12 @@
         <v>10</v>
       </c>
       <c r="F457">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -9888,7 +9891,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
@@ -9903,12 +9906,12 @@
         <v>11</v>
       </c>
       <c r="F459">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
@@ -9923,12 +9926,12 @@
         <v>11</v>
       </c>
       <c r="F460">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -9948,7 +9951,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -9963,32 +9966,32 @@
         <v>11</v>
       </c>
       <c r="F462">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
       </c>
       <c r="C463" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D463" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E463" t="s">
         <v>11</v>
       </c>
       <c r="F463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -10003,12 +10006,12 @@
         <v>12</v>
       </c>
       <c r="F464">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -10023,12 +10026,12 @@
         <v>12</v>
       </c>
       <c r="F465">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -10043,12 +10046,12 @@
         <v>12</v>
       </c>
       <c r="F466">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B467" t="s">
         <v>7</v>
@@ -10063,12 +10066,12 @@
         <v>9</v>
       </c>
       <c r="F467">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
@@ -10088,7 +10091,7 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B469" t="s">
         <v>7</v>
@@ -10103,12 +10106,12 @@
         <v>10</v>
       </c>
       <c r="F469">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B470" t="s">
         <v>7</v>
@@ -10123,12 +10126,12 @@
         <v>10</v>
       </c>
       <c r="F470">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B471" t="s">
         <v>7</v>
@@ -10143,12 +10146,12 @@
         <v>10</v>
       </c>
       <c r="F471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
@@ -10163,12 +10166,12 @@
         <v>10</v>
       </c>
       <c r="F472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B473" t="s">
         <v>7</v>
@@ -10188,7 +10191,7 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
@@ -10203,12 +10206,12 @@
         <v>11</v>
       </c>
       <c r="F474">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B475" t="s">
         <v>7</v>
@@ -10223,12 +10226,12 @@
         <v>11</v>
       </c>
       <c r="F475">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B476" t="s">
         <v>7</v>
@@ -10243,12 +10246,12 @@
         <v>11</v>
       </c>
       <c r="F476">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
@@ -10268,7 +10271,7 @@
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B478" t="s">
         <v>7</v>
@@ -10288,7 +10291,7 @@
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
@@ -10303,12 +10306,12 @@
         <v>12</v>
       </c>
       <c r="F479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
@@ -10323,32 +10326,32 @@
         <v>12</v>
       </c>
       <c r="F480">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
       </c>
       <c r="C481" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D481" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E481" t="s">
         <v>12</v>
       </c>
       <c r="F481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B482" t="s">
         <v>6</v>
@@ -10368,7 +10371,7 @@
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
@@ -10388,7 +10391,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
@@ -10403,12 +10406,12 @@
         <v>10</v>
       </c>
       <c r="F484">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
@@ -10417,7 +10420,7 @@
         <v>23</v>
       </c>
       <c r="D485" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E485" t="s">
         <v>10</v>
@@ -10428,7 +10431,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
@@ -10443,32 +10446,32 @@
         <v>10</v>
       </c>
       <c r="F486">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
       </c>
       <c r="C487" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D487" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E487" t="s">
         <v>10</v>
       </c>
       <c r="F487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
@@ -10483,12 +10486,12 @@
         <v>10</v>
       </c>
       <c r="F488">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
@@ -10508,16 +10511,16 @@
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
       </c>
       <c r="C490" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D490" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E490" t="s">
         <v>11</v>
@@ -10528,7 +10531,7 @@
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
@@ -10543,12 +10546,12 @@
         <v>11</v>
       </c>
       <c r="F491">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
@@ -10563,12 +10566,12 @@
         <v>11</v>
       </c>
       <c r="F492">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
@@ -10583,12 +10586,12 @@
         <v>11</v>
       </c>
       <c r="F493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
@@ -10608,7 +10611,7 @@
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
@@ -10623,12 +10626,12 @@
         <v>12</v>
       </c>
       <c r="F495">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
@@ -10648,7 +10651,7 @@
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
@@ -10668,7 +10671,7 @@
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B498" t="s">
         <v>7</v>
@@ -10688,7 +10691,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B499" t="s">
         <v>7</v>
@@ -10703,12 +10706,12 @@
         <v>10</v>
       </c>
       <c r="F499">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B500" t="s">
         <v>7</v>
@@ -10728,7 +10731,7 @@
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -10743,12 +10746,12 @@
         <v>10</v>
       </c>
       <c r="F501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B502" t="s">
         <v>7</v>
@@ -10763,12 +10766,12 @@
         <v>10</v>
       </c>
       <c r="F502">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B503" t="s">
         <v>7</v>
@@ -10788,13 +10791,13 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B504" t="s">
         <v>7</v>
       </c>
       <c r="C504" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D504" t="s">
         <v>20</v>
@@ -10803,12 +10806,12 @@
         <v>11</v>
       </c>
       <c r="F504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B505" t="s">
         <v>7</v>
@@ -10823,12 +10826,12 @@
         <v>11</v>
       </c>
       <c r="F505">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -10843,12 +10846,12 @@
         <v>11</v>
       </c>
       <c r="F506">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B507" t="s">
         <v>7</v>
@@ -10863,12 +10866,12 @@
         <v>11</v>
       </c>
       <c r="F507">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -10888,7 +10891,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B509" t="s">
         <v>7</v>
@@ -10903,12 +10906,12 @@
         <v>12</v>
       </c>
       <c r="F509">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
@@ -10923,12 +10926,12 @@
         <v>12</v>
       </c>
       <c r="F510">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B511" t="s">
         <v>7</v>
@@ -10943,12 +10946,12 @@
         <v>12</v>
       </c>
       <c r="F511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B512" t="s">
         <v>6</v>
@@ -10963,12 +10966,12 @@
         <v>9</v>
       </c>
       <c r="F512">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B513" t="s">
         <v>6</v>
@@ -10988,7 +10991,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
@@ -11003,12 +11006,12 @@
         <v>10</v>
       </c>
       <c r="F514">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
@@ -11028,7 +11031,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B516" t="s">
         <v>6</v>
@@ -11048,7 +11051,7 @@
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B517" t="s">
         <v>6</v>
@@ -11068,7 +11071,7 @@
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B518" t="s">
         <v>6</v>
@@ -11083,12 +11086,12 @@
         <v>10</v>
       </c>
       <c r="F518">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
@@ -11103,12 +11106,12 @@
         <v>11</v>
       </c>
       <c r="F519">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B520" t="s">
         <v>6</v>
@@ -11123,12 +11126,12 @@
         <v>11</v>
       </c>
       <c r="F520">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B521" t="s">
         <v>6</v>
@@ -11143,12 +11146,12 @@
         <v>11</v>
       </c>
       <c r="F521">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B522" t="s">
         <v>6</v>
@@ -11163,12 +11166,12 @@
         <v>11</v>
       </c>
       <c r="F522">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B523" t="s">
         <v>6</v>
@@ -11183,12 +11186,12 @@
         <v>11</v>
       </c>
       <c r="F523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B524" t="s">
         <v>6</v>
@@ -11203,12 +11206,12 @@
         <v>12</v>
       </c>
       <c r="F524">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B525" t="s">
         <v>6</v>
@@ -11223,12 +11226,12 @@
         <v>12</v>
       </c>
       <c r="F525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B526" t="s">
         <v>6</v>
@@ -11243,12 +11246,12 @@
         <v>12</v>
       </c>
       <c r="F526">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B527" t="s">
         <v>7</v>
@@ -11263,12 +11266,12 @@
         <v>9</v>
       </c>
       <c r="F527">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B528" t="s">
         <v>7</v>
@@ -11288,7 +11291,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B529" t="s">
         <v>7</v>
@@ -11308,7 +11311,7 @@
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
@@ -11323,12 +11326,12 @@
         <v>10</v>
       </c>
       <c r="F530">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B531" t="s">
         <v>7</v>
@@ -11343,12 +11346,12 @@
         <v>10</v>
       </c>
       <c r="F531">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B532" t="s">
         <v>7</v>
@@ -11363,12 +11366,12 @@
         <v>10</v>
       </c>
       <c r="F532">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B533" t="s">
         <v>7</v>
@@ -11388,7 +11391,7 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B534" t="s">
         <v>7</v>
@@ -11403,12 +11406,12 @@
         <v>11</v>
       </c>
       <c r="F534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B535" t="s">
         <v>7</v>
@@ -11423,12 +11426,12 @@
         <v>11</v>
       </c>
       <c r="F535">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B536" t="s">
         <v>7</v>
@@ -11443,12 +11446,12 @@
         <v>11</v>
       </c>
       <c r="F536">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -11463,12 +11466,12 @@
         <v>11</v>
       </c>
       <c r="F537">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
@@ -11488,16 +11491,16 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
       </c>
       <c r="C539" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D539" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E539" t="s">
         <v>12</v>
@@ -11508,7 +11511,7 @@
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B540" t="s">
         <v>7</v>
@@ -11523,12 +11526,12 @@
         <v>12</v>
       </c>
       <c r="F540">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B541" t="s">
         <v>7</v>
@@ -11546,9 +11549,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>1</v>
+      </c>
+      <c r="B542" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" t="s">
+        <v>8</v>
+      </c>
+      <c r="D542" t="s">
+        <v>13</v>
+      </c>
+      <c r="E542" t="s">
+        <v>9</v>
+      </c>
+      <c r="F542">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>1</v>
+      </c>
+      <c r="B543" t="s">
+        <v>6</v>
+      </c>
+      <c r="C543" t="s">
+        <v>21</v>
+      </c>
+      <c r="D543" t="s">
+        <v>19</v>
+      </c>
+      <c r="E543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>1</v>
+      </c>
+      <c r="B544" t="s">
+        <v>6</v>
+      </c>
+      <c r="C544" t="s">
+        <v>22</v>
+      </c>
+      <c r="D544" t="s">
+        <v>14</v>
+      </c>
+      <c r="E544" t="s">
+        <v>10</v>
+      </c>
+      <c r="F544">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>1</v>
+      </c>
+      <c r="B545" t="s">
+        <v>6</v>
+      </c>
+      <c r="C545" t="s">
+        <v>23</v>
+      </c>
+      <c r="D545" t="s">
+        <v>15</v>
+      </c>
+      <c r="E545" t="s">
+        <v>10</v>
+      </c>
+      <c r="F545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>1</v>
+      </c>
+      <c r="B546" t="s">
+        <v>6</v>
+      </c>
+      <c r="C546" t="s">
+        <v>24</v>
+      </c>
+      <c r="D546" t="s">
+        <v>16</v>
+      </c>
+      <c r="E546" t="s">
+        <v>10</v>
+      </c>
+      <c r="F546">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>1</v>
+      </c>
+      <c r="B547" t="s">
+        <v>6</v>
+      </c>
+      <c r="C547" t="s">
+        <v>26</v>
+      </c>
+      <c r="D547" t="s">
+        <v>17</v>
+      </c>
+      <c r="E547" t="s">
+        <v>10</v>
+      </c>
+      <c r="F547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>1</v>
+      </c>
+      <c r="B548" t="s">
+        <v>6</v>
+      </c>
+      <c r="C548" t="s">
+        <v>27</v>
+      </c>
+      <c r="D548" t="s">
+        <v>18</v>
+      </c>
+      <c r="E548" t="s">
+        <v>10</v>
+      </c>
+      <c r="F548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>1</v>
+      </c>
+      <c r="B549" t="s">
+        <v>6</v>
+      </c>
+      <c r="C549" t="s">
+        <v>25</v>
+      </c>
+      <c r="D549" t="s">
+        <v>13</v>
+      </c>
+      <c r="E549" t="s">
+        <v>11</v>
+      </c>
+      <c r="F549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>1</v>
+      </c>
+      <c r="B550" t="s">
+        <v>6</v>
+      </c>
+      <c r="C550" t="s">
+        <v>28</v>
+      </c>
+      <c r="D550" t="s">
+        <v>13</v>
+      </c>
+      <c r="E550" t="s">
+        <v>11</v>
+      </c>
+      <c r="F550">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>1</v>
+      </c>
+      <c r="B551" t="s">
+        <v>6</v>
+      </c>
+      <c r="C551" t="s">
+        <v>29</v>
+      </c>
+      <c r="D551" t="s">
+        <v>19</v>
+      </c>
+      <c r="E551" t="s">
+        <v>11</v>
+      </c>
+      <c r="F551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>1</v>
+      </c>
+      <c r="B552" t="s">
+        <v>6</v>
+      </c>
+      <c r="C552" t="s">
+        <v>30</v>
+      </c>
+      <c r="D552" t="s">
+        <v>14</v>
+      </c>
+      <c r="E552" t="s">
+        <v>11</v>
+      </c>
+      <c r="F552">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>1</v>
+      </c>
+      <c r="B553" t="s">
+        <v>6</v>
+      </c>
+      <c r="C553" t="s">
+        <v>31</v>
+      </c>
+      <c r="D553" t="s">
+        <v>16</v>
+      </c>
+      <c r="E553" t="s">
+        <v>11</v>
+      </c>
+      <c r="F553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>1</v>
+      </c>
+      <c r="B554" t="s">
+        <v>6</v>
+      </c>
+      <c r="C554" t="s">
+        <v>32</v>
+      </c>
+      <c r="D554" t="s">
+        <v>20</v>
+      </c>
+      <c r="E554" t="s">
+        <v>12</v>
+      </c>
+      <c r="F554">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>1</v>
+      </c>
+      <c r="B555" t="s">
+        <v>6</v>
+      </c>
+      <c r="C555" t="s">
+        <v>33</v>
+      </c>
+      <c r="D555" t="s">
+        <v>17</v>
+      </c>
+      <c r="E555" t="s">
+        <v>12</v>
+      </c>
+      <c r="F555">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>1</v>
+      </c>
+      <c r="B556" t="s">
+        <v>6</v>
+      </c>
+      <c r="C556" t="s">
+        <v>34</v>
+      </c>
+      <c r="D556" t="s">
+        <v>15</v>
+      </c>
+      <c r="E556" t="s">
+        <v>12</v>
+      </c>
+      <c r="F556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>1</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+      <c r="C557" t="s">
+        <v>38</v>
+      </c>
+      <c r="D557" t="s">
+        <v>39</v>
+      </c>
+      <c r="E557" t="s">
+        <v>9</v>
+      </c>
+      <c r="F557">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>1</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" t="s">
+        <v>62</v>
+      </c>
+      <c r="D558" t="s">
+        <v>44</v>
+      </c>
+      <c r="E558" t="s">
+        <v>9</v>
+      </c>
+      <c r="F558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>1</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+      <c r="C559" t="s">
+        <v>40</v>
+      </c>
+      <c r="D559" t="s">
+        <v>16</v>
+      </c>
+      <c r="E559" t="s">
+        <v>10</v>
+      </c>
+      <c r="F559">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>1</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+      <c r="C560" t="s">
+        <v>41</v>
+      </c>
+      <c r="D560" t="s">
+        <v>20</v>
+      </c>
+      <c r="E560" t="s">
+        <v>10</v>
+      </c>
+      <c r="F560">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>1</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+      <c r="C561" t="s">
+        <v>42</v>
+      </c>
+      <c r="D561" t="s">
+        <v>43</v>
+      </c>
+      <c r="E561" t="s">
+        <v>10</v>
+      </c>
+      <c r="F561">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>1</v>
+      </c>
+      <c r="B562" t="s">
+        <v>7</v>
+      </c>
+      <c r="C562" t="s">
+        <v>45</v>
+      </c>
+      <c r="D562" t="s">
+        <v>19</v>
+      </c>
+      <c r="E562" t="s">
+        <v>10</v>
+      </c>
+      <c r="F562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>1</v>
+      </c>
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+      <c r="C563" t="s">
+        <v>46</v>
+      </c>
+      <c r="D563" t="s">
+        <v>49</v>
+      </c>
+      <c r="E563" t="s">
+        <v>10</v>
+      </c>
+      <c r="F563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>1</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+      <c r="C564" t="s">
+        <v>50</v>
+      </c>
+      <c r="D564" t="s">
+        <v>20</v>
+      </c>
+      <c r="E564" t="s">
+        <v>11</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>1</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+      <c r="C565" t="s">
+        <v>51</v>
+      </c>
+      <c r="D565" t="s">
+        <v>52</v>
+      </c>
+      <c r="E565" t="s">
+        <v>11</v>
+      </c>
+      <c r="F565">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>1</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+      <c r="C566" t="s">
+        <v>53</v>
+      </c>
+      <c r="D566" t="s">
+        <v>54</v>
+      </c>
+      <c r="E566" t="s">
+        <v>11</v>
+      </c>
+      <c r="F566">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>1</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+      <c r="C567" t="s">
+        <v>55</v>
+      </c>
+      <c r="D567" t="s">
+        <v>19</v>
+      </c>
+      <c r="E567" t="s">
+        <v>11</v>
+      </c>
+      <c r="F567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>1</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+      <c r="C568" t="s">
+        <v>47</v>
+      </c>
+      <c r="D568" t="s">
+        <v>48</v>
+      </c>
+      <c r="E568" t="s">
+        <v>11</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>1</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+      <c r="C569" t="s">
+        <v>56</v>
+      </c>
+      <c r="D569" t="s">
+        <v>14</v>
+      </c>
+      <c r="E569" t="s">
+        <v>12</v>
+      </c>
+      <c r="F569">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>1</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+      <c r="C570" t="s">
+        <v>57</v>
+      </c>
+      <c r="D570" t="s">
+        <v>43</v>
+      </c>
+      <c r="E570" t="s">
+        <v>12</v>
+      </c>
+      <c r="F570">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>1</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+      <c r="C571" t="s">
+        <v>58</v>
+      </c>
+      <c r="D571" t="s">
+        <v>19</v>
+      </c>
+      <c r="E571" t="s">
+        <v>12</v>
+      </c>
+      <c r="F571">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A272:F541">
-    <sortCondition descending="1" ref="A272:A541"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A302:F571">
+    <sortCondition descending="1" ref="A302:A571"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11556,10 +12159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11610,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -11622,7 +12225,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -11634,7 +12237,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -11646,7 +12249,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -11658,7 +12261,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -11670,7 +12273,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -11682,7 +12285,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -11694,7 +12297,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -11706,7 +12309,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -11718,7 +12321,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -11730,7 +12333,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -11742,7 +12345,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -11754,7 +12357,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -11766,7 +12369,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -11778,7 +12381,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -11790,7 +12393,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -11802,7 +12405,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -11814,7 +12417,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -11826,7 +12429,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -11838,7 +12441,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -11850,7 +12453,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -11862,7 +12465,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -11874,7 +12477,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"Bazzers Ballers",'Weekly Points'!$A$182:$A$541,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -11886,7 +12489,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$541,'Weekly Points'!$B$182:$B$541,"WHU-Tang-Clan",'Weekly Points'!$A$182:$A$541,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -11898,7 +12501,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$541,'Weekly Points'!$B$152:$B$541,A28,'Weekly Points'!$A$152:$A$541,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$571,'Weekly Points'!$B$182:$B$571,A28,'Weekly Points'!$A$182:$A$571,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -11910,7 +12513,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$541,'Weekly Points'!$B$152:$B$541,A29,'Weekly Points'!$A$152:$A$541,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$571,'Weekly Points'!$B$182:$B$571,A29,'Weekly Points'!$A$182:$A$571,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -11922,7 +12525,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$541,'Weekly Points'!$B$122:$B$541,A30,'Weekly Points'!$A$122:$A$541,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$571,'Weekly Points'!$B$152:$B$571,A30,'Weekly Points'!$A$152:$A$571,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -11934,7 +12537,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$541,'Weekly Points'!$B$122:$B$541,A31,'Weekly Points'!$A$122:$A$541,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$571,'Weekly Points'!$B$152:$B$571,A31,'Weekly Points'!$A$152:$A$571,B31)+C29</f>
         <v>680</v>
       </c>
     </row>
@@ -11946,7 +12549,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$541,'Weekly Points'!$B$92:$B$541,A32,'Weekly Points'!$A$92:$A$541,B32)+C30</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$571,'Weekly Points'!$B$122:$B$571,A32,'Weekly Points'!$A$122:$A$571,B32)+C30</f>
         <v>818</v>
       </c>
     </row>
@@ -11958,7 +12561,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$541,'Weekly Points'!$B$92:$B$541,A33,'Weekly Points'!$A$92:$A$541,B33)+C31</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$571,'Weekly Points'!$B$122:$B$571,A33,'Weekly Points'!$A$122:$A$571,B33)+C31</f>
         <v>723</v>
       </c>
     </row>
@@ -11970,7 +12573,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$541,'Weekly Points'!$B$62:$B$541,A34,'Weekly Points'!$A$62:$A$541,B34)+C32</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$571,'Weekly Points'!$B$92:$B$571,A34,'Weekly Points'!$A$92:$A$571,B34)+C32</f>
         <v>876</v>
       </c>
     </row>
@@ -11982,7 +12585,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$541,'Weekly Points'!$B$62:$B$541,A35,'Weekly Points'!$A$62:$A$541,B35)+C33</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$571,'Weekly Points'!$B$92:$B$571,A35,'Weekly Points'!$A$92:$A$571,B35)+C33</f>
         <v>763</v>
       </c>
     </row>
@@ -11994,7 +12597,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$541,'Weekly Points'!$B$32:$B$541,A36,'Weekly Points'!$A$32:$A$541,B36)+C34</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$571,'Weekly Points'!$B$62:$B$571,A36,'Weekly Points'!$A$62:$A$571,B36)+C34</f>
         <v>950</v>
       </c>
     </row>
@@ -12006,7 +12609,7 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$541,'Weekly Points'!$B$32:$B$541,A37,'Weekly Points'!$A$32:$A$541,B37)+C35</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$571,'Weekly Points'!$B$62:$B$571,A37,'Weekly Points'!$A$62:$A$571,B37)+C35</f>
         <v>812</v>
       </c>
     </row>
@@ -12018,7 +12621,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$541,'Weekly Points'!$B$2:$B$541,A38,'Weekly Points'!$A$2:$A$541,B38)+C36</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$571,'Weekly Points'!$B$32:$B$571,A38,'Weekly Points'!$A$32:$A$571,B38)+C36</f>
         <v>1016</v>
       </c>
     </row>
@@ -12030,8 +12633,32 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$541,'Weekly Points'!$B$2:$B$541,A39,'Weekly Points'!$A$2:$A$541,B39)+C37</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$571,'Weekly Points'!$B$32:$B$571,A39,'Weekly Points'!$A$32:$A$571,B39)+C37</f>
         <v>883</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$571,'Weekly Points'!$B$2:$B$571,A40,'Weekly Points'!$A$2:$A$571,B40)+C38</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <f>SUMIFS('Weekly Points'!$F$2:$F$571,'Weekly Points'!$B$2:$B$571,A41,'Weekly Points'!$A$2:$A$571,B41)+C39</f>
+        <v>950</v>
       </c>
     </row>
   </sheetData>

--- a/WHUPUP.xlsx
+++ b/WHUPUP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28422"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Desktop\F_Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B45A42-2DF6-4BEC-A2EA-D26814761AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C25B15-1AF5-4282-B91E-1CB891199D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
+    <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{99B477C4-CCE4-43A8-837E-CF46EFFB0705}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Points" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2451" uniqueCount="104">
   <si>
     <t>Gameweek</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Pickford</t>
+  </si>
+  <si>
+    <t>M. Salah</t>
+  </si>
+  <si>
+    <t>Gakpo</t>
   </si>
 </sst>
 </file>
@@ -714,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6DB57-DBEF-439C-86C8-55613737F70F}">
-  <dimension ref="A1:F571"/>
+  <dimension ref="A1:F601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F17" sqref="F17:F31"/>
@@ -750,7 +756,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -765,12 +771,12 @@
         <v>9</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -790,7 +796,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -805,12 +811,12 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -825,12 +831,12 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -845,12 +851,12 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -865,12 +871,12 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -885,12 +891,12 @@
         <v>10</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -905,12 +911,12 @@
         <v>11</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -945,12 +951,12 @@
         <v>11</v>
       </c>
       <c r="F11">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -965,12 +971,12 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -985,12 +991,12 @@
         <v>11</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -1010,7 +1016,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -1025,32 +1031,32 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1065,12 +1071,12 @@
         <v>9</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1085,12 +1091,12 @@
         <v>9</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1110,7 +1116,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1125,12 +1131,12 @@
         <v>10</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1150,7 +1156,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1165,12 +1171,12 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1190,7 +1196,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1210,7 +1216,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1225,18 +1231,18 @@
         <v>11</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="D26" t="s">
         <v>54</v>
@@ -1245,12 +1251,12 @@
         <v>11</v>
       </c>
       <c r="F26">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1270,7 +1276,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1285,12 +1291,12 @@
         <v>11</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1305,32 +1311,32 @@
         <v>12</v>
       </c>
       <c r="F29">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E30" t="s">
         <v>12</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1345,21 +1351,21 @@
         <v>12</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1370,7 +1376,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1405,12 +1411,12 @@
         <v>10</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -1425,12 +1431,12 @@
         <v>10</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1450,7 +1456,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -1465,12 +1471,12 @@
         <v>10</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -1485,12 +1491,12 @@
         <v>10</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -1505,12 +1511,12 @@
         <v>11</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -1530,7 +1536,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -1545,12 +1551,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -1565,12 +1571,12 @@
         <v>11</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1585,12 +1591,12 @@
         <v>11</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -1605,12 +1611,12 @@
         <v>12</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -1630,7 +1636,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -1645,12 +1651,12 @@
         <v>12</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1665,12 +1671,12 @@
         <v>9</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1690,7 +1696,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1705,12 +1711,12 @@
         <v>10</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1725,12 +1731,12 @@
         <v>10</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1745,12 +1751,12 @@
         <v>10</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1765,12 +1771,12 @@
         <v>10</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1805,12 +1811,12 @@
         <v>11</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1825,12 +1831,12 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1845,12 +1851,12 @@
         <v>11</v>
       </c>
       <c r="F56">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -1870,7 +1876,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -1885,12 +1891,12 @@
         <v>11</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -1905,32 +1911,32 @@
         <v>12</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
         <v>12</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -1945,12 +1951,12 @@
         <v>12</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -1990,7 +1996,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -2005,12 +2011,12 @@
         <v>10</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -2025,12 +2031,12 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -2050,7 +2056,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -2070,7 +2076,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -2085,12 +2091,12 @@
         <v>10</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -2105,12 +2111,12 @@
         <v>11</v>
       </c>
       <c r="F69">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -2130,7 +2136,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -2145,12 +2151,12 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -2165,52 +2171,52 @@
         <v>11</v>
       </c>
       <c r="F72">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D74" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E74" t="s">
         <v>12</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -2225,12 +2231,12 @@
         <v>12</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -2245,12 +2251,12 @@
         <v>12</v>
       </c>
       <c r="F76">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2265,12 +2271,12 @@
         <v>9</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2285,12 +2291,12 @@
         <v>9</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2305,12 +2311,12 @@
         <v>10</v>
       </c>
       <c r="F79">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2345,12 +2351,12 @@
         <v>10</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2365,12 +2371,12 @@
         <v>10</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2390,27 +2396,27 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -2425,12 +2431,12 @@
         <v>11</v>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -2445,12 +2451,12 @@
         <v>11</v>
       </c>
       <c r="F86">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2465,12 +2471,12 @@
         <v>11</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2485,32 +2491,32 @@
         <v>11</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D89" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>12</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2530,7 +2536,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2550,7 +2556,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -2565,12 +2571,12 @@
         <v>9</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -2590,7 +2596,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -2605,12 +2611,12 @@
         <v>10</v>
       </c>
       <c r="F94">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -2630,7 +2636,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -2645,12 +2651,12 @@
         <v>10</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -2670,7 +2676,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2685,12 +2691,12 @@
         <v>10</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -2705,12 +2711,12 @@
         <v>11</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -2725,633 +2731,633 @@
         <v>11</v>
       </c>
       <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" t="s">
+        <v>51</v>
+      </c>
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102" t="s">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" t="s">
+        <v>11</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>75</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" t="s">
+        <v>92</v>
+      </c>
+      <c r="D105" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>91</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>40</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>95</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>17</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>70</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>17</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>17</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>51</v>
+      </c>
+      <c r="D115" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>17</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D118" t="s">
+        <v>52</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>75</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>85</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>16</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123" t="s">
+        <v>21</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>16</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" t="s">
+        <v>89</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>16</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C126" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>88</v>
+      </c>
+      <c r="D127" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C128" t="s">
+        <v>87</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>16</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" t="s">
+        <v>81</v>
+      </c>
+      <c r="D129" t="s">
+        <v>39</v>
+      </c>
+      <c r="E129" t="s">
+        <v>11</v>
+      </c>
+      <c r="F129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>16</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C130" t="s">
+        <v>96</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130">
         <f>-4+1</f>
         <v>-3</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>16</v>
-      </c>
-      <c r="B101" t="s">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>53</v>
-      </c>
-      <c r="D101" t="s">
-        <v>54</v>
-      </c>
-      <c r="E101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F101">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>16</v>
-      </c>
-      <c r="B102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E102" t="s">
-        <v>11</v>
-      </c>
-      <c r="F102">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>16</v>
-      </c>
-      <c r="B103" t="s">
-        <v>6</v>
-      </c>
-      <c r="C103" t="s">
-        <v>90</v>
-      </c>
-      <c r="D103" t="s">
-        <v>16</v>
-      </c>
-      <c r="E103" t="s">
-        <v>11</v>
-      </c>
-      <c r="F103">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>16</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>75</v>
-      </c>
-      <c r="D104" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" t="s">
-        <v>12</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>16</v>
-      </c>
-      <c r="B105" t="s">
-        <v>6</v>
-      </c>
-      <c r="C105" t="s">
-        <v>92</v>
-      </c>
-      <c r="D105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E105" t="s">
-        <v>12</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>16</v>
-      </c>
-      <c r="B106" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" t="s">
-        <v>91</v>
-      </c>
-      <c r="D106" t="s">
-        <v>44</v>
-      </c>
-      <c r="E106" t="s">
-        <v>12</v>
-      </c>
-      <c r="F106">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>16</v>
-      </c>
-      <c r="B107" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" t="s">
-        <v>66</v>
-      </c>
-      <c r="E107" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>16</v>
-      </c>
-      <c r="B108" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" t="s">
-        <v>38</v>
-      </c>
-      <c r="D108" t="s">
-        <v>39</v>
-      </c>
-      <c r="E108" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" t="s">
-        <v>40</v>
-      </c>
-      <c r="D109" t="s">
-        <v>16</v>
-      </c>
-      <c r="E109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>16</v>
-      </c>
-      <c r="B110" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" t="s">
-        <v>97</v>
-      </c>
-      <c r="D110" t="s">
-        <v>66</v>
-      </c>
-      <c r="E110" t="s">
-        <v>10</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>16</v>
-      </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>95</v>
-      </c>
-      <c r="D111" t="s">
-        <v>19</v>
-      </c>
-      <c r="E111" t="s">
-        <v>10</v>
-      </c>
-      <c r="F111">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>16</v>
-      </c>
-      <c r="B112" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" t="s">
-        <v>68</v>
-      </c>
-      <c r="D112" t="s">
-        <v>69</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>16</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>70</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" t="s">
-        <v>10</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" t="s">
-        <v>90</v>
-      </c>
-      <c r="D114" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" t="s">
-        <v>11</v>
-      </c>
-      <c r="F114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>16</v>
-      </c>
-      <c r="B115" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" t="s">
-        <v>51</v>
-      </c>
-      <c r="D115" t="s">
-        <v>52</v>
-      </c>
-      <c r="E115" t="s">
-        <v>11</v>
-      </c>
-      <c r="F115">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>16</v>
-      </c>
-      <c r="B116" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" t="s">
-        <v>53</v>
-      </c>
-      <c r="D116" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" t="s">
-        <v>11</v>
-      </c>
-      <c r="F116">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>16</v>
-      </c>
-      <c r="B117" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" t="s">
-        <v>11</v>
-      </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>16</v>
-      </c>
-      <c r="B118" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" t="s">
-        <v>73</v>
-      </c>
-      <c r="D118" t="s">
-        <v>52</v>
-      </c>
-      <c r="E118" t="s">
-        <v>11</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>16</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119" t="s">
-        <v>12</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>16</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" t="s">
-        <v>85</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120" t="s">
-        <v>12</v>
-      </c>
-      <c r="F120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>16</v>
-      </c>
-      <c r="B121" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D121" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>15</v>
-      </c>
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" t="s">
-        <v>8</v>
-      </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>15</v>
-      </c>
-      <c r="B123" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" t="s">
-        <v>21</v>
-      </c>
-      <c r="D123" t="s">
-        <v>19</v>
-      </c>
-      <c r="E123" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>15</v>
-      </c>
-      <c r="B124" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124" t="s">
-        <v>89</v>
-      </c>
-      <c r="D124" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>15</v>
-      </c>
-      <c r="B125" t="s">
-        <v>6</v>
-      </c>
-      <c r="C125" t="s">
-        <v>86</v>
-      </c>
-      <c r="D125" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>15</v>
-      </c>
-      <c r="B126" t="s">
-        <v>6</v>
-      </c>
-      <c r="C126" t="s">
-        <v>94</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" t="s">
-        <v>10</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>15</v>
-      </c>
-      <c r="B127" t="s">
-        <v>6</v>
-      </c>
-      <c r="C127" t="s">
-        <v>88</v>
-      </c>
-      <c r="D127" t="s">
-        <v>78</v>
-      </c>
-      <c r="E127" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>15</v>
-      </c>
-      <c r="B128" t="s">
-        <v>6</v>
-      </c>
-      <c r="C128" t="s">
-        <v>87</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>15</v>
-      </c>
-      <c r="B129" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" t="s">
-        <v>81</v>
-      </c>
-      <c r="D129" t="s">
-        <v>39</v>
-      </c>
-      <c r="E129" t="s">
-        <v>11</v>
-      </c>
-      <c r="F129">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>15</v>
-      </c>
-      <c r="B130" t="s">
-        <v>6</v>
-      </c>
-      <c r="C130" t="s">
-        <v>93</v>
-      </c>
-      <c r="D130" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" t="s">
-        <v>11</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
       <c r="F131">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -3366,12 +3372,12 @@
         <v>11</v>
       </c>
       <c r="F132">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -3386,12 +3392,12 @@
         <v>11</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -3406,12 +3412,12 @@
         <v>12</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -3426,12 +3432,12 @@
         <v>12</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -3446,12 +3452,12 @@
         <v>12</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3466,12 +3472,12 @@
         <v>9</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3491,7 +3497,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3506,32 +3512,32 @@
         <v>10</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="D140" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E140" t="s">
         <v>10</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3546,12 +3552,12 @@
         <v>10</v>
       </c>
       <c r="F141">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3566,12 +3572,12 @@
         <v>10</v>
       </c>
       <c r="F142">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3586,12 +3592,12 @@
         <v>10</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3606,12 +3612,12 @@
         <v>11</v>
       </c>
       <c r="F144">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3626,12 +3632,12 @@
         <v>11</v>
       </c>
       <c r="F145">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3646,12 +3652,12 @@
         <v>11</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3671,7 +3677,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3686,12 +3692,12 @@
         <v>11</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -3706,12 +3712,12 @@
         <v>12</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -3731,7 +3737,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -3746,12 +3752,12 @@
         <v>12</v>
       </c>
       <c r="F151">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -3766,12 +3772,12 @@
         <v>9</v>
       </c>
       <c r="F152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -3791,7 +3797,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -3811,7 +3817,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -3826,12 +3832,12 @@
         <v>10</v>
       </c>
       <c r="F155">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -3851,7 +3857,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -3871,7 +3877,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -3880,7 +3886,7 @@
         <v>87</v>
       </c>
       <c r="D158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E158" t="s">
         <v>10</v>
@@ -3891,7 +3897,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -3906,12 +3912,12 @@
         <v>11</v>
       </c>
       <c r="F159">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -3926,32 +3932,32 @@
         <v>11</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D161" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
       </c>
       <c r="F161">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -3966,12 +3972,12 @@
         <v>11</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3986,12 +3992,12 @@
         <v>11</v>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -4006,12 +4012,12 @@
         <v>12</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -4026,12 +4032,12 @@
         <v>12</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -4046,12 +4052,12 @@
         <v>12</v>
       </c>
       <c r="F166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -4066,12 +4072,12 @@
         <v>9</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -4086,12 +4092,12 @@
         <v>9</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -4111,7 +4117,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -4131,27 +4137,27 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="D171" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
         <v>10</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -4166,12 +4172,12 @@
         <v>10</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -4191,27 +4197,27 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="D174" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -4226,12 +4232,12 @@
         <v>11</v>
       </c>
       <c r="F175">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -4246,12 +4252,12 @@
         <v>11</v>
       </c>
       <c r="F176">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -4266,12 +4272,12 @@
         <v>11</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -4286,12 +4292,12 @@
         <v>11</v>
       </c>
       <c r="F178">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -4306,12 +4312,12 @@
         <v>12</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -4326,12 +4332,12 @@
         <v>12</v>
       </c>
       <c r="F180">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -4346,12 +4352,12 @@
         <v>12</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -4366,12 +4372,12 @@
         <v>9</v>
       </c>
       <c r="F182">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -4391,7 +4397,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -4406,12 +4412,12 @@
         <v>10</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -4426,32 +4432,32 @@
         <v>10</v>
       </c>
       <c r="F185">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
+        <v>14</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
+      </c>
+      <c r="C186" t="s">
+        <v>94</v>
+      </c>
+      <c r="D186" t="s">
         <v>13</v>
       </c>
-      <c r="B186" t="s">
-        <v>6</v>
-      </c>
-      <c r="C186" t="s">
-        <v>76</v>
-      </c>
-      <c r="D186" t="s">
-        <v>54</v>
-      </c>
       <c r="E186" t="s">
         <v>10</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -4466,12 +4472,12 @@
         <v>10</v>
       </c>
       <c r="F187">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -4491,7 +4497,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -4511,7 +4517,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B190" t="s">
         <v>6</v>
@@ -4531,7 +4537,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B191" t="s">
         <v>6</v>
@@ -4546,12 +4552,12 @@
         <v>11</v>
       </c>
       <c r="F191">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B192" t="s">
         <v>6</v>
@@ -4566,12 +4572,12 @@
         <v>11</v>
       </c>
       <c r="F192">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -4586,12 +4592,12 @@
         <v>11</v>
       </c>
       <c r="F193">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B194" t="s">
         <v>6</v>
@@ -4606,12 +4612,12 @@
         <v>12</v>
       </c>
       <c r="F194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
         <v>6</v>
@@ -4626,12 +4632,12 @@
         <v>12</v>
       </c>
       <c r="F195">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
@@ -4646,12 +4652,12 @@
         <v>12</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
         <v>7</v>
@@ -4671,7 +4677,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B198" t="s">
         <v>7</v>
@@ -4686,12 +4692,12 @@
         <v>9</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B199" t="s">
         <v>7</v>
@@ -4706,12 +4712,12 @@
         <v>10</v>
       </c>
       <c r="F199">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B200" t="s">
         <v>7</v>
@@ -4731,7 +4737,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B201" t="s">
         <v>7</v>
@@ -4751,7 +4757,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B202" t="s">
         <v>7</v>
@@ -4766,12 +4772,12 @@
         <v>10</v>
       </c>
       <c r="F202">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B203" t="s">
         <v>7</v>
@@ -4791,7 +4797,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B204" t="s">
         <v>7</v>
@@ -4811,7 +4817,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B205" t="s">
         <v>7</v>
@@ -4826,12 +4832,12 @@
         <v>11</v>
       </c>
       <c r="F205">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
         <v>7</v>
@@ -4846,12 +4852,12 @@
         <v>11</v>
       </c>
       <c r="F206">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B207" t="s">
         <v>7</v>
@@ -4866,12 +4872,12 @@
         <v>11</v>
       </c>
       <c r="F207">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B208" t="s">
         <v>7</v>
@@ -4886,12 +4892,12 @@
         <v>11</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -4906,12 +4912,12 @@
         <v>12</v>
       </c>
       <c r="F209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -4926,12 +4932,12 @@
         <v>12</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -4946,12 +4952,12 @@
         <v>12</v>
       </c>
       <c r="F211">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B212" t="s">
         <v>6</v>
@@ -4966,12 +4972,12 @@
         <v>9</v>
       </c>
       <c r="F212">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B213" t="s">
         <v>6</v>
@@ -4991,33 +4997,33 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="D214" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="E214" t="s">
         <v>10</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>6</v>
       </c>
       <c r="C215" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D215" t="s">
         <v>35</v>
@@ -5026,12 +5032,12 @@
         <v>10</v>
       </c>
       <c r="F215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B216" t="s">
         <v>6</v>
@@ -5051,33 +5057,33 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="D217" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E217" t="s">
         <v>10</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B218" t="s">
         <v>6</v>
       </c>
       <c r="C218" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
       <c r="D218" t="s">
         <v>18</v>
@@ -5091,7 +5097,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
         <v>6</v>
@@ -5106,21 +5112,21 @@
         <v>11</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>6</v>
       </c>
       <c r="C220" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D220" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E220" t="s">
         <v>11</v>
@@ -5131,27 +5137,27 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>6</v>
       </c>
       <c r="C221" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D221" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E221" t="s">
         <v>11</v>
       </c>
       <c r="F221">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
@@ -5166,92 +5172,92 @@
         <v>11</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B223" t="s">
         <v>6</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D223" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E223" t="s">
         <v>11</v>
       </c>
       <c r="F223">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B224" t="s">
         <v>6</v>
       </c>
       <c r="C224" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="D224" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E224" t="s">
         <v>12</v>
       </c>
       <c r="F224">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D225" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E225" t="s">
         <v>12</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B226" t="s">
         <v>6</v>
       </c>
       <c r="C226" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D226" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E226" t="s">
         <v>12</v>
       </c>
       <c r="F226">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -5266,12 +5272,12 @@
         <v>9</v>
       </c>
       <c r="F227">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -5286,12 +5292,12 @@
         <v>9</v>
       </c>
       <c r="F228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -5306,12 +5312,12 @@
         <v>10</v>
       </c>
       <c r="F229">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B230" t="s">
         <v>7</v>
@@ -5331,7 +5337,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B231" t="s">
         <v>7</v>
@@ -5351,7 +5357,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B232" t="s">
         <v>7</v>
@@ -5366,12 +5372,12 @@
         <v>10</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B233" t="s">
         <v>7</v>
@@ -5386,12 +5392,12 @@
         <v>10</v>
       </c>
       <c r="F233">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B234" t="s">
         <v>7</v>
@@ -5406,12 +5412,12 @@
         <v>11</v>
       </c>
       <c r="F234">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B235" t="s">
         <v>7</v>
@@ -5426,32 +5432,32 @@
         <v>11</v>
       </c>
       <c r="F235">
-        <v>4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B236" t="s">
         <v>7</v>
       </c>
       <c r="C236" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D236" t="s">
+        <v>54</v>
+      </c>
+      <c r="E236" t="s">
+        <v>11</v>
+      </c>
+      <c r="F236">
         <v>13</v>
-      </c>
-      <c r="E236" t="s">
-        <v>11</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
@@ -5466,12 +5472,12 @@
         <v>11</v>
       </c>
       <c r="F237">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B238" t="s">
         <v>7</v>
@@ -5491,7 +5497,7 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B239" t="s">
         <v>7</v>
@@ -5511,16 +5517,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B240" t="s">
         <v>7</v>
       </c>
       <c r="C240" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D240" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E240" t="s">
         <v>12</v>
@@ -5531,7 +5537,7 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B241" t="s">
         <v>7</v>
@@ -5546,12 +5552,12 @@
         <v>12</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B242" t="s">
         <v>6</v>
@@ -5566,12 +5572,12 @@
         <v>9</v>
       </c>
       <c r="F242">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B243" t="s">
         <v>6</v>
@@ -5591,7 +5597,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B244" t="s">
         <v>6</v>
@@ -5611,7 +5617,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B245" t="s">
         <v>6</v>
@@ -5626,12 +5632,12 @@
         <v>10</v>
       </c>
       <c r="F245">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B246" t="s">
         <v>6</v>
@@ -5646,12 +5652,12 @@
         <v>10</v>
       </c>
       <c r="F246">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B247" t="s">
         <v>6</v>
@@ -5666,12 +5672,12 @@
         <v>10</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B248" t="s">
         <v>6</v>
@@ -5691,7 +5697,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -5706,41 +5712,41 @@
         <v>11</v>
       </c>
       <c r="F249">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B250" t="s">
         <v>6</v>
       </c>
       <c r="C250" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D250" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
       </c>
       <c r="F250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B251" t="s">
         <v>6</v>
       </c>
       <c r="C251" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D251" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
@@ -5751,7 +5757,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B252" t="s">
         <v>6</v>
@@ -5771,7 +5777,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B253" t="s">
         <v>6</v>
@@ -5786,12 +5792,12 @@
         <v>11</v>
       </c>
       <c r="F253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B254" t="s">
         <v>6</v>
@@ -5806,12 +5812,12 @@
         <v>12</v>
       </c>
       <c r="F254">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
@@ -5826,12 +5832,12 @@
         <v>12</v>
       </c>
       <c r="F255">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B256" t="s">
         <v>6</v>
@@ -5846,12 +5852,12 @@
         <v>12</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B257" t="s">
         <v>7</v>
@@ -5866,12 +5872,12 @@
         <v>9</v>
       </c>
       <c r="F257">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B258" t="s">
         <v>7</v>
@@ -5886,12 +5892,12 @@
         <v>9</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B259" t="s">
         <v>7</v>
@@ -5906,12 +5912,12 @@
         <v>10</v>
       </c>
       <c r="F259">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B260" t="s">
         <v>7</v>
@@ -5926,12 +5932,12 @@
         <v>10</v>
       </c>
       <c r="F260">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B261" t="s">
         <v>7</v>
@@ -5951,7 +5957,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B262" t="s">
         <v>7</v>
@@ -5966,12 +5972,12 @@
         <v>10</v>
       </c>
       <c r="F262">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B263" t="s">
         <v>7</v>
@@ -5986,12 +5992,12 @@
         <v>10</v>
       </c>
       <c r="F263">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B264" t="s">
         <v>7</v>
@@ -6006,12 +6012,12 @@
         <v>11</v>
       </c>
       <c r="F264">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B265" t="s">
         <v>7</v>
@@ -6031,7 +6037,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B266" t="s">
         <v>7</v>
@@ -6051,7 +6057,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B267" t="s">
         <v>7</v>
@@ -6066,12 +6072,12 @@
         <v>11</v>
       </c>
       <c r="F267">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B268" t="s">
         <v>7</v>
@@ -6091,7 +6097,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B269" t="s">
         <v>7</v>
@@ -6111,7 +6117,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B270" t="s">
         <v>7</v>
@@ -6126,12 +6132,12 @@
         <v>12</v>
       </c>
       <c r="F270">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B271" t="s">
         <v>7</v>
@@ -6146,12 +6152,12 @@
         <v>12</v>
       </c>
       <c r="F271">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
         <v>6</v>
@@ -6166,12 +6172,12 @@
         <v>9</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B273" t="s">
         <v>6</v>
@@ -6191,7 +6197,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
         <v>6</v>
@@ -6211,7 +6217,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
         <v>6</v>
@@ -6226,12 +6232,12 @@
         <v>10</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
         <v>6</v>
@@ -6246,12 +6252,12 @@
         <v>10</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B277" t="s">
         <v>6</v>
@@ -6271,7 +6277,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s">
         <v>6</v>
@@ -6291,7 +6297,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B279" t="s">
         <v>6</v>
@@ -6306,12 +6312,12 @@
         <v>11</v>
       </c>
       <c r="F279">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B280" t="s">
         <v>6</v>
@@ -6326,12 +6332,12 @@
         <v>11</v>
       </c>
       <c r="F280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B281" t="s">
         <v>6</v>
@@ -6346,12 +6352,12 @@
         <v>11</v>
       </c>
       <c r="F281">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
         <v>6</v>
@@ -6366,12 +6372,12 @@
         <v>11</v>
       </c>
       <c r="F282">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B283" t="s">
         <v>6</v>
@@ -6386,12 +6392,12 @@
         <v>11</v>
       </c>
       <c r="F283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B284" t="s">
         <v>6</v>
@@ -6406,12 +6412,12 @@
         <v>12</v>
       </c>
       <c r="F284">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B285" t="s">
         <v>6</v>
@@ -6426,12 +6432,12 @@
         <v>12</v>
       </c>
       <c r="F285">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B286" t="s">
         <v>6</v>
@@ -6446,12 +6452,12 @@
         <v>12</v>
       </c>
       <c r="F286">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B287" t="s">
         <v>7</v>
@@ -6471,7 +6477,7 @@
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B288" t="s">
         <v>7</v>
@@ -6486,12 +6492,12 @@
         <v>9</v>
       </c>
       <c r="F288">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
         <v>7</v>
@@ -6511,7 +6517,7 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B290" t="s">
         <v>7</v>
@@ -6526,12 +6532,12 @@
         <v>10</v>
       </c>
       <c r="F290">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
         <v>7</v>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
         <v>7</v>
@@ -6566,12 +6572,12 @@
         <v>10</v>
       </c>
       <c r="F292">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
         <v>7</v>
@@ -6586,12 +6592,12 @@
         <v>10</v>
       </c>
       <c r="F293">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
         <v>7</v>
@@ -6606,12 +6612,12 @@
         <v>11</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B295" t="s">
         <v>7</v>
@@ -6626,12 +6632,12 @@
         <v>11</v>
       </c>
       <c r="F295">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B296" t="s">
         <v>7</v>
@@ -6651,7 +6657,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B297" t="s">
         <v>7</v>
@@ -6671,7 +6677,7 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
         <v>7</v>
@@ -6691,7 +6697,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
         <v>7</v>
@@ -6706,12 +6712,12 @@
         <v>12</v>
       </c>
       <c r="F299">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
         <v>7</v>
@@ -6726,32 +6732,32 @@
         <v>12</v>
       </c>
       <c r="F300">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
         <v>7</v>
       </c>
       <c r="C301" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D301" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E301" t="s">
         <v>12</v>
       </c>
       <c r="F301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B302" t="s">
         <v>6</v>
@@ -6766,12 +6772,12 @@
         <v>9</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B303" t="s">
         <v>6</v>
@@ -6791,7 +6797,7 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B304" t="s">
         <v>6</v>
@@ -6806,12 +6812,12 @@
         <v>10</v>
       </c>
       <c r="F304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B305" t="s">
         <v>6</v>
@@ -6826,12 +6832,12 @@
         <v>10</v>
       </c>
       <c r="F305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B306" t="s">
         <v>6</v>
@@ -6851,7 +6857,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B307" t="s">
         <v>6</v>
@@ -6866,12 +6872,12 @@
         <v>10</v>
       </c>
       <c r="F307">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B308" t="s">
         <v>6</v>
@@ -6891,27 +6897,27 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B309" t="s">
         <v>6</v>
       </c>
       <c r="C309" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D309" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="E309" t="s">
         <v>11</v>
       </c>
       <c r="F309">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B310" t="s">
         <v>6</v>
@@ -6931,7 +6937,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B311" t="s">
         <v>6</v>
@@ -6946,12 +6952,12 @@
         <v>11</v>
       </c>
       <c r="F311">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B312" t="s">
         <v>6</v>
@@ -6966,12 +6972,12 @@
         <v>11</v>
       </c>
       <c r="F312">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B313" t="s">
         <v>6</v>
@@ -6991,7 +6997,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B314" t="s">
         <v>6</v>
@@ -7006,32 +7012,32 @@
         <v>12</v>
       </c>
       <c r="F314">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B315" t="s">
         <v>6</v>
       </c>
       <c r="C315" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="D315" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="E315" t="s">
         <v>12</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B316" t="s">
         <v>6</v>
@@ -7046,12 +7052,12 @@
         <v>12</v>
       </c>
       <c r="F316">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B317" t="s">
         <v>7</v>
@@ -7071,27 +7077,27 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B318" t="s">
         <v>7</v>
       </c>
       <c r="C318" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D318" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E318" t="s">
         <v>9</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B319" t="s">
         <v>7</v>
@@ -7106,12 +7112,12 @@
         <v>10</v>
       </c>
       <c r="F319">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B320" t="s">
         <v>7</v>
@@ -7131,7 +7137,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B321" t="s">
         <v>7</v>
@@ -7146,12 +7152,12 @@
         <v>10</v>
       </c>
       <c r="F321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B322" t="s">
         <v>7</v>
@@ -7171,7 +7177,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B323" t="s">
         <v>7</v>
@@ -7186,12 +7192,12 @@
         <v>10</v>
       </c>
       <c r="F323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B324" t="s">
         <v>7</v>
@@ -7206,12 +7212,12 @@
         <v>11</v>
       </c>
       <c r="F324">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B325" t="s">
         <v>7</v>
@@ -7226,12 +7232,12 @@
         <v>11</v>
       </c>
       <c r="F325">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B326" t="s">
         <v>7</v>
@@ -7251,7 +7257,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B327" t="s">
         <v>7</v>
@@ -7266,12 +7272,12 @@
         <v>11</v>
       </c>
       <c r="F327">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B328" t="s">
         <v>7</v>
@@ -7291,7 +7297,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B329" t="s">
         <v>7</v>
@@ -7306,12 +7312,12 @@
         <v>12</v>
       </c>
       <c r="F329">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B330" t="s">
         <v>7</v>
@@ -7326,12 +7332,12 @@
         <v>12</v>
       </c>
       <c r="F330">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B331" t="s">
         <v>7</v>
@@ -7346,12 +7352,12 @@
         <v>12</v>
       </c>
       <c r="F331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B332" t="s">
         <v>6</v>
@@ -7366,12 +7372,12 @@
         <v>9</v>
       </c>
       <c r="F332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B333" t="s">
         <v>6</v>
@@ -7391,7 +7397,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B334" t="s">
         <v>6</v>
@@ -7411,7 +7417,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B335" t="s">
         <v>6</v>
@@ -7431,27 +7437,27 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B336" t="s">
         <v>6</v>
       </c>
       <c r="C336" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E336" t="s">
         <v>10</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
@@ -7471,7 +7477,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B338" t="s">
         <v>6</v>
@@ -7491,7 +7497,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B339" t="s">
         <v>6</v>
@@ -7506,12 +7512,12 @@
         <v>11</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
@@ -7526,12 +7532,12 @@
         <v>11</v>
       </c>
       <c r="F340">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B341" t="s">
         <v>6</v>
@@ -7546,12 +7552,12 @@
         <v>11</v>
       </c>
       <c r="F341">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B342" t="s">
         <v>6</v>
@@ -7566,12 +7572,12 @@
         <v>11</v>
       </c>
       <c r="F342">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
@@ -7586,12 +7592,12 @@
         <v>11</v>
       </c>
       <c r="F343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B344" t="s">
         <v>6</v>
@@ -7606,12 +7612,12 @@
         <v>12</v>
       </c>
       <c r="F344">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B345" t="s">
         <v>6</v>
@@ -7631,7 +7637,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B346" t="s">
         <v>6</v>
@@ -7646,12 +7652,12 @@
         <v>12</v>
       </c>
       <c r="F346">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B347" t="s">
         <v>7</v>
@@ -7666,12 +7672,12 @@
         <v>9</v>
       </c>
       <c r="F347">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B348" t="s">
         <v>7</v>
@@ -7691,7 +7697,7 @@
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B349" t="s">
         <v>7</v>
@@ -7711,7 +7717,7 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B350" t="s">
         <v>7</v>
@@ -7731,7 +7737,7 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B351" t="s">
         <v>7</v>
@@ -7751,7 +7757,7 @@
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B352" t="s">
         <v>7</v>
@@ -7771,7 +7777,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B353" t="s">
         <v>7</v>
@@ -7786,12 +7792,12 @@
         <v>10</v>
       </c>
       <c r="F353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B354" t="s">
         <v>7</v>
@@ -7806,12 +7812,12 @@
         <v>11</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B355" t="s">
         <v>7</v>
@@ -7826,12 +7832,12 @@
         <v>11</v>
       </c>
       <c r="F355">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B356" t="s">
         <v>7</v>
@@ -7851,27 +7857,27 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B357" t="s">
         <v>7</v>
       </c>
       <c r="C357" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D357" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E357" t="s">
         <v>11</v>
       </c>
       <c r="F357">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B358" t="s">
         <v>7</v>
@@ -7886,12 +7892,12 @@
         <v>11</v>
       </c>
       <c r="F358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B359" t="s">
         <v>7</v>
@@ -7906,12 +7912,12 @@
         <v>12</v>
       </c>
       <c r="F359">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B360" t="s">
         <v>7</v>
@@ -7926,12 +7932,12 @@
         <v>12</v>
       </c>
       <c r="F360">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -7951,7 +7957,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B362" t="s">
         <v>6</v>
@@ -7966,12 +7972,12 @@
         <v>9</v>
       </c>
       <c r="F362">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B363" t="s">
         <v>6</v>
@@ -7991,7 +7997,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B364" t="s">
         <v>6</v>
@@ -8011,7 +8017,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B365" t="s">
         <v>6</v>
@@ -8026,12 +8032,12 @@
         <v>10</v>
       </c>
       <c r="F365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B366" t="s">
         <v>6</v>
@@ -8051,7 +8057,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B367" t="s">
         <v>6</v>
@@ -8066,12 +8072,12 @@
         <v>10</v>
       </c>
       <c r="F367">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B368" t="s">
         <v>6</v>
@@ -8091,7 +8097,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B369" t="s">
         <v>6</v>
@@ -8111,27 +8117,27 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B370" t="s">
         <v>6</v>
       </c>
       <c r="C370" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="D370" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E370" t="s">
         <v>11</v>
       </c>
       <c r="F370">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B371" t="s">
         <v>6</v>
@@ -8146,12 +8152,12 @@
         <v>11</v>
       </c>
       <c r="F371">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B372" t="s">
         <v>6</v>
@@ -8166,12 +8172,12 @@
         <v>11</v>
       </c>
       <c r="F372">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B373" t="s">
         <v>6</v>
@@ -8186,12 +8192,12 @@
         <v>11</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B374" t="s">
         <v>6</v>
@@ -8211,7 +8217,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B375" t="s">
         <v>6</v>
@@ -8231,7 +8237,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B376" t="s">
         <v>6</v>
@@ -8246,12 +8252,12 @@
         <v>12</v>
       </c>
       <c r="F376">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B377" t="s">
         <v>7</v>
@@ -8266,12 +8272,12 @@
         <v>9</v>
       </c>
       <c r="F377">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B378" t="s">
         <v>7</v>
@@ -8291,7 +8297,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B379" t="s">
         <v>7</v>
@@ -8306,21 +8312,21 @@
         <v>10</v>
       </c>
       <c r="F379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B380" t="s">
         <v>7</v>
       </c>
       <c r="C380" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D380" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E380" t="s">
         <v>10</v>
@@ -8331,7 +8337,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B381" t="s">
         <v>7</v>
@@ -8346,12 +8352,12 @@
         <v>10</v>
       </c>
       <c r="F381">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B382" t="s">
         <v>7</v>
@@ -8371,7 +8377,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B383" t="s">
         <v>7</v>
@@ -8386,12 +8392,12 @@
         <v>10</v>
       </c>
       <c r="F383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B384" t="s">
         <v>7</v>
@@ -8406,12 +8412,12 @@
         <v>11</v>
       </c>
       <c r="F384">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B385" t="s">
         <v>7</v>
@@ -8426,12 +8432,12 @@
         <v>11</v>
       </c>
       <c r="F385">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B386" t="s">
         <v>7</v>
@@ -8451,7 +8457,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B387" t="s">
         <v>7</v>
@@ -8471,7 +8477,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B388" t="s">
         <v>7</v>
@@ -8486,12 +8492,12 @@
         <v>11</v>
       </c>
       <c r="F388">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B389" t="s">
         <v>7</v>
@@ -8511,7 +8517,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B390" t="s">
         <v>7</v>
@@ -8531,7 +8537,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B391" t="s">
         <v>7</v>
@@ -8546,12 +8552,12 @@
         <v>12</v>
       </c>
       <c r="F391">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B392" t="s">
         <v>6</v>
@@ -8566,12 +8572,12 @@
         <v>9</v>
       </c>
       <c r="F392">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B393" t="s">
         <v>6</v>
@@ -8591,7 +8597,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B394" t="s">
         <v>6</v>
@@ -8606,12 +8612,12 @@
         <v>10</v>
       </c>
       <c r="F394">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B395" t="s">
         <v>6</v>
@@ -8626,12 +8632,12 @@
         <v>10</v>
       </c>
       <c r="F395">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B396" t="s">
         <v>6</v>
@@ -8651,7 +8657,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B397" t="s">
         <v>6</v>
@@ -8666,12 +8672,12 @@
         <v>10</v>
       </c>
       <c r="F397">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B398" t="s">
         <v>6</v>
@@ -8691,7 +8697,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B399" t="s">
         <v>6</v>
@@ -8706,12 +8712,12 @@
         <v>11</v>
       </c>
       <c r="F399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B400" t="s">
         <v>6</v>
@@ -8731,7 +8737,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B401" t="s">
         <v>6</v>
@@ -8746,12 +8752,12 @@
         <v>11</v>
       </c>
       <c r="F401">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B402" t="s">
         <v>6</v>
@@ -8766,12 +8772,12 @@
         <v>11</v>
       </c>
       <c r="F402">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B403" t="s">
         <v>6</v>
@@ -8786,12 +8792,12 @@
         <v>11</v>
       </c>
       <c r="F403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B404" t="s">
         <v>6</v>
@@ -8811,7 +8817,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B405" t="s">
         <v>6</v>
@@ -8831,16 +8837,16 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B406" t="s">
         <v>6</v>
       </c>
       <c r="C406" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D406" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E406" t="s">
         <v>12</v>
@@ -8851,7 +8857,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B407" t="s">
         <v>7</v>
@@ -8871,7 +8877,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B408" t="s">
         <v>7</v>
@@ -8891,13 +8897,13 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B409" t="s">
         <v>7</v>
       </c>
       <c r="C409" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D409" t="s">
         <v>16</v>
@@ -8906,12 +8912,12 @@
         <v>10</v>
       </c>
       <c r="F409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B410" t="s">
         <v>7</v>
@@ -8926,12 +8932,12 @@
         <v>10</v>
       </c>
       <c r="F410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B411" t="s">
         <v>7</v>
@@ -8946,12 +8952,12 @@
         <v>10</v>
       </c>
       <c r="F411">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B412" t="s">
         <v>7</v>
@@ -8971,7 +8977,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B413" t="s">
         <v>7</v>
@@ -8991,7 +8997,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B414" t="s">
         <v>7</v>
@@ -9006,12 +9012,12 @@
         <v>11</v>
       </c>
       <c r="F414">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B415" t="s">
         <v>7</v>
@@ -9026,12 +9032,12 @@
         <v>11</v>
       </c>
       <c r="F415">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B416" t="s">
         <v>7</v>
@@ -9046,12 +9052,12 @@
         <v>11</v>
       </c>
       <c r="F416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B417" t="s">
         <v>7</v>
@@ -9066,12 +9072,12 @@
         <v>11</v>
       </c>
       <c r="F417">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B418" t="s">
         <v>7</v>
@@ -9086,12 +9092,12 @@
         <v>11</v>
       </c>
       <c r="F418">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B419" t="s">
         <v>7</v>
@@ -9106,12 +9112,12 @@
         <v>12</v>
       </c>
       <c r="F419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B420" t="s">
         <v>7</v>
@@ -9131,7 +9137,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B421" t="s">
         <v>7</v>
@@ -9146,12 +9152,12 @@
         <v>12</v>
       </c>
       <c r="F421">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B422" t="s">
         <v>6</v>
@@ -9166,12 +9172,12 @@
         <v>9</v>
       </c>
       <c r="F422">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B423" t="s">
         <v>6</v>
@@ -9191,7 +9197,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B424" t="s">
         <v>6</v>
@@ -9206,12 +9212,12 @@
         <v>10</v>
       </c>
       <c r="F424">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B425" t="s">
         <v>6</v>
@@ -9226,12 +9232,12 @@
         <v>10</v>
       </c>
       <c r="F425">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B426" t="s">
         <v>6</v>
@@ -9246,12 +9252,12 @@
         <v>10</v>
       </c>
       <c r="F426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B427" t="s">
         <v>6</v>
@@ -9266,12 +9272,12 @@
         <v>10</v>
       </c>
       <c r="F427">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B428" t="s">
         <v>6</v>
@@ -9291,7 +9297,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B429" t="s">
         <v>6</v>
@@ -9306,12 +9312,12 @@
         <v>11</v>
       </c>
       <c r="F429">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B430" t="s">
         <v>6</v>
@@ -9326,12 +9332,12 @@
         <v>11</v>
       </c>
       <c r="F430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B431" t="s">
         <v>6</v>
@@ -9351,27 +9357,27 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B432" t="s">
         <v>6</v>
       </c>
       <c r="C432" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="D432" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="E432" t="s">
         <v>11</v>
       </c>
       <c r="F432">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B433" t="s">
         <v>6</v>
@@ -9391,7 +9397,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B434" t="s">
         <v>6</v>
@@ -9406,12 +9412,12 @@
         <v>12</v>
       </c>
       <c r="F434">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B435" t="s">
         <v>6</v>
@@ -9426,12 +9432,12 @@
         <v>12</v>
       </c>
       <c r="F435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B436" t="s">
         <v>6</v>
@@ -9446,12 +9452,12 @@
         <v>12</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B437" t="s">
         <v>7</v>
@@ -9466,12 +9472,12 @@
         <v>9</v>
       </c>
       <c r="F437">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B438" t="s">
         <v>7</v>
@@ -9491,7 +9497,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B439" t="s">
         <v>7</v>
@@ -9506,12 +9512,12 @@
         <v>10</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B440" t="s">
         <v>7</v>
@@ -9526,12 +9532,12 @@
         <v>10</v>
       </c>
       <c r="F440">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B441" t="s">
         <v>7</v>
@@ -9546,12 +9552,12 @@
         <v>10</v>
       </c>
       <c r="F441">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B442" t="s">
         <v>7</v>
@@ -9571,7 +9577,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B443" t="s">
         <v>7</v>
@@ -9586,12 +9592,12 @@
         <v>10</v>
       </c>
       <c r="F443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B444" t="s">
         <v>7</v>
@@ -9611,7 +9617,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B445" t="s">
         <v>7</v>
@@ -9626,12 +9632,12 @@
         <v>11</v>
       </c>
       <c r="F445">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B446" t="s">
         <v>7</v>
@@ -9646,12 +9652,12 @@
         <v>11</v>
       </c>
       <c r="F446">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B447" t="s">
         <v>7</v>
@@ -9666,12 +9672,12 @@
         <v>11</v>
       </c>
       <c r="F447">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B448" t="s">
         <v>7</v>
@@ -9686,18 +9692,18 @@
         <v>11</v>
       </c>
       <c r="F448">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B449" t="s">
         <v>7</v>
       </c>
       <c r="C449" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="D449" t="s">
         <v>17</v>
@@ -9706,12 +9712,12 @@
         <v>12</v>
       </c>
       <c r="F449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B450" t="s">
         <v>7</v>
@@ -9726,12 +9732,12 @@
         <v>12</v>
       </c>
       <c r="F450">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B451" t="s">
         <v>7</v>
@@ -9746,12 +9752,12 @@
         <v>12</v>
       </c>
       <c r="F451">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B452" t="s">
         <v>6</v>
@@ -9766,12 +9772,12 @@
         <v>9</v>
       </c>
       <c r="F452">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B453" t="s">
         <v>6</v>
@@ -9791,7 +9797,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B454" t="s">
         <v>6</v>
@@ -9811,7 +9817,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B455" t="s">
         <v>6</v>
@@ -9831,7 +9837,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B456" t="s">
         <v>6</v>
@@ -9846,12 +9852,12 @@
         <v>10</v>
       </c>
       <c r="F456">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B457" t="s">
         <v>6</v>
@@ -9871,7 +9877,7 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B458" t="s">
         <v>6</v>
@@ -9891,27 +9897,27 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B459" t="s">
         <v>6</v>
       </c>
       <c r="C459" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D459" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E459" t="s">
         <v>11</v>
       </c>
       <c r="F459">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B460" t="s">
         <v>6</v>
@@ -9926,12 +9932,12 @@
         <v>11</v>
       </c>
       <c r="F460">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B461" t="s">
         <v>6</v>
@@ -9946,12 +9952,12 @@
         <v>11</v>
       </c>
       <c r="F461">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B462" t="s">
         <v>6</v>
@@ -9966,12 +9972,12 @@
         <v>11</v>
       </c>
       <c r="F462">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B463" t="s">
         <v>6</v>
@@ -9986,12 +9992,12 @@
         <v>11</v>
       </c>
       <c r="F463">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B464" t="s">
         <v>6</v>
@@ -10006,12 +10012,12 @@
         <v>12</v>
       </c>
       <c r="F464">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B465" t="s">
         <v>6</v>
@@ -10026,12 +10032,12 @@
         <v>12</v>
       </c>
       <c r="F465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B466" t="s">
         <v>6</v>
@@ -10046,41 +10052,41 @@
         <v>12</v>
       </c>
       <c r="F466">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B467" t="s">
         <v>7</v>
       </c>
       <c r="C467" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="D467" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E467" t="s">
         <v>9</v>
       </c>
       <c r="F467">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B468" t="s">
         <v>7</v>
       </c>
       <c r="C468" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D468" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E468" t="s">
         <v>9</v>
@@ -10091,13 +10097,13 @@
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B469" t="s">
         <v>7</v>
       </c>
       <c r="C469" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D469" t="s">
         <v>16</v>
@@ -10106,81 +10112,81 @@
         <v>10</v>
       </c>
       <c r="F469">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B470" t="s">
         <v>7</v>
       </c>
       <c r="C470" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="D470" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E470" t="s">
         <v>10</v>
       </c>
       <c r="F470">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B471" t="s">
         <v>7</v>
       </c>
       <c r="C471" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D471" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="E471" t="s">
         <v>10</v>
       </c>
       <c r="F471">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B472" t="s">
         <v>7</v>
       </c>
       <c r="C472" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D472" t="s">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="E472" t="s">
         <v>10</v>
       </c>
       <c r="F472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B473" t="s">
         <v>7</v>
       </c>
       <c r="C473" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D473" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E473" t="s">
         <v>10</v>
@@ -10191,27 +10197,27 @@
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B474" t="s">
         <v>7</v>
       </c>
       <c r="C474" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="D474" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E474" t="s">
         <v>11</v>
       </c>
       <c r="F474">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B475" t="s">
         <v>7</v>
@@ -10226,81 +10232,81 @@
         <v>11</v>
       </c>
       <c r="F475">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B476" t="s">
         <v>7</v>
       </c>
       <c r="C476" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="D476" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="E476" t="s">
         <v>11</v>
       </c>
       <c r="F476">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B477" t="s">
         <v>7</v>
       </c>
       <c r="C477" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D477" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E477" t="s">
         <v>11</v>
       </c>
       <c r="F477">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B478" t="s">
         <v>7</v>
       </c>
       <c r="C478" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D478" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E478" t="s">
         <v>11</v>
       </c>
       <c r="F478">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B479" t="s">
         <v>7</v>
       </c>
       <c r="C479" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="D479" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="E479" t="s">
         <v>12</v>
@@ -10311,27 +10317,27 @@
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B480" t="s">
         <v>7</v>
       </c>
       <c r="C480" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D480" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E480" t="s">
         <v>12</v>
       </c>
       <c r="F480">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B481" t="s">
         <v>7</v>
@@ -10351,7 +10357,7 @@
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B482" t="s">
         <v>6</v>
@@ -10366,12 +10372,12 @@
         <v>9</v>
       </c>
       <c r="F482">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B483" t="s">
         <v>6</v>
@@ -10391,7 +10397,7 @@
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B484" t="s">
         <v>6</v>
@@ -10406,12 +10412,12 @@
         <v>10</v>
       </c>
       <c r="F484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B485" t="s">
         <v>6</v>
@@ -10431,7 +10437,7 @@
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B486" t="s">
         <v>6</v>
@@ -10446,12 +10452,12 @@
         <v>10</v>
       </c>
       <c r="F486">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B487" t="s">
         <v>6</v>
@@ -10466,12 +10472,12 @@
         <v>10</v>
       </c>
       <c r="F487">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B488" t="s">
         <v>6</v>
@@ -10491,7 +10497,7 @@
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B489" t="s">
         <v>6</v>
@@ -10506,12 +10512,12 @@
         <v>11</v>
       </c>
       <c r="F489">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B490" t="s">
         <v>6</v>
@@ -10526,12 +10532,12 @@
         <v>11</v>
       </c>
       <c r="F490">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B491" t="s">
         <v>6</v>
@@ -10551,7 +10557,7 @@
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B492" t="s">
         <v>6</v>
@@ -10566,32 +10572,32 @@
         <v>11</v>
       </c>
       <c r="F492">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B493" t="s">
         <v>6</v>
       </c>
       <c r="C493" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D493" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E493" t="s">
         <v>11</v>
       </c>
       <c r="F493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B494" t="s">
         <v>6</v>
@@ -10606,12 +10612,12 @@
         <v>12</v>
       </c>
       <c r="F494">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B495" t="s">
         <v>6</v>
@@ -10626,12 +10632,12 @@
         <v>12</v>
       </c>
       <c r="F495">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B496" t="s">
         <v>6</v>
@@ -10646,12 +10652,12 @@
         <v>12</v>
       </c>
       <c r="F496">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B497" t="s">
         <v>7</v>
@@ -10666,12 +10672,12 @@
         <v>9</v>
       </c>
       <c r="F497">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B498" t="s">
         <v>7</v>
@@ -10691,7 +10697,7 @@
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B499" t="s">
         <v>7</v>
@@ -10706,12 +10712,12 @@
         <v>10</v>
       </c>
       <c r="F499">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B500" t="s">
         <v>7</v>
@@ -10726,12 +10732,12 @@
         <v>10</v>
       </c>
       <c r="F500">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B501" t="s">
         <v>7</v>
@@ -10746,12 +10752,12 @@
         <v>10</v>
       </c>
       <c r="F501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B502" t="s">
         <v>7</v>
@@ -10766,12 +10772,12 @@
         <v>10</v>
       </c>
       <c r="F502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B503" t="s">
         <v>7</v>
@@ -10791,7 +10797,7 @@
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B504" t="s">
         <v>7</v>
@@ -10806,12 +10812,12 @@
         <v>11</v>
       </c>
       <c r="F504">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B505" t="s">
         <v>7</v>
@@ -10826,12 +10832,12 @@
         <v>11</v>
       </c>
       <c r="F505">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B506" t="s">
         <v>7</v>
@@ -10846,12 +10852,12 @@
         <v>11</v>
       </c>
       <c r="F506">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B507" t="s">
         <v>7</v>
@@ -10871,7 +10877,7 @@
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B508" t="s">
         <v>7</v>
@@ -10891,7 +10897,7 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B509" t="s">
         <v>7</v>
@@ -10906,12 +10912,12 @@
         <v>12</v>
       </c>
       <c r="F509">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B510" t="s">
         <v>7</v>
@@ -10926,32 +10932,32 @@
         <v>12</v>
       </c>
       <c r="F510">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B511" t="s">
         <v>7</v>
       </c>
       <c r="C511" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D511" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E511" t="s">
         <v>12</v>
       </c>
       <c r="F511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B512" t="s">
         <v>6</v>
@@ -10971,7 +10977,7 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B513" t="s">
         <v>6</v>
@@ -10991,7 +10997,7 @@
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B514" t="s">
         <v>6</v>
@@ -11006,12 +11012,12 @@
         <v>10</v>
       </c>
       <c r="F514">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B515" t="s">
         <v>6</v>
@@ -11020,7 +11026,7 @@
         <v>23</v>
       </c>
       <c r="D515" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E515" t="s">
         <v>10</v>
@@ -11031,7 +11037,7 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B516" t="s">
         <v>6</v>
@@ -11046,32 +11052,32 @@
         <v>10</v>
       </c>
       <c r="F516">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B517" t="s">
         <v>6</v>
       </c>
       <c r="C517" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D517" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E517" t="s">
         <v>10</v>
       </c>
       <c r="F517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B518" t="s">
         <v>6</v>
@@ -11086,12 +11092,12 @@
         <v>10</v>
       </c>
       <c r="F518">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B519" t="s">
         <v>6</v>
@@ -11111,16 +11117,16 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B520" t="s">
         <v>6</v>
       </c>
       <c r="C520" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D520" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E520" t="s">
         <v>11</v>
@@ -11131,7 +11137,7 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B521" t="s">
         <v>6</v>
@@ -11146,12 +11152,12 @@
         <v>11</v>
       </c>
       <c r="F521">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B522" t="s">
         <v>6</v>
@@ -11166,12 +11172,12 @@
         <v>11</v>
       </c>
       <c r="F522">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B523" t="s">
         <v>6</v>
@@ -11186,12 +11192,12 @@
         <v>11</v>
       </c>
       <c r="F523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B524" t="s">
         <v>6</v>
@@ -11211,7 +11217,7 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B525" t="s">
         <v>6</v>
@@ -11226,12 +11232,12 @@
         <v>12</v>
       </c>
       <c r="F525">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B526" t="s">
         <v>6</v>
@@ -11251,7 +11257,7 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B527" t="s">
         <v>7</v>
@@ -11271,7 +11277,7 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B528" t="s">
         <v>7</v>
@@ -11291,7 +11297,7 @@
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B529" t="s">
         <v>7</v>
@@ -11306,12 +11312,12 @@
         <v>10</v>
       </c>
       <c r="F529">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B530" t="s">
         <v>7</v>
@@ -11331,7 +11337,7 @@
     </row>
     <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B531" t="s">
         <v>7</v>
@@ -11346,12 +11352,12 @@
         <v>10</v>
       </c>
       <c r="F531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B532" t="s">
         <v>7</v>
@@ -11366,12 +11372,12 @@
         <v>10</v>
       </c>
       <c r="F532">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B533" t="s">
         <v>7</v>
@@ -11391,13 +11397,13 @@
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B534" t="s">
         <v>7</v>
       </c>
       <c r="C534" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D534" t="s">
         <v>20</v>
@@ -11406,12 +11412,12 @@
         <v>11</v>
       </c>
       <c r="F534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B535" t="s">
         <v>7</v>
@@ -11426,12 +11432,12 @@
         <v>11</v>
       </c>
       <c r="F535">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B536" t="s">
         <v>7</v>
@@ -11446,12 +11452,12 @@
         <v>11</v>
       </c>
       <c r="F536">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B537" t="s">
         <v>7</v>
@@ -11466,12 +11472,12 @@
         <v>11</v>
       </c>
       <c r="F537">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B538" t="s">
         <v>7</v>
@@ -11491,7 +11497,7 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B539" t="s">
         <v>7</v>
@@ -11506,12 +11512,12 @@
         <v>12</v>
       </c>
       <c r="F539">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B540" t="s">
         <v>7</v>
@@ -11526,12 +11532,12 @@
         <v>12</v>
       </c>
       <c r="F540">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B541" t="s">
         <v>7</v>
@@ -11546,12 +11552,12 @@
         <v>12</v>
       </c>
       <c r="F541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B542" t="s">
         <v>6</v>
@@ -11566,12 +11572,12 @@
         <v>9</v>
       </c>
       <c r="F542">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B543" t="s">
         <v>6</v>
@@ -11591,7 +11597,7 @@
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B544" t="s">
         <v>6</v>
@@ -11606,12 +11612,12 @@
         <v>10</v>
       </c>
       <c r="F544">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B545" t="s">
         <v>6</v>
@@ -11631,7 +11637,7 @@
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B546" t="s">
         <v>6</v>
@@ -11651,7 +11657,7 @@
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B547" t="s">
         <v>6</v>
@@ -11671,7 +11677,7 @@
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B548" t="s">
         <v>6</v>
@@ -11686,12 +11692,12 @@
         <v>10</v>
       </c>
       <c r="F548">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B549" t="s">
         <v>6</v>
@@ -11706,12 +11712,12 @@
         <v>11</v>
       </c>
       <c r="F549">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B550" t="s">
         <v>6</v>
@@ -11726,12 +11732,12 @@
         <v>11</v>
       </c>
       <c r="F550">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B551" t="s">
         <v>6</v>
@@ -11746,12 +11752,12 @@
         <v>11</v>
       </c>
       <c r="F551">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B552" t="s">
         <v>6</v>
@@ -11766,12 +11772,12 @@
         <v>11</v>
       </c>
       <c r="F552">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B553" t="s">
         <v>6</v>
@@ -11786,12 +11792,12 @@
         <v>11</v>
       </c>
       <c r="F553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B554" t="s">
         <v>6</v>
@@ -11806,12 +11812,12 @@
         <v>12</v>
       </c>
       <c r="F554">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B555" t="s">
         <v>6</v>
@@ -11826,12 +11832,12 @@
         <v>12</v>
       </c>
       <c r="F555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B556" t="s">
         <v>6</v>
@@ -11846,12 +11852,12 @@
         <v>12</v>
       </c>
       <c r="F556">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B557" t="s">
         <v>7</v>
@@ -11866,12 +11872,12 @@
         <v>9</v>
       </c>
       <c r="F557">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B558" t="s">
         <v>7</v>
@@ -11891,7 +11897,7 @@
     </row>
     <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B559" t="s">
         <v>7</v>
@@ -11911,7 +11917,7 @@
     </row>
     <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B560" t="s">
         <v>7</v>
@@ -11926,12 +11932,12 @@
         <v>10</v>
       </c>
       <c r="F560">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B561" t="s">
         <v>7</v>
@@ -11946,12 +11952,12 @@
         <v>10</v>
       </c>
       <c r="F561">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B562" t="s">
         <v>7</v>
@@ -11966,12 +11972,12 @@
         <v>10</v>
       </c>
       <c r="F562">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B563" t="s">
         <v>7</v>
@@ -11991,7 +11997,7 @@
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B564" t="s">
         <v>7</v>
@@ -12006,12 +12012,12 @@
         <v>11</v>
       </c>
       <c r="F564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B565" t="s">
         <v>7</v>
@@ -12026,12 +12032,12 @@
         <v>11</v>
       </c>
       <c r="F565">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B566" t="s">
         <v>7</v>
@@ -12046,12 +12052,12 @@
         <v>11</v>
       </c>
       <c r="F566">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B567" t="s">
         <v>7</v>
@@ -12066,12 +12072,12 @@
         <v>11</v>
       </c>
       <c r="F567">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B568" t="s">
         <v>7</v>
@@ -12091,16 +12097,16 @@
     </row>
     <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B569" t="s">
         <v>7</v>
       </c>
       <c r="C569" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D569" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="E569" t="s">
         <v>12</v>
@@ -12111,7 +12117,7 @@
     </row>
     <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B570" t="s">
         <v>7</v>
@@ -12126,12 +12132,12 @@
         <v>12</v>
       </c>
       <c r="F570">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B571" t="s">
         <v>7</v>
@@ -12149,9 +12155,609 @@
         <v>1</v>
       </c>
     </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>1</v>
+      </c>
+      <c r="B572" t="s">
+        <v>6</v>
+      </c>
+      <c r="C572" t="s">
+        <v>8</v>
+      </c>
+      <c r="D572" t="s">
+        <v>13</v>
+      </c>
+      <c r="E572" t="s">
+        <v>9</v>
+      </c>
+      <c r="F572">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>1</v>
+      </c>
+      <c r="B573" t="s">
+        <v>6</v>
+      </c>
+      <c r="C573" t="s">
+        <v>21</v>
+      </c>
+      <c r="D573" t="s">
+        <v>19</v>
+      </c>
+      <c r="E573" t="s">
+        <v>9</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>1</v>
+      </c>
+      <c r="B574" t="s">
+        <v>6</v>
+      </c>
+      <c r="C574" t="s">
+        <v>22</v>
+      </c>
+      <c r="D574" t="s">
+        <v>14</v>
+      </c>
+      <c r="E574" t="s">
+        <v>10</v>
+      </c>
+      <c r="F574">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>1</v>
+      </c>
+      <c r="B575" t="s">
+        <v>6</v>
+      </c>
+      <c r="C575" t="s">
+        <v>23</v>
+      </c>
+      <c r="D575" t="s">
+        <v>15</v>
+      </c>
+      <c r="E575" t="s">
+        <v>10</v>
+      </c>
+      <c r="F575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>1</v>
+      </c>
+      <c r="B576" t="s">
+        <v>6</v>
+      </c>
+      <c r="C576" t="s">
+        <v>24</v>
+      </c>
+      <c r="D576" t="s">
+        <v>16</v>
+      </c>
+      <c r="E576" t="s">
+        <v>10</v>
+      </c>
+      <c r="F576">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>1</v>
+      </c>
+      <c r="B577" t="s">
+        <v>6</v>
+      </c>
+      <c r="C577" t="s">
+        <v>26</v>
+      </c>
+      <c r="D577" t="s">
+        <v>17</v>
+      </c>
+      <c r="E577" t="s">
+        <v>10</v>
+      </c>
+      <c r="F577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>1</v>
+      </c>
+      <c r="B578" t="s">
+        <v>6</v>
+      </c>
+      <c r="C578" t="s">
+        <v>27</v>
+      </c>
+      <c r="D578" t="s">
+        <v>18</v>
+      </c>
+      <c r="E578" t="s">
+        <v>10</v>
+      </c>
+      <c r="F578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>1</v>
+      </c>
+      <c r="B579" t="s">
+        <v>6</v>
+      </c>
+      <c r="C579" t="s">
+        <v>25</v>
+      </c>
+      <c r="D579" t="s">
+        <v>13</v>
+      </c>
+      <c r="E579" t="s">
+        <v>11</v>
+      </c>
+      <c r="F579">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>1</v>
+      </c>
+      <c r="B580" t="s">
+        <v>6</v>
+      </c>
+      <c r="C580" t="s">
+        <v>28</v>
+      </c>
+      <c r="D580" t="s">
+        <v>13</v>
+      </c>
+      <c r="E580" t="s">
+        <v>11</v>
+      </c>
+      <c r="F580">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>1</v>
+      </c>
+      <c r="B581" t="s">
+        <v>6</v>
+      </c>
+      <c r="C581" t="s">
+        <v>29</v>
+      </c>
+      <c r="D581" t="s">
+        <v>19</v>
+      </c>
+      <c r="E581" t="s">
+        <v>11</v>
+      </c>
+      <c r="F581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>1</v>
+      </c>
+      <c r="B582" t="s">
+        <v>6</v>
+      </c>
+      <c r="C582" t="s">
+        <v>30</v>
+      </c>
+      <c r="D582" t="s">
+        <v>14</v>
+      </c>
+      <c r="E582" t="s">
+        <v>11</v>
+      </c>
+      <c r="F582">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>1</v>
+      </c>
+      <c r="B583" t="s">
+        <v>6</v>
+      </c>
+      <c r="C583" t="s">
+        <v>31</v>
+      </c>
+      <c r="D583" t="s">
+        <v>16</v>
+      </c>
+      <c r="E583" t="s">
+        <v>11</v>
+      </c>
+      <c r="F583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>1</v>
+      </c>
+      <c r="B584" t="s">
+        <v>6</v>
+      </c>
+      <c r="C584" t="s">
+        <v>32</v>
+      </c>
+      <c r="D584" t="s">
+        <v>20</v>
+      </c>
+      <c r="E584" t="s">
+        <v>12</v>
+      </c>
+      <c r="F584">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>1</v>
+      </c>
+      <c r="B585" t="s">
+        <v>6</v>
+      </c>
+      <c r="C585" t="s">
+        <v>33</v>
+      </c>
+      <c r="D585" t="s">
+        <v>17</v>
+      </c>
+      <c r="E585" t="s">
+        <v>12</v>
+      </c>
+      <c r="F585">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>1</v>
+      </c>
+      <c r="B586" t="s">
+        <v>6</v>
+      </c>
+      <c r="C586" t="s">
+        <v>34</v>
+      </c>
+      <c r="D586" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" t="s">
+        <v>12</v>
+      </c>
+      <c r="F586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>1</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+      <c r="C587" t="s">
+        <v>38</v>
+      </c>
+      <c r="D587" t="s">
+        <v>39</v>
+      </c>
+      <c r="E587" t="s">
+        <v>9</v>
+      </c>
+      <c r="F587">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>1</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+      <c r="C588" t="s">
+        <v>62</v>
+      </c>
+      <c r="D588" t="s">
+        <v>44</v>
+      </c>
+      <c r="E588" t="s">
+        <v>9</v>
+      </c>
+      <c r="F588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>1</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589" t="s">
+        <v>40</v>
+      </c>
+      <c r="D589" t="s">
+        <v>16</v>
+      </c>
+      <c r="E589" t="s">
+        <v>10</v>
+      </c>
+      <c r="F589">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>1</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+      <c r="C590" t="s">
+        <v>41</v>
+      </c>
+      <c r="D590" t="s">
+        <v>20</v>
+      </c>
+      <c r="E590" t="s">
+        <v>10</v>
+      </c>
+      <c r="F590">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>1</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+      <c r="C591" t="s">
+        <v>42</v>
+      </c>
+      <c r="D591" t="s">
+        <v>43</v>
+      </c>
+      <c r="E591" t="s">
+        <v>10</v>
+      </c>
+      <c r="F591">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>1</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+      <c r="C592" t="s">
+        <v>45</v>
+      </c>
+      <c r="D592" t="s">
+        <v>19</v>
+      </c>
+      <c r="E592" t="s">
+        <v>10</v>
+      </c>
+      <c r="F592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>1</v>
+      </c>
+      <c r="B593" t="s">
+        <v>7</v>
+      </c>
+      <c r="C593" t="s">
+        <v>46</v>
+      </c>
+      <c r="D593" t="s">
+        <v>49</v>
+      </c>
+      <c r="E593" t="s">
+        <v>10</v>
+      </c>
+      <c r="F593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>1</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+      <c r="C594" t="s">
+        <v>50</v>
+      </c>
+      <c r="D594" t="s">
+        <v>20</v>
+      </c>
+      <c r="E594" t="s">
+        <v>11</v>
+      </c>
+      <c r="F594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>1</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+      <c r="C595" t="s">
+        <v>51</v>
+      </c>
+      <c r="D595" t="s">
+        <v>52</v>
+      </c>
+      <c r="E595" t="s">
+        <v>11</v>
+      </c>
+      <c r="F595">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>1</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+      <c r="C596" t="s">
+        <v>53</v>
+      </c>
+      <c r="D596" t="s">
+        <v>54</v>
+      </c>
+      <c r="E596" t="s">
+        <v>11</v>
+      </c>
+      <c r="F596">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>1</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+      <c r="C597" t="s">
+        <v>55</v>
+      </c>
+      <c r="D597" t="s">
+        <v>19</v>
+      </c>
+      <c r="E597" t="s">
+        <v>11</v>
+      </c>
+      <c r="F597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>1</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" t="s">
+        <v>47</v>
+      </c>
+      <c r="D598" t="s">
+        <v>48</v>
+      </c>
+      <c r="E598" t="s">
+        <v>11</v>
+      </c>
+      <c r="F598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>1</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+      <c r="C599" t="s">
+        <v>56</v>
+      </c>
+      <c r="D599" t="s">
+        <v>14</v>
+      </c>
+      <c r="E599" t="s">
+        <v>12</v>
+      </c>
+      <c r="F599">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>1</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+      <c r="C600" t="s">
+        <v>57</v>
+      </c>
+      <c r="D600" t="s">
+        <v>43</v>
+      </c>
+      <c r="E600" t="s">
+        <v>12</v>
+      </c>
+      <c r="F600">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>1</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+      <c r="C601" t="s">
+        <v>58</v>
+      </c>
+      <c r="D601" t="s">
+        <v>19</v>
+      </c>
+      <c r="E601" t="s">
+        <v>12</v>
+      </c>
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A302:F571">
-    <sortCondition descending="1" ref="A302:A571"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A332:F601">
+    <sortCondition descending="1" ref="A332:A601"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12159,10 +12765,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E08F3E-397A-4BD7-9E39-8A74D5B0AA3B}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12213,7 +12819,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B4)</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B4)</f>
         <v>42</v>
       </c>
     </row>
@@ -12225,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B5)</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B5)</f>
         <v>63</v>
       </c>
     </row>
@@ -12237,7 +12843,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B6)+C4</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B6)+C4</f>
         <v>126</v>
       </c>
     </row>
@@ -12249,7 +12855,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B7)+C5</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B7)+C5</f>
         <v>132</v>
       </c>
     </row>
@@ -12261,7 +12867,7 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B8)+C6</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B8)+C6</f>
         <v>185</v>
       </c>
     </row>
@@ -12273,7 +12879,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B9)+C7</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B9)+C7</f>
         <v>176</v>
       </c>
     </row>
@@ -12285,7 +12891,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B10)+C8</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B10)+C8</f>
         <v>262</v>
       </c>
     </row>
@@ -12297,7 +12903,7 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B11)+C9</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B11)+C9</f>
         <v>211</v>
       </c>
     </row>
@@ -12309,7 +12915,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B12)+C10</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B12)+C10</f>
         <v>325</v>
       </c>
     </row>
@@ -12321,7 +12927,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B13)+C11</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B13)+C11</f>
         <v>267</v>
       </c>
     </row>
@@ -12333,7 +12939,7 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B14)+C12</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B14)+C12</f>
         <v>392</v>
       </c>
     </row>
@@ -12345,7 +12951,7 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B15)+C13</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B15)+C13</f>
         <v>319</v>
       </c>
     </row>
@@ -12357,7 +12963,7 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B16)+C14</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B16)+C14</f>
         <v>428</v>
       </c>
     </row>
@@ -12369,7 +12975,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B17)+C15</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B17)+C15</f>
         <v>367</v>
       </c>
     </row>
@@ -12381,7 +12987,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B18)+C16</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B18)+C16</f>
         <v>456</v>
       </c>
     </row>
@@ -12393,7 +12999,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B19)+C17</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B19)+C17</f>
         <v>392</v>
       </c>
     </row>
@@ -12405,7 +13011,7 @@
         <v>9</v>
       </c>
       <c r="C20">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B20)+C18</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B20)+C18</f>
         <v>506</v>
       </c>
     </row>
@@ -12417,7 +13023,7 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B21)+C19</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B21)+C19</f>
         <v>439</v>
       </c>
     </row>
@@ -12429,7 +13035,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B22)+C20</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B22)+C20</f>
         <v>530</v>
       </c>
     </row>
@@ -12441,7 +13047,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B23)+C21</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B23)+C21</f>
         <v>465</v>
       </c>
     </row>
@@ -12453,7 +13059,7 @@
         <v>11</v>
       </c>
       <c r="C24">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B24)+C22</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B24)+C22</f>
         <v>579</v>
       </c>
     </row>
@@ -12465,7 +13071,7 @@
         <v>11</v>
       </c>
       <c r="C25">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B25)+C23</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B25)+C23</f>
         <v>505</v>
       </c>
     </row>
@@ -12477,7 +13083,7 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"Bazzers Ballers",'Weekly Points'!$A$212:$A$571,B26)+C24</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"Bazzers Ballers",'Weekly Points'!$A$242:$A$601,B26)+C24</f>
         <v>609</v>
       </c>
     </row>
@@ -12489,7 +13095,7 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <f>SUMIFS('Weekly Points'!$F$212:$F$571,'Weekly Points'!$B$212:$B$571,"WHU-Tang-Clan",'Weekly Points'!$A$212:$A$571,B27)+C25</f>
+        <f>SUMIFS('Weekly Points'!$F$242:$F$601,'Weekly Points'!$B$242:$B$601,"WHU-Tang-Clan",'Weekly Points'!$A$242:$A$601,B27)+C25</f>
         <v>544</v>
       </c>
     </row>
@@ -12501,7 +13107,7 @@
         <v>13</v>
       </c>
       <c r="C28">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$571,'Weekly Points'!$B$182:$B$571,A28,'Weekly Points'!$A$182:$A$571,B28)+C26</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$601,'Weekly Points'!$B$212:$B$601,A28,'Weekly Points'!$A$212:$A$601,B28)+C26</f>
         <v>690</v>
       </c>
     </row>
@@ -12513,7 +13119,7 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <f>SUMIFS('Weekly Points'!$F$182:$F$571,'Weekly Points'!$B$182:$B$571,A29,'Weekly Points'!$A$182:$A$571,B29)+C27</f>
+        <f>SUMIFS('Weekly Points'!$F$212:$F$601,'Weekly Points'!$B$212:$B$601,A29,'Weekly Points'!$A$212:$A$601,B29)+C27</f>
         <v>621</v>
       </c>
     </row>
@@ -12525,7 +13131,7 @@
         <v>14</v>
       </c>
       <c r="C30">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$571,'Weekly Points'!$B$152:$B$571,A30,'Weekly Points'!$A$152:$A$571,B30)+C28</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$601,'Weekly Points'!$B$182:$B$601,A30,'Weekly Points'!$A$182:$A$601,B30)+C28</f>
         <v>754</v>
       </c>
     </row>
@@ -12537,7 +13143,7 @@
         <v>14</v>
       </c>
       <c r="C31">
-        <f>SUMIFS('Weekly Points'!$F$152:$F$571,'Weekly Points'!$B$152:$B$571,A31,'Weekly Points'!$A$152:$A$571,B31)+C29</f>
+        <f>SUMIFS('Weekly Points'!$F$182:$F$601,'Weekly Points'!$B$182:$B$601,A31,'Weekly Points'!$A$182:$A$601,B31)+C29</f>
         <v>680</v>
       </c>
     </row>
@@ -12549,7 +13155,7 @@
         <v>15</v>
       </c>
       <c r="C32">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$571,'Weekly Points'!$B$122:$B$571,A32,'Weekly Points'!$A$122:$A$571,B32)+C30</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$601,'Weekly Points'!$B$152:$B$601,A32,'Weekly Points'!$A$152:$A$601,B32)+C30</f>
         <v>818</v>
       </c>
     </row>
@@ -12561,7 +13167,7 @@
         <v>15</v>
       </c>
       <c r="C33">
-        <f>SUMIFS('Weekly Points'!$F$122:$F$571,'Weekly Points'!$B$122:$B$571,A33,'Weekly Points'!$A$122:$A$571,B33)+C31</f>
+        <f>SUMIFS('Weekly Points'!$F$152:$F$601,'Weekly Points'!$B$152:$B$601,A33,'Weekly Points'!$A$152:$A$601,B33)+C31</f>
         <v>723</v>
       </c>
     </row>
@@ -12573,7 +13179,7 @@
         <v>16</v>
       </c>
       <c r="C34">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$571,'Weekly Points'!$B$92:$B$571,A34,'Weekly Points'!$A$92:$A$571,B34)+C32</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$601,'Weekly Points'!$B$122:$B$601,A34,'Weekly Points'!$A$122:$A$601,B34)+C32</f>
         <v>876</v>
       </c>
     </row>
@@ -12585,7 +13191,7 @@
         <v>16</v>
       </c>
       <c r="C35">
-        <f>SUMIFS('Weekly Points'!$F$92:$F$571,'Weekly Points'!$B$92:$B$571,A35,'Weekly Points'!$A$92:$A$571,B35)+C33</f>
+        <f>SUMIFS('Weekly Points'!$F$122:$F$601,'Weekly Points'!$B$122:$B$601,A35,'Weekly Points'!$A$122:$A$601,B35)+C33</f>
         <v>763</v>
       </c>
     </row>
@@ -12597,7 +13203,7 @@
         <v>17</v>
       </c>
       <c r="C36">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$571,'Weekly Points'!$B$62:$B$571,A36,'Weekly Points'!$A$62:$A$571,B36)+C34</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$601,'Weekly Points'!$B$92:$B$601,A36,'Weekly Points'!$A$92:$A$601,B36)+C34</f>
         <v>950</v>
       </c>
     </row>
@@ -12609,7 +13215,7 @@
         <v>17</v>
       </c>
       <c r="C37">
-        <f>SUMIFS('Weekly Points'!$F$62:$F$571,'Weekly Points'!$B$62:$B$571,A37,'Weekly Points'!$A$62:$A$571,B37)+C35</f>
+        <f>SUMIFS('Weekly Points'!$F$92:$F$601,'Weekly Points'!$B$92:$B$601,A37,'Weekly Points'!$A$92:$A$601,B37)+C35</f>
         <v>812</v>
       </c>
     </row>
@@ -12621,7 +13227,7 @@
         <v>18</v>
       </c>
       <c r="C38">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$571,'Weekly Points'!$B$32:$B$571,A38,'Weekly Points'!$A$32:$A$571,B38)+C36</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$601,'Weekly Points'!$B$62:$B$601,A38,'Weekly Points'!$A$62:$A$601,B38)+C36</f>
         <v>1016</v>
       </c>
     </row>
@@ -12633,7 +13239,7 @@
         <v>18</v>
       </c>
       <c r="C39">
-        <f>SUMIFS('Weekly Points'!$F$32:$F$571,'Weekly Points'!$B$32:$B$571,A39,'Weekly Points'!$A$32:$A$571,B39)+C37</f>
+        <f>SUMIFS('Weekly Points'!$F$62:$F$601,'Weekly Points'!$B$62:$B$601,A39,'Weekly Points'!$A$62:$A$601,B39)+C37</f>
         <v>883</v>
       </c>
     </row>
@@ -12645,7 +13251,7 @@
         <v>19</v>
       </c>
       <c r="C40">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$571,'Weekly Points'!$B$2:$B$571,A40,'Weekly Points'!$A$2:$A$571,B40)+C38</f>
+        <f>SUMIFS('Weekly Points'!$F$32:$F$601,'Weekly Points'!$B$32:$B$601,A40,'Weekly Points'!$A$32:$A$601,B40)+C38</f>
         <v>1086</v>
       </c>
     </row>
@@ -12657,8 +13263,32 @@
         <v>19</v>
       </c>
       <c r="C41">
-        <f>SUMIFS('Weekly Points'!$F$2:$F$571,'Weekly Points'!$B$2:$B$571,A41,'Weekly Points'!$A$2:$A$571,B41)+C39</f>
+        <f>SUMIFS('Weekly Point